--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang5/02.XuLyBH/XLBH2105_GPSTayNinh.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang5/02.XuLyBH/XLBH2105_GPSTayNinh.xlsx
@@ -9,24 +9,30 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TG102LE" sheetId="27" r:id="rId1"/>
-    <sheet name="TongThang" sheetId="25" r:id="rId2"/>
+    <sheet name="TG102V" sheetId="28" r:id="rId2"/>
+    <sheet name="TG102SE" sheetId="29" r:id="rId3"/>
+    <sheet name="TongThang" sheetId="25" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TG102LE!$S$4:$S$51</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TongThang!$S$4:$S$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TG102SE!$S$4:$S$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TG102V!$S$4:$S$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">TongThang!$S$4:$S$51</definedName>
     <definedName name="_xlnm.Criteria" localSheetId="0">TG102LE!$S$4:$S$51</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="1">TongThang!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="2">TG102SE!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="1">TG102V!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="3">TongThang!$S$4:$S$51</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="84">
   <si>
     <t>STT</t>
   </si>
@@ -245,6 +251,45 @@
   <si>
     <t>Tùng</t>
   </si>
+  <si>
+    <t>TG102SE</t>
+  </si>
+  <si>
+    <t>Sim</t>
+  </si>
+  <si>
+    <t>TG102V</t>
+  </si>
+  <si>
+    <t>Còn BH</t>
+  </si>
+  <si>
+    <t>Nguồn thiết bị chập chờn</t>
+  </si>
+  <si>
+    <t>Hàn connector nguồn, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>PC+PM</t>
+  </si>
+  <si>
+    <t>NG,NCFW</t>
+  </si>
+  <si>
+    <t>125.212.203.114,15757</t>
+  </si>
+  <si>
+    <t>Thiết bị lỗi connector nguồn</t>
+  </si>
+  <si>
+    <t>Thay connector, nâng cấp FW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W.1.00.---01.180629 </t>
+  </si>
+  <si>
+    <t>125.212.203.114,q555u</t>
+  </si>
 </sst>
 </file>
 
@@ -443,7 +488,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -661,6 +706,36 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -673,31 +748,7 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1006,8 +1057,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView showZeros="0" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1039,43 +1090,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="76" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
       <c r="W1" s="48"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82" t="s">
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="79" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="82"/>
+      <c r="F2" s="79"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="54"/>
@@ -1120,58 +1171,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="77" t="s">
+      <c r="A4" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="77" t="s">
+      <c r="K4" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="77"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="75"/>
+      <c r="M4" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="77" t="s">
+      <c r="O4" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="76" t="s">
+      <c r="P4" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="77" t="s">
+      <c r="Q4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="77" t="s">
+      <c r="R4" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="78" t="s">
+      <c r="S4" s="87" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="77" t="s">
+      <c r="U4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="77" t="s">
+      <c r="V4" s="75" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="49"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="80"/>
       <c r="B5" s="67" t="s">
         <v>1</v>
       </c>
@@ -1196,23 +1247,23 @@
       <c r="I5" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="77"/>
+      <c r="J5" s="75"/>
       <c r="K5" s="63" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="77"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="77"/>
-      <c r="R5" s="77"/>
-      <c r="S5" s="78"/>
+      <c r="M5" s="82"/>
+      <c r="N5" s="82"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="86"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="87"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="77"/>
-      <c r="V5" s="77"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="75"/>
       <c r="W5" s="49"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1268,7 +1319,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="64"/>
-      <c r="U6" s="73" t="s">
+      <c r="U6" s="83" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1280,26 +1331,52 @@
       <c r="A7" s="4">
         <v>2</v>
       </c>
-      <c r="B7" s="37"/>
+      <c r="B7" s="37">
+        <v>44327</v>
+      </c>
       <c r="C7" s="37"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="1"/>
+      <c r="D7" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="39">
+        <v>868183035928295</v>
+      </c>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="H7" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="I7" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K7" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="L7" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="N7" s="42"/>
       <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="38"/>
+      <c r="P7" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="R7" s="38" t="s">
+        <v>78</v>
+      </c>
       <c r="S7" s="4"/>
       <c r="T7" s="64"/>
-      <c r="U7" s="74"/>
+      <c r="U7" s="84"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1309,26 +1386,50 @@
       <c r="A8" s="4">
         <v>3</v>
       </c>
-      <c r="B8" s="37"/>
+      <c r="B8" s="37">
+        <v>44327</v>
+      </c>
       <c r="C8" s="37"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="39"/>
+      <c r="D8" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="39">
+        <v>860157040199140</v>
+      </c>
       <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
+      <c r="G8" s="38" t="s">
+        <v>74</v>
+      </c>
       <c r="H8" s="38"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="51"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="1"/>
+      <c r="I8" s="51" t="s">
+        <v>79</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K8" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="L8" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="N8" s="42"/>
       <c r="O8" s="40"/>
-      <c r="P8" s="40"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="38"/>
+      <c r="P8" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="R8" s="38" t="s">
+        <v>78</v>
+      </c>
       <c r="S8" s="4"/>
       <c r="T8" s="64"/>
-      <c r="U8" s="74"/>
+      <c r="U8" s="84"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1357,7 +1458,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="64"/>
-      <c r="U9" s="74"/>
+      <c r="U9" s="84"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1386,7 +1487,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="64"/>
-      <c r="U10" s="74"/>
+      <c r="U10" s="84"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1415,7 +1516,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="64"/>
-      <c r="U11" s="74"/>
+      <c r="U11" s="84"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1444,7 +1545,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="64"/>
-      <c r="U12" s="73" t="s">
+      <c r="U12" s="83" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1475,7 +1576,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="64"/>
-      <c r="U13" s="74"/>
+      <c r="U13" s="84"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1504,7 +1605,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="64"/>
-      <c r="U14" s="74"/>
+      <c r="U14" s="84"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1533,7 +1634,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="74"/>
+      <c r="U15" s="84"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1562,7 +1663,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="75"/>
+      <c r="U16" s="85"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -1745,7 +1846,7 @@
       </c>
       <c r="V22" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W22" s="14"/>
     </row>
@@ -1958,7 +2059,7 @@
       </c>
       <c r="V29" s="10">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W29" s="14"/>
     </row>
@@ -2150,7 +2251,7 @@
       </c>
       <c r="V35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W35" s="14"/>
     </row>
@@ -2214,7 +2315,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -2793,6 +2894,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -2804,6 +2912,1789 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X57"/>
+  <sheetViews>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.42578125" style="20" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" style="72" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" style="72" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" style="20" customWidth="1"/>
+    <col min="5" max="5" width="32.42578125" style="20" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" style="20" customWidth="1"/>
+    <col min="7" max="7" width="17" style="20" customWidth="1"/>
+    <col min="8" max="8" width="35.42578125" style="20" customWidth="1"/>
+    <col min="9" max="9" width="45.28515625" style="60" customWidth="1"/>
+    <col min="10" max="10" width="53" style="20" customWidth="1"/>
+    <col min="11" max="11" width="33.42578125" style="20" customWidth="1"/>
+    <col min="12" max="12" width="30.7109375" style="26" customWidth="1"/>
+    <col min="13" max="13" width="58" style="20" customWidth="1"/>
+    <col min="14" max="14" width="21.85546875" style="20" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="20" customWidth="1"/>
+    <col min="16" max="16" width="37.7109375" style="20" customWidth="1"/>
+    <col min="17" max="17" width="23.42578125" style="20" customWidth="1"/>
+    <col min="18" max="18" width="21.140625" style="20" customWidth="1"/>
+    <col min="19" max="19" width="26.85546875" style="20" customWidth="1"/>
+    <col min="20" max="20" width="9.140625" style="20"/>
+    <col min="21" max="21" width="30.5703125" style="20" customWidth="1"/>
+    <col min="22" max="23" width="21.42578125" style="20" customWidth="1"/>
+    <col min="24" max="24" width="21.7109375" style="20" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="20"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="76" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
+      <c r="W1" s="48"/>
+    </row>
+    <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="77" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="79" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" s="79"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="27"/>
+      <c r="T2" s="27"/>
+      <c r="U2" s="27"/>
+      <c r="V2" s="28"/>
+      <c r="W2" s="27"/>
+    </row>
+    <row r="3" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
+      <c r="S3" s="27"/>
+      <c r="T3" s="27"/>
+      <c r="U3" s="27"/>
+      <c r="V3" s="28"/>
+      <c r="W3" s="27"/>
+    </row>
+    <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="75" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="75" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="75"/>
+      <c r="M4" s="81" t="s">
+        <v>42</v>
+      </c>
+      <c r="N4" s="81" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="75" t="s">
+        <v>7</v>
+      </c>
+      <c r="P4" s="86" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q4" s="75" t="s">
+        <v>39</v>
+      </c>
+      <c r="R4" s="75" t="s">
+        <v>53</v>
+      </c>
+      <c r="S4" s="87" t="s">
+        <v>54</v>
+      </c>
+      <c r="T4" s="27"/>
+      <c r="U4" s="75" t="s">
+        <v>39</v>
+      </c>
+      <c r="V4" s="75" t="s">
+        <v>53</v>
+      </c>
+      <c r="W4" s="49"/>
+    </row>
+    <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="80"/>
+      <c r="B5" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="67" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="73" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="73" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="73" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="73" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="73" t="s">
+        <v>55</v>
+      </c>
+      <c r="I5" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="75"/>
+      <c r="K5" s="73" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="73" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" s="82"/>
+      <c r="N5" s="82"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="86"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="87"/>
+      <c r="T5" s="27"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="75"/>
+      <c r="W5" s="49"/>
+    </row>
+    <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>1</v>
+      </c>
+      <c r="B6" s="37">
+        <v>44327</v>
+      </c>
+      <c r="C6" s="37"/>
+      <c r="D6" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="E6" s="39">
+        <v>866192037805452</v>
+      </c>
+      <c r="F6" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="H6" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="I6" s="51" t="s">
+        <v>83</v>
+      </c>
+      <c r="J6" s="1"/>
+      <c r="K6" s="61" t="s">
+        <v>82</v>
+      </c>
+      <c r="L6" s="40"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="42"/>
+      <c r="O6" s="40"/>
+      <c r="P6" s="40"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="38"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="74"/>
+      <c r="U6" s="83" t="s">
+        <v>18</v>
+      </c>
+      <c r="V6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="W6" s="74"/>
+    </row>
+    <row r="7" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>2</v>
+      </c>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="42"/>
+      <c r="O7" s="40"/>
+      <c r="P7" s="40"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="38"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="74"/>
+      <c r="U7" s="84"/>
+      <c r="V7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="W7" s="74"/>
+    </row>
+    <row r="8" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>3</v>
+      </c>
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="51"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="42"/>
+      <c r="O8" s="40"/>
+      <c r="P8" s="40"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="38"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="74"/>
+      <c r="U8" s="84"/>
+      <c r="V8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="W8" s="74"/>
+    </row>
+    <row r="9" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>4</v>
+      </c>
+      <c r="B9" s="37"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="42"/>
+      <c r="O9" s="40"/>
+      <c r="P9" s="40"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="38"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="74"/>
+      <c r="U9" s="84"/>
+      <c r="V9" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="W9" s="74"/>
+    </row>
+    <row r="10" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>5</v>
+      </c>
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="42"/>
+      <c r="O10" s="40"/>
+      <c r="P10" s="40"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="38"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="74"/>
+      <c r="U10" s="84"/>
+      <c r="V10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="W10" s="74"/>
+    </row>
+    <row r="11" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>6</v>
+      </c>
+      <c r="B11" s="68"/>
+      <c r="C11" s="68"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="40"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="40"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="38"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="74"/>
+      <c r="U11" s="84"/>
+      <c r="V11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="W11" s="74"/>
+    </row>
+    <row r="12" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>7</v>
+      </c>
+      <c r="B12" s="68"/>
+      <c r="C12" s="68"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="40"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="40"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="38"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="74"/>
+      <c r="U12" s="83" t="s">
+        <v>19</v>
+      </c>
+      <c r="V12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="W12" s="74"/>
+    </row>
+    <row r="13" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>8</v>
+      </c>
+      <c r="B13" s="68"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="40"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="74"/>
+      <c r="U13" s="84"/>
+      <c r="V13" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="W13" s="74"/>
+    </row>
+    <row r="14" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>9</v>
+      </c>
+      <c r="B14" s="68"/>
+      <c r="C14" s="68"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="40"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="40"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="38"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="74"/>
+      <c r="U14" s="84"/>
+      <c r="V14" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="W14" s="74"/>
+    </row>
+    <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>10</v>
+      </c>
+      <c r="B15" s="68"/>
+      <c r="C15" s="68"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="40"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="40"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="38"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="14"/>
+      <c r="U15" s="84"/>
+      <c r="V15" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="W15" s="74"/>
+    </row>
+    <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>11</v>
+      </c>
+      <c r="B16" s="68"/>
+      <c r="C16" s="68"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="65"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="57"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="40"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="40"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="38"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="14"/>
+      <c r="U16" s="85"/>
+      <c r="V16" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="W16" s="74"/>
+    </row>
+    <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>12</v>
+      </c>
+      <c r="B17" s="68"/>
+      <c r="C17" s="68"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="40"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="40"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="38"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="14"/>
+      <c r="U17" s="74"/>
+      <c r="V17" s="15"/>
+      <c r="W17" s="74"/>
+    </row>
+    <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>13</v>
+      </c>
+      <c r="B18" s="69"/>
+      <c r="C18" s="69"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="40"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="14"/>
+      <c r="U18" s="14"/>
+      <c r="V18" s="16"/>
+      <c r="W18" s="14"/>
+    </row>
+    <row r="19" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>14</v>
+      </c>
+      <c r="B19" s="69"/>
+      <c r="C19" s="69"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="40"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="14"/>
+      <c r="U19" s="73" t="s">
+        <v>39</v>
+      </c>
+      <c r="V19" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="W19" s="50"/>
+    </row>
+    <row r="20" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>15</v>
+      </c>
+      <c r="B20" s="69"/>
+      <c r="C20" s="69"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="57"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="40"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="14"/>
+      <c r="U20" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="V20" s="10">
+        <f>COUNTIF($Q$6:$Q$51,"PM")</f>
+        <v>0</v>
+      </c>
+      <c r="W20" s="14"/>
+    </row>
+    <row r="21" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>16</v>
+      </c>
+      <c r="B21" s="69"/>
+      <c r="C21" s="69"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="57"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="40"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="4"/>
+      <c r="T21" s="14"/>
+      <c r="U21" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="V21" s="10">
+        <f>COUNTIF($Q$6:$Q$51,"PC")</f>
+        <v>0</v>
+      </c>
+      <c r="W21" s="14"/>
+    </row>
+    <row r="22" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>17</v>
+      </c>
+      <c r="B22" s="69"/>
+      <c r="C22" s="69"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="57"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="40"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="14"/>
+      <c r="U22" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="V22" s="10">
+        <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
+        <v>0</v>
+      </c>
+      <c r="W22" s="14"/>
+    </row>
+    <row r="23" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>18</v>
+      </c>
+      <c r="B23" s="69"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="57"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="40"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="10"/>
+      <c r="S23" s="4"/>
+      <c r="T23" s="14"/>
+      <c r="U23" s="14"/>
+      <c r="V23" s="16"/>
+      <c r="W23" s="14"/>
+    </row>
+    <row r="24" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>19</v>
+      </c>
+      <c r="B24" s="69"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="57"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="40"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="10"/>
+      <c r="S24" s="4"/>
+      <c r="T24" s="14"/>
+      <c r="U24" s="14"/>
+      <c r="V24" s="16"/>
+      <c r="W24" s="14"/>
+    </row>
+    <row r="25" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>20</v>
+      </c>
+      <c r="B25" s="69"/>
+      <c r="C25" s="69"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="57"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="40"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="10"/>
+      <c r="S25" s="4"/>
+      <c r="T25" s="14"/>
+      <c r="U25" s="73" t="s">
+        <v>46</v>
+      </c>
+      <c r="V25" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="W25" s="50"/>
+    </row>
+    <row r="26" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>21</v>
+      </c>
+      <c r="B26" s="69"/>
+      <c r="C26" s="69"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="57"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="40"/>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="10"/>
+      <c r="S26" s="4"/>
+      <c r="T26" s="14"/>
+      <c r="U26" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="V26" s="10">
+        <f>COUNTIF($R$6:$R$51,"*MCU*")</f>
+        <v>0</v>
+      </c>
+      <c r="W26" s="14"/>
+    </row>
+    <row r="27" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>22</v>
+      </c>
+      <c r="B27" s="69"/>
+      <c r="C27" s="69"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="57"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="40"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="10"/>
+      <c r="S27" s="4"/>
+      <c r="T27" s="14"/>
+      <c r="U27" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="V27" s="10">
+        <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
+        <v>0</v>
+      </c>
+      <c r="W27" s="14"/>
+    </row>
+    <row r="28" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>23</v>
+      </c>
+      <c r="B28" s="69"/>
+      <c r="C28" s="69"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="57"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="40"/>
+      <c r="P28" s="10"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="10"/>
+      <c r="S28" s="4"/>
+      <c r="T28" s="14"/>
+      <c r="U28" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="V28" s="10">
+        <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
+        <v>0</v>
+      </c>
+      <c r="W28" s="14"/>
+    </row>
+    <row r="29" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <v>24</v>
+      </c>
+      <c r="B29" s="69"/>
+      <c r="C29" s="69"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="57"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="40"/>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="10"/>
+      <c r="S29" s="4"/>
+      <c r="T29" s="14"/>
+      <c r="U29" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="V29" s="10">
+        <f>COUNTIF($R$6:$R$51,"*NG*")</f>
+        <v>0</v>
+      </c>
+      <c r="W29" s="14"/>
+    </row>
+    <row r="30" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <v>25</v>
+      </c>
+      <c r="B30" s="69"/>
+      <c r="C30" s="69"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="57"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="10"/>
+      <c r="S30" s="4"/>
+      <c r="T30" s="14"/>
+      <c r="U30" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="V30" s="10">
+        <f>COUNTIF($R$6:$R$51,"*I/O*")</f>
+        <v>0</v>
+      </c>
+      <c r="W30" s="14"/>
+    </row>
+    <row r="31" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <v>26</v>
+      </c>
+      <c r="B31" s="69"/>
+      <c r="C31" s="69"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="57"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="10"/>
+      <c r="S31" s="4"/>
+      <c r="T31" s="14"/>
+      <c r="U31" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="V31" s="10">
+        <f>COUNTIF($R$6:$R$51,"*LK*")</f>
+        <v>0</v>
+      </c>
+      <c r="W31" s="14"/>
+    </row>
+    <row r="32" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <v>27</v>
+      </c>
+      <c r="B32" s="69"/>
+      <c r="C32" s="69"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="57"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="10"/>
+      <c r="S32" s="4"/>
+      <c r="T32" s="14"/>
+      <c r="U32" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="V32" s="10">
+        <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
+        <v>0</v>
+      </c>
+      <c r="W32" s="14"/>
+    </row>
+    <row r="33" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <v>28</v>
+      </c>
+      <c r="B33" s="69"/>
+      <c r="C33" s="69"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="57"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="10"/>
+      <c r="S33" s="4"/>
+      <c r="T33" s="14"/>
+      <c r="U33" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="V33" s="10">
+        <f>COUNTIF($R$6:$R$51,"*SF*")</f>
+        <v>0</v>
+      </c>
+      <c r="W33" s="14"/>
+    </row>
+    <row r="34" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <v>29</v>
+      </c>
+      <c r="B34" s="69"/>
+      <c r="C34" s="69"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="57"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="4"/>
+      <c r="R34" s="10"/>
+      <c r="S34" s="4"/>
+      <c r="T34" s="14"/>
+      <c r="U34" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="V34" s="10">
+        <f>COUNTIF($R$6:$R$51,"*RTB*")</f>
+        <v>0</v>
+      </c>
+      <c r="W34" s="14"/>
+    </row>
+    <row r="35" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
+        <v>30</v>
+      </c>
+      <c r="B35" s="69"/>
+      <c r="C35" s="69"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="57"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="10"/>
+      <c r="S35" s="4"/>
+      <c r="T35" s="14"/>
+      <c r="U35" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="V35" s="10">
+        <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
+        <v>0</v>
+      </c>
+      <c r="W35" s="14"/>
+    </row>
+    <row r="36" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
+        <v>31</v>
+      </c>
+      <c r="B36" s="69"/>
+      <c r="C36" s="69"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="57"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="4"/>
+      <c r="R36" s="10"/>
+      <c r="S36" s="4"/>
+      <c r="T36" s="14"/>
+      <c r="U36" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="V36" s="10">
+        <f>COUNTIF($R$6:$R$51,"*KL*")</f>
+        <v>0</v>
+      </c>
+      <c r="W36" s="14"/>
+    </row>
+    <row r="37" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
+        <v>32</v>
+      </c>
+      <c r="B37" s="69"/>
+      <c r="C37" s="69"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="57"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="4"/>
+      <c r="R37" s="10"/>
+      <c r="S37" s="4"/>
+      <c r="T37" s="14"/>
+      <c r="U37" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="V37" s="10">
+        <f>SUM(V26:V36)</f>
+        <v>0</v>
+      </c>
+      <c r="W37" s="14"/>
+    </row>
+    <row r="38" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
+        <v>33</v>
+      </c>
+      <c r="B38" s="69"/>
+      <c r="C38" s="69"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="57"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="4"/>
+      <c r="R38" s="10"/>
+      <c r="S38" s="4"/>
+      <c r="T38" s="14"/>
+      <c r="U38" s="14"/>
+      <c r="V38" s="16"/>
+      <c r="W38" s="14"/>
+    </row>
+    <row r="39" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
+        <v>34</v>
+      </c>
+      <c r="B39" s="69"/>
+      <c r="C39" s="69"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="57"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="4"/>
+      <c r="R39" s="10"/>
+      <c r="S39" s="4"/>
+      <c r="T39" s="14"/>
+      <c r="U39" s="14"/>
+      <c r="V39" s="16"/>
+      <c r="W39" s="14"/>
+    </row>
+    <row r="40" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
+        <v>35</v>
+      </c>
+      <c r="B40" s="69"/>
+      <c r="C40" s="69"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="57"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="4"/>
+      <c r="R40" s="10"/>
+      <c r="S40" s="4"/>
+      <c r="T40" s="14"/>
+      <c r="U40" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="V40" s="10">
+        <f>COUNTIF($O$6:$O$51,"*DM*")</f>
+        <v>0</v>
+      </c>
+      <c r="W40" s="14"/>
+    </row>
+    <row r="41" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="4">
+        <v>36</v>
+      </c>
+      <c r="B41" s="69"/>
+      <c r="C41" s="69"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="57"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="4"/>
+      <c r="R41" s="10"/>
+      <c r="S41" s="4"/>
+      <c r="T41" s="14"/>
+      <c r="U41" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="V41" s="10">
+        <f>COUNTIF($O$6:$O$51,"*KS*")</f>
+        <v>0</v>
+      </c>
+      <c r="W41" s="14"/>
+    </row>
+    <row r="42" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="4">
+        <v>37</v>
+      </c>
+      <c r="B42" s="69"/>
+      <c r="C42" s="69"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="57"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="4"/>
+      <c r="R42" s="10"/>
+      <c r="S42" s="4"/>
+      <c r="T42" s="14"/>
+      <c r="U42" s="14"/>
+      <c r="V42" s="16"/>
+      <c r="W42" s="14"/>
+    </row>
+    <row r="43" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="4">
+        <v>38</v>
+      </c>
+      <c r="B43" s="69"/>
+      <c r="C43" s="69"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="57"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="4"/>
+      <c r="R43" s="10"/>
+      <c r="S43" s="4"/>
+      <c r="T43" s="14"/>
+      <c r="U43" s="14"/>
+      <c r="V43" s="16"/>
+      <c r="W43" s="14"/>
+    </row>
+    <row r="44" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="4">
+        <v>39</v>
+      </c>
+      <c r="B44" s="69"/>
+      <c r="C44" s="69"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="57"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="4"/>
+      <c r="R44" s="10"/>
+      <c r="S44" s="4"/>
+      <c r="T44" s="14"/>
+      <c r="U44" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="V44" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="W44" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="X44" s="10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="4">
+        <v>40</v>
+      </c>
+      <c r="B45" s="69"/>
+      <c r="C45" s="69"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="57"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="4"/>
+      <c r="R45" s="10"/>
+      <c r="S45" s="4"/>
+      <c r="T45" s="14"/>
+      <c r="U45" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="V45" s="10">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W45" s="10">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X45" s="10">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="4">
+        <v>41</v>
+      </c>
+      <c r="B46" s="69"/>
+      <c r="C46" s="69"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="57"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="4"/>
+      <c r="R46" s="10"/>
+      <c r="S46" s="4"/>
+      <c r="T46" s="14"/>
+      <c r="U46" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="V46" s="10">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W46" s="10">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X46" s="10">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="4">
+        <v>42</v>
+      </c>
+      <c r="B47" s="69"/>
+      <c r="C47" s="69"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="57"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="4"/>
+      <c r="R47" s="10"/>
+      <c r="S47" s="4"/>
+      <c r="T47" s="14"/>
+      <c r="U47" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="V47" s="10">
+        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W47" s="10">
+        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X47" s="10">
+        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="4">
+        <v>43</v>
+      </c>
+      <c r="B48" s="69"/>
+      <c r="C48" s="69"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="57"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
+      <c r="Q48" s="4"/>
+      <c r="R48" s="10"/>
+      <c r="S48" s="4"/>
+      <c r="T48" s="35">
+        <f>COUNTIF(J9:J20,"*GSM*")</f>
+        <v>0</v>
+      </c>
+      <c r="U48" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="V48" s="10">
+        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W48" s="10">
+        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X48" s="10">
+        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="4">
+        <v>44</v>
+      </c>
+      <c r="B49" s="69"/>
+      <c r="C49" s="69"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="57"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="4"/>
+      <c r="R49" s="10"/>
+      <c r="S49" s="4"/>
+      <c r="T49" s="35"/>
+      <c r="U49" s="47"/>
+      <c r="V49" s="47"/>
+      <c r="W49" s="47"/>
+      <c r="X49" s="33"/>
+    </row>
+    <row r="50" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="29">
+        <v>45</v>
+      </c>
+      <c r="B50" s="70"/>
+      <c r="C50" s="70"/>
+      <c r="D50" s="46"/>
+      <c r="E50" s="31"/>
+      <c r="F50" s="46"/>
+      <c r="G50" s="46"/>
+      <c r="H50" s="32"/>
+      <c r="I50" s="58"/>
+      <c r="J50" s="32"/>
+      <c r="K50" s="32"/>
+      <c r="L50" s="32"/>
+      <c r="M50" s="32"/>
+      <c r="N50" s="32"/>
+      <c r="O50" s="32"/>
+      <c r="P50" s="32"/>
+      <c r="Q50" s="29"/>
+      <c r="R50" s="46"/>
+      <c r="S50" s="29"/>
+      <c r="T50" s="35"/>
+      <c r="U50" s="47"/>
+      <c r="V50" s="47"/>
+      <c r="W50" s="47"/>
+      <c r="X50" s="33"/>
+    </row>
+    <row r="51" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="4">
+        <v>46</v>
+      </c>
+      <c r="B51" s="69"/>
+      <c r="C51" s="69"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="57"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="1"/>
+      <c r="Q51" s="4"/>
+      <c r="R51" s="10"/>
+      <c r="S51" s="10"/>
+      <c r="T51" s="35"/>
+      <c r="U51" s="47"/>
+      <c r="V51" s="47"/>
+      <c r="W51" s="47"/>
+      <c r="X51" s="33"/>
+    </row>
+    <row r="52" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="4">
+        <v>47</v>
+      </c>
+      <c r="B52" s="71"/>
+      <c r="C52" s="71"/>
+      <c r="D52" s="33"/>
+      <c r="E52" s="33"/>
+      <c r="F52" s="33"/>
+      <c r="G52" s="33"/>
+      <c r="H52" s="33"/>
+      <c r="I52" s="59"/>
+      <c r="J52" s="33"/>
+      <c r="K52" s="33"/>
+      <c r="L52" s="34"/>
+      <c r="M52" s="33"/>
+      <c r="N52" s="33"/>
+      <c r="O52" s="33"/>
+      <c r="P52" s="33"/>
+      <c r="Q52" s="33"/>
+      <c r="R52" s="33"/>
+      <c r="S52" s="33"/>
+      <c r="T52" s="35"/>
+      <c r="U52" s="47"/>
+      <c r="V52" s="47"/>
+      <c r="W52" s="47"/>
+      <c r="X52" s="33"/>
+    </row>
+    <row r="53" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="4">
+        <v>48</v>
+      </c>
+      <c r="B53" s="71"/>
+      <c r="C53" s="71"/>
+      <c r="D53" s="33"/>
+      <c r="E53" s="33"/>
+      <c r="F53" s="33"/>
+      <c r="G53" s="33"/>
+      <c r="H53" s="33"/>
+      <c r="I53" s="59"/>
+      <c r="J53" s="33"/>
+      <c r="K53" s="33"/>
+      <c r="L53" s="34"/>
+      <c r="M53" s="33"/>
+      <c r="N53" s="19"/>
+      <c r="O53" s="19"/>
+      <c r="P53" s="33"/>
+      <c r="Q53" s="33"/>
+      <c r="R53" s="33"/>
+      <c r="S53" s="33"/>
+      <c r="T53" s="35"/>
+      <c r="U53" s="47"/>
+      <c r="V53" s="47"/>
+      <c r="W53" s="47"/>
+      <c r="X53" s="33"/>
+    </row>
+    <row r="54" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="4">
+        <v>49</v>
+      </c>
+      <c r="B54" s="71"/>
+      <c r="C54" s="71"/>
+      <c r="D54" s="33"/>
+      <c r="E54" s="33"/>
+      <c r="F54" s="33"/>
+      <c r="G54" s="33"/>
+      <c r="H54" s="33"/>
+      <c r="I54" s="59"/>
+      <c r="J54" s="33"/>
+      <c r="K54" s="33"/>
+      <c r="L54" s="34"/>
+      <c r="M54" s="33"/>
+      <c r="N54" s="19"/>
+      <c r="O54" s="19"/>
+      <c r="P54" s="33"/>
+      <c r="Q54" s="33"/>
+      <c r="R54" s="33"/>
+      <c r="S54" s="33"/>
+      <c r="T54" s="35"/>
+      <c r="U54" s="47"/>
+      <c r="V54" s="47"/>
+      <c r="W54" s="47"/>
+      <c r="X54" s="33"/>
+    </row>
+    <row r="55" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="4">
+        <v>50</v>
+      </c>
+      <c r="B55" s="71"/>
+      <c r="C55" s="71"/>
+      <c r="D55" s="33"/>
+      <c r="E55" s="33"/>
+      <c r="F55" s="33"/>
+      <c r="G55" s="33"/>
+      <c r="H55" s="33"/>
+      <c r="I55" s="59"/>
+      <c r="J55" s="33"/>
+      <c r="K55" s="33"/>
+      <c r="L55" s="34"/>
+      <c r="M55" s="33"/>
+      <c r="N55" s="19"/>
+      <c r="O55" s="19"/>
+      <c r="P55" s="33"/>
+      <c r="Q55" s="33"/>
+      <c r="R55" s="33"/>
+      <c r="S55" s="33"/>
+      <c r="T55" s="36"/>
+      <c r="U55" s="47"/>
+      <c r="V55" s="47"/>
+      <c r="W55" s="47"/>
+      <c r="X55" s="33"/>
+    </row>
+    <row r="56" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U56" s="25"/>
+      <c r="V56" s="25"/>
+      <c r="W56" s="25"/>
+    </row>
+    <row r="57" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U57" s="25"/>
+      <c r="V57" s="25"/>
+      <c r="W57" s="25"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
     <mergeCell ref="U6:U11"/>
     <mergeCell ref="U12:U16"/>
     <mergeCell ref="P4:P5"/>
@@ -2811,13 +4702,1839 @@
     <mergeCell ref="R4:R5"/>
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="U4:U5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="A1:V1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X57"/>
+  <sheetViews>
+    <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.42578125" style="20" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" style="72" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" style="72" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" style="20" customWidth="1"/>
+    <col min="5" max="5" width="32.42578125" style="20" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" style="20" customWidth="1"/>
+    <col min="7" max="7" width="17" style="20" customWidth="1"/>
+    <col min="8" max="8" width="35.42578125" style="20" customWidth="1"/>
+    <col min="9" max="9" width="45.28515625" style="60" customWidth="1"/>
+    <col min="10" max="10" width="53" style="20" customWidth="1"/>
+    <col min="11" max="11" width="33.42578125" style="20" customWidth="1"/>
+    <col min="12" max="12" width="30.7109375" style="26" customWidth="1"/>
+    <col min="13" max="13" width="58" style="20" customWidth="1"/>
+    <col min="14" max="14" width="21.85546875" style="20" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="20" customWidth="1"/>
+    <col min="16" max="16" width="37.7109375" style="20" customWidth="1"/>
+    <col min="17" max="17" width="23.42578125" style="20" customWidth="1"/>
+    <col min="18" max="18" width="21.140625" style="20" customWidth="1"/>
+    <col min="19" max="19" width="26.85546875" style="20" customWidth="1"/>
+    <col min="20" max="20" width="9.140625" style="20"/>
+    <col min="21" max="21" width="30.5703125" style="20" customWidth="1"/>
+    <col min="22" max="23" width="21.42578125" style="20" customWidth="1"/>
+    <col min="24" max="24" width="21.7109375" style="20" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="20"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="76" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
+      <c r="W1" s="48"/>
+    </row>
+    <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="77" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="79" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" s="79"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="27"/>
+      <c r="T2" s="27"/>
+      <c r="U2" s="27"/>
+      <c r="V2" s="28"/>
+      <c r="W2" s="27"/>
+    </row>
+    <row r="3" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
+      <c r="S3" s="27"/>
+      <c r="T3" s="27"/>
+      <c r="U3" s="27"/>
+      <c r="V3" s="28"/>
+      <c r="W3" s="27"/>
+    </row>
+    <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="75" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="75" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="75"/>
+      <c r="M4" s="81" t="s">
+        <v>42</v>
+      </c>
+      <c r="N4" s="81" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="75" t="s">
+        <v>7</v>
+      </c>
+      <c r="P4" s="86" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q4" s="75" t="s">
+        <v>39</v>
+      </c>
+      <c r="R4" s="75" t="s">
+        <v>53</v>
+      </c>
+      <c r="S4" s="87" t="s">
+        <v>54</v>
+      </c>
+      <c r="T4" s="27"/>
+      <c r="U4" s="75" t="s">
+        <v>39</v>
+      </c>
+      <c r="V4" s="75" t="s">
+        <v>53</v>
+      </c>
+      <c r="W4" s="49"/>
+    </row>
+    <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="80"/>
+      <c r="B5" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="67" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="73" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="73" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="73" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="73" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="73" t="s">
+        <v>55</v>
+      </c>
+      <c r="I5" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="75"/>
+      <c r="K5" s="73" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="73" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" s="82"/>
+      <c r="N5" s="82"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="86"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="87"/>
+      <c r="T5" s="27"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="75"/>
+      <c r="W5" s="49"/>
+    </row>
+    <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>1</v>
+      </c>
+      <c r="B6" s="37">
+        <v>44327</v>
+      </c>
+      <c r="C6" s="37"/>
+      <c r="D6" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" s="39">
+        <v>862631039243166</v>
+      </c>
+      <c r="F6" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="H6" s="38"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="42"/>
+      <c r="O6" s="40"/>
+      <c r="P6" s="40"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="38"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="74"/>
+      <c r="U6" s="83" t="s">
+        <v>18</v>
+      </c>
+      <c r="V6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="W6" s="74"/>
+    </row>
+    <row r="7" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>2</v>
+      </c>
+      <c r="B7" s="37">
+        <v>44327</v>
+      </c>
+      <c r="C7" s="37"/>
+      <c r="D7" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" s="39">
+        <v>862631034714435</v>
+      </c>
+      <c r="F7" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="G7" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="H7" s="38"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="42"/>
+      <c r="O7" s="40"/>
+      <c r="P7" s="40"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="38"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="74"/>
+      <c r="U7" s="84"/>
+      <c r="V7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="W7" s="74"/>
+    </row>
+    <row r="8" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>3</v>
+      </c>
+      <c r="B8" s="37">
+        <v>44327</v>
+      </c>
+      <c r="C8" s="37"/>
+      <c r="D8" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" s="39">
+        <v>866192037775440</v>
+      </c>
+      <c r="F8" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="G8" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="H8" s="38"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="51"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="42"/>
+      <c r="O8" s="40"/>
+      <c r="P8" s="40"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="38"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="74"/>
+      <c r="U8" s="84"/>
+      <c r="V8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="W8" s="74"/>
+    </row>
+    <row r="9" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>4</v>
+      </c>
+      <c r="B9" s="37"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="42"/>
+      <c r="O9" s="40"/>
+      <c r="P9" s="40"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="38"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="74"/>
+      <c r="U9" s="84"/>
+      <c r="V9" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="W9" s="74"/>
+    </row>
+    <row r="10" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>5</v>
+      </c>
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="42"/>
+      <c r="O10" s="40"/>
+      <c r="P10" s="40"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="38"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="74"/>
+      <c r="U10" s="84"/>
+      <c r="V10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="W10" s="74"/>
+    </row>
+    <row r="11" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>6</v>
+      </c>
+      <c r="B11" s="68"/>
+      <c r="C11" s="68"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="40"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="40"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="38"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="74"/>
+      <c r="U11" s="84"/>
+      <c r="V11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="W11" s="74"/>
+    </row>
+    <row r="12" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>7</v>
+      </c>
+      <c r="B12" s="68"/>
+      <c r="C12" s="68"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="40"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="40"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="38"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="74"/>
+      <c r="U12" s="83" t="s">
+        <v>19</v>
+      </c>
+      <c r="V12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="W12" s="74"/>
+    </row>
+    <row r="13" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>8</v>
+      </c>
+      <c r="B13" s="68"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="40"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="74"/>
+      <c r="U13" s="84"/>
+      <c r="V13" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="W13" s="74"/>
+    </row>
+    <row r="14" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>9</v>
+      </c>
+      <c r="B14" s="68"/>
+      <c r="C14" s="68"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="40"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="40"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="38"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="74"/>
+      <c r="U14" s="84"/>
+      <c r="V14" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="W14" s="74"/>
+    </row>
+    <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>10</v>
+      </c>
+      <c r="B15" s="68"/>
+      <c r="C15" s="68"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="40"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="40"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="38"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="14"/>
+      <c r="U15" s="84"/>
+      <c r="V15" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="W15" s="74"/>
+    </row>
+    <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>11</v>
+      </c>
+      <c r="B16" s="68"/>
+      <c r="C16" s="68"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="65"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="57"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="40"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="40"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="38"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="14"/>
+      <c r="U16" s="85"/>
+      <c r="V16" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="W16" s="74"/>
+    </row>
+    <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>12</v>
+      </c>
+      <c r="B17" s="68"/>
+      <c r="C17" s="68"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="40"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="40"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="38"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="14"/>
+      <c r="U17" s="74"/>
+      <c r="V17" s="15"/>
+      <c r="W17" s="74"/>
+    </row>
+    <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>13</v>
+      </c>
+      <c r="B18" s="69"/>
+      <c r="C18" s="69"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="40"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="14"/>
+      <c r="U18" s="14"/>
+      <c r="V18" s="16"/>
+      <c r="W18" s="14"/>
+    </row>
+    <row r="19" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>14</v>
+      </c>
+      <c r="B19" s="69"/>
+      <c r="C19" s="69"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="40"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="14"/>
+      <c r="U19" s="73" t="s">
+        <v>39</v>
+      </c>
+      <c r="V19" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="W19" s="50"/>
+    </row>
+    <row r="20" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>15</v>
+      </c>
+      <c r="B20" s="69"/>
+      <c r="C20" s="69"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="57"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="40"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="14"/>
+      <c r="U20" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="V20" s="10">
+        <f>COUNTIF($Q$6:$Q$51,"PM")</f>
+        <v>0</v>
+      </c>
+      <c r="W20" s="14"/>
+    </row>
+    <row r="21" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>16</v>
+      </c>
+      <c r="B21" s="69"/>
+      <c r="C21" s="69"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="57"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="40"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="4"/>
+      <c r="T21" s="14"/>
+      <c r="U21" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="V21" s="10">
+        <f>COUNTIF($Q$6:$Q$51,"PC")</f>
+        <v>0</v>
+      </c>
+      <c r="W21" s="14"/>
+    </row>
+    <row r="22" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>17</v>
+      </c>
+      <c r="B22" s="69"/>
+      <c r="C22" s="69"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="57"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="40"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="14"/>
+      <c r="U22" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="V22" s="10">
+        <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
+        <v>0</v>
+      </c>
+      <c r="W22" s="14"/>
+    </row>
+    <row r="23" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>18</v>
+      </c>
+      <c r="B23" s="69"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="57"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="40"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="10"/>
+      <c r="S23" s="4"/>
+      <c r="T23" s="14"/>
+      <c r="U23" s="14"/>
+      <c r="V23" s="16"/>
+      <c r="W23" s="14"/>
+    </row>
+    <row r="24" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>19</v>
+      </c>
+      <c r="B24" s="69"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="57"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="40"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="10"/>
+      <c r="S24" s="4"/>
+      <c r="T24" s="14"/>
+      <c r="U24" s="14"/>
+      <c r="V24" s="16"/>
+      <c r="W24" s="14"/>
+    </row>
+    <row r="25" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>20</v>
+      </c>
+      <c r="B25" s="69"/>
+      <c r="C25" s="69"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="57"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="40"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="10"/>
+      <c r="S25" s="4"/>
+      <c r="T25" s="14"/>
+      <c r="U25" s="73" t="s">
+        <v>46</v>
+      </c>
+      <c r="V25" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="W25" s="50"/>
+    </row>
+    <row r="26" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>21</v>
+      </c>
+      <c r="B26" s="69"/>
+      <c r="C26" s="69"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="57"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="40"/>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="10"/>
+      <c r="S26" s="4"/>
+      <c r="T26" s="14"/>
+      <c r="U26" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="V26" s="10">
+        <f>COUNTIF($R$6:$R$51,"*MCU*")</f>
+        <v>0</v>
+      </c>
+      <c r="W26" s="14"/>
+    </row>
+    <row r="27" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>22</v>
+      </c>
+      <c r="B27" s="69"/>
+      <c r="C27" s="69"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="57"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="40"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="10"/>
+      <c r="S27" s="4"/>
+      <c r="T27" s="14"/>
+      <c r="U27" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="V27" s="10">
+        <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
+        <v>0</v>
+      </c>
+      <c r="W27" s="14"/>
+    </row>
+    <row r="28" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>23</v>
+      </c>
+      <c r="B28" s="69"/>
+      <c r="C28" s="69"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="57"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="40"/>
+      <c r="P28" s="10"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="10"/>
+      <c r="S28" s="4"/>
+      <c r="T28" s="14"/>
+      <c r="U28" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="V28" s="10">
+        <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
+        <v>0</v>
+      </c>
+      <c r="W28" s="14"/>
+    </row>
+    <row r="29" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <v>24</v>
+      </c>
+      <c r="B29" s="69"/>
+      <c r="C29" s="69"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="57"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="40"/>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="10"/>
+      <c r="S29" s="4"/>
+      <c r="T29" s="14"/>
+      <c r="U29" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="V29" s="10">
+        <f>COUNTIF($R$6:$R$51,"*NG*")</f>
+        <v>0</v>
+      </c>
+      <c r="W29" s="14"/>
+    </row>
+    <row r="30" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <v>25</v>
+      </c>
+      <c r="B30" s="69"/>
+      <c r="C30" s="69"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="57"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="10"/>
+      <c r="S30" s="4"/>
+      <c r="T30" s="14"/>
+      <c r="U30" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="V30" s="10">
+        <f>COUNTIF($R$6:$R$51,"*I/O*")</f>
+        <v>0</v>
+      </c>
+      <c r="W30" s="14"/>
+    </row>
+    <row r="31" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <v>26</v>
+      </c>
+      <c r="B31" s="69"/>
+      <c r="C31" s="69"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="57"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="10"/>
+      <c r="S31" s="4"/>
+      <c r="T31" s="14"/>
+      <c r="U31" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="V31" s="10">
+        <f>COUNTIF($R$6:$R$51,"*LK*")</f>
+        <v>0</v>
+      </c>
+      <c r="W31" s="14"/>
+    </row>
+    <row r="32" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <v>27</v>
+      </c>
+      <c r="B32" s="69"/>
+      <c r="C32" s="69"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="57"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="10"/>
+      <c r="S32" s="4"/>
+      <c r="T32" s="14"/>
+      <c r="U32" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="V32" s="10">
+        <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
+        <v>0</v>
+      </c>
+      <c r="W32" s="14"/>
+    </row>
+    <row r="33" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <v>28</v>
+      </c>
+      <c r="B33" s="69"/>
+      <c r="C33" s="69"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="57"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="10"/>
+      <c r="S33" s="4"/>
+      <c r="T33" s="14"/>
+      <c r="U33" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="V33" s="10">
+        <f>COUNTIF($R$6:$R$51,"*SF*")</f>
+        <v>0</v>
+      </c>
+      <c r="W33" s="14"/>
+    </row>
+    <row r="34" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <v>29</v>
+      </c>
+      <c r="B34" s="69"/>
+      <c r="C34" s="69"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="57"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="4"/>
+      <c r="R34" s="10"/>
+      <c r="S34" s="4"/>
+      <c r="T34" s="14"/>
+      <c r="U34" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="V34" s="10">
+        <f>COUNTIF($R$6:$R$51,"*RTB*")</f>
+        <v>0</v>
+      </c>
+      <c r="W34" s="14"/>
+    </row>
+    <row r="35" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
+        <v>30</v>
+      </c>
+      <c r="B35" s="69"/>
+      <c r="C35" s="69"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="57"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="10"/>
+      <c r="S35" s="4"/>
+      <c r="T35" s="14"/>
+      <c r="U35" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="V35" s="10">
+        <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
+        <v>0</v>
+      </c>
+      <c r="W35" s="14"/>
+    </row>
+    <row r="36" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
+        <v>31</v>
+      </c>
+      <c r="B36" s="69"/>
+      <c r="C36" s="69"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="57"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="4"/>
+      <c r="R36" s="10"/>
+      <c r="S36" s="4"/>
+      <c r="T36" s="14"/>
+      <c r="U36" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="V36" s="10">
+        <f>COUNTIF($R$6:$R$51,"*KL*")</f>
+        <v>0</v>
+      </c>
+      <c r="W36" s="14"/>
+    </row>
+    <row r="37" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
+        <v>32</v>
+      </c>
+      <c r="B37" s="69"/>
+      <c r="C37" s="69"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="57"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="4"/>
+      <c r="R37" s="10"/>
+      <c r="S37" s="4"/>
+      <c r="T37" s="14"/>
+      <c r="U37" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="V37" s="10">
+        <f>SUM(V26:V36)</f>
+        <v>0</v>
+      </c>
+      <c r="W37" s="14"/>
+    </row>
+    <row r="38" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
+        <v>33</v>
+      </c>
+      <c r="B38" s="69"/>
+      <c r="C38" s="69"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="57"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="4"/>
+      <c r="R38" s="10"/>
+      <c r="S38" s="4"/>
+      <c r="T38" s="14"/>
+      <c r="U38" s="14"/>
+      <c r="V38" s="16"/>
+      <c r="W38" s="14"/>
+    </row>
+    <row r="39" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
+        <v>34</v>
+      </c>
+      <c r="B39" s="69"/>
+      <c r="C39" s="69"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="57"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="4"/>
+      <c r="R39" s="10"/>
+      <c r="S39" s="4"/>
+      <c r="T39" s="14"/>
+      <c r="U39" s="14"/>
+      <c r="V39" s="16"/>
+      <c r="W39" s="14"/>
+    </row>
+    <row r="40" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
+        <v>35</v>
+      </c>
+      <c r="B40" s="69"/>
+      <c r="C40" s="69"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="57"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="4"/>
+      <c r="R40" s="10"/>
+      <c r="S40" s="4"/>
+      <c r="T40" s="14"/>
+      <c r="U40" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="V40" s="10">
+        <f>COUNTIF($O$6:$O$51,"*DM*")</f>
+        <v>0</v>
+      </c>
+      <c r="W40" s="14"/>
+    </row>
+    <row r="41" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="4">
+        <v>36</v>
+      </c>
+      <c r="B41" s="69"/>
+      <c r="C41" s="69"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="57"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="4"/>
+      <c r="R41" s="10"/>
+      <c r="S41" s="4"/>
+      <c r="T41" s="14"/>
+      <c r="U41" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="V41" s="10">
+        <f>COUNTIF($O$6:$O$51,"*KS*")</f>
+        <v>0</v>
+      </c>
+      <c r="W41" s="14"/>
+    </row>
+    <row r="42" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="4">
+        <v>37</v>
+      </c>
+      <c r="B42" s="69"/>
+      <c r="C42" s="69"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="57"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="4"/>
+      <c r="R42" s="10"/>
+      <c r="S42" s="4"/>
+      <c r="T42" s="14"/>
+      <c r="U42" s="14"/>
+      <c r="V42" s="16"/>
+      <c r="W42" s="14"/>
+    </row>
+    <row r="43" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="4">
+        <v>38</v>
+      </c>
+      <c r="B43" s="69"/>
+      <c r="C43" s="69"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="57"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="4"/>
+      <c r="R43" s="10"/>
+      <c r="S43" s="4"/>
+      <c r="T43" s="14"/>
+      <c r="U43" s="14"/>
+      <c r="V43" s="16"/>
+      <c r="W43" s="14"/>
+    </row>
+    <row r="44" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="4">
+        <v>39</v>
+      </c>
+      <c r="B44" s="69"/>
+      <c r="C44" s="69"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="57"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="4"/>
+      <c r="R44" s="10"/>
+      <c r="S44" s="4"/>
+      <c r="T44" s="14"/>
+      <c r="U44" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="V44" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="W44" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="X44" s="10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="4">
+        <v>40</v>
+      </c>
+      <c r="B45" s="69"/>
+      <c r="C45" s="69"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="57"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="4"/>
+      <c r="R45" s="10"/>
+      <c r="S45" s="4"/>
+      <c r="T45" s="14"/>
+      <c r="U45" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="V45" s="10">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W45" s="10">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X45" s="10">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="4">
+        <v>41</v>
+      </c>
+      <c r="B46" s="69"/>
+      <c r="C46" s="69"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="57"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="4"/>
+      <c r="R46" s="10"/>
+      <c r="S46" s="4"/>
+      <c r="T46" s="14"/>
+      <c r="U46" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="V46" s="10">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W46" s="10">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X46" s="10">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="4">
+        <v>42</v>
+      </c>
+      <c r="B47" s="69"/>
+      <c r="C47" s="69"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="57"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="4"/>
+      <c r="R47" s="10"/>
+      <c r="S47" s="4"/>
+      <c r="T47" s="14"/>
+      <c r="U47" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="V47" s="10">
+        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W47" s="10">
+        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X47" s="10">
+        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="4">
+        <v>43</v>
+      </c>
+      <c r="B48" s="69"/>
+      <c r="C48" s="69"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="57"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
+      <c r="Q48" s="4"/>
+      <c r="R48" s="10"/>
+      <c r="S48" s="4"/>
+      <c r="T48" s="35">
+        <f>COUNTIF(J9:J20,"*GSM*")</f>
+        <v>0</v>
+      </c>
+      <c r="U48" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="V48" s="10">
+        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W48" s="10">
+        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X48" s="10">
+        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="4">
+        <v>44</v>
+      </c>
+      <c r="B49" s="69"/>
+      <c r="C49" s="69"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="57"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="4"/>
+      <c r="R49" s="10"/>
+      <c r="S49" s="4"/>
+      <c r="T49" s="35"/>
+      <c r="U49" s="47"/>
+      <c r="V49" s="47"/>
+      <c r="W49" s="47"/>
+      <c r="X49" s="33"/>
+    </row>
+    <row r="50" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="29">
+        <v>45</v>
+      </c>
+      <c r="B50" s="70"/>
+      <c r="C50" s="70"/>
+      <c r="D50" s="46"/>
+      <c r="E50" s="31"/>
+      <c r="F50" s="46"/>
+      <c r="G50" s="46"/>
+      <c r="H50" s="32"/>
+      <c r="I50" s="58"/>
+      <c r="J50" s="32"/>
+      <c r="K50" s="32"/>
+      <c r="L50" s="32"/>
+      <c r="M50" s="32"/>
+      <c r="N50" s="32"/>
+      <c r="O50" s="32"/>
+      <c r="P50" s="32"/>
+      <c r="Q50" s="29"/>
+      <c r="R50" s="46"/>
+      <c r="S50" s="29"/>
+      <c r="T50" s="35"/>
+      <c r="U50" s="47"/>
+      <c r="V50" s="47"/>
+      <c r="W50" s="47"/>
+      <c r="X50" s="33"/>
+    </row>
+    <row r="51" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="4">
+        <v>46</v>
+      </c>
+      <c r="B51" s="69"/>
+      <c r="C51" s="69"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="57"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="1"/>
+      <c r="Q51" s="4"/>
+      <c r="R51" s="10"/>
+      <c r="S51" s="10"/>
+      <c r="T51" s="35"/>
+      <c r="U51" s="47"/>
+      <c r="V51" s="47"/>
+      <c r="W51" s="47"/>
+      <c r="X51" s="33"/>
+    </row>
+    <row r="52" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="4">
+        <v>47</v>
+      </c>
+      <c r="B52" s="71"/>
+      <c r="C52" s="71"/>
+      <c r="D52" s="33"/>
+      <c r="E52" s="33"/>
+      <c r="F52" s="33"/>
+      <c r="G52" s="33"/>
+      <c r="H52" s="33"/>
+      <c r="I52" s="59"/>
+      <c r="J52" s="33"/>
+      <c r="K52" s="33"/>
+      <c r="L52" s="34"/>
+      <c r="M52" s="33"/>
+      <c r="N52" s="33"/>
+      <c r="O52" s="33"/>
+      <c r="P52" s="33"/>
+      <c r="Q52" s="33"/>
+      <c r="R52" s="33"/>
+      <c r="S52" s="33"/>
+      <c r="T52" s="35"/>
+      <c r="U52" s="47"/>
+      <c r="V52" s="47"/>
+      <c r="W52" s="47"/>
+      <c r="X52" s="33"/>
+    </row>
+    <row r="53" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="4">
+        <v>48</v>
+      </c>
+      <c r="B53" s="71"/>
+      <c r="C53" s="71"/>
+      <c r="D53" s="33"/>
+      <c r="E53" s="33"/>
+      <c r="F53" s="33"/>
+      <c r="G53" s="33"/>
+      <c r="H53" s="33"/>
+      <c r="I53" s="59"/>
+      <c r="J53" s="33"/>
+      <c r="K53" s="33"/>
+      <c r="L53" s="34"/>
+      <c r="M53" s="33"/>
+      <c r="N53" s="19"/>
+      <c r="O53" s="19"/>
+      <c r="P53" s="33"/>
+      <c r="Q53" s="33"/>
+      <c r="R53" s="33"/>
+      <c r="S53" s="33"/>
+      <c r="T53" s="35"/>
+      <c r="U53" s="47"/>
+      <c r="V53" s="47"/>
+      <c r="W53" s="47"/>
+      <c r="X53" s="33"/>
+    </row>
+    <row r="54" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="4">
+        <v>49</v>
+      </c>
+      <c r="B54" s="71"/>
+      <c r="C54" s="71"/>
+      <c r="D54" s="33"/>
+      <c r="E54" s="33"/>
+      <c r="F54" s="33"/>
+      <c r="G54" s="33"/>
+      <c r="H54" s="33"/>
+      <c r="I54" s="59"/>
+      <c r="J54" s="33"/>
+      <c r="K54" s="33"/>
+      <c r="L54" s="34"/>
+      <c r="M54" s="33"/>
+      <c r="N54" s="19"/>
+      <c r="O54" s="19"/>
+      <c r="P54" s="33"/>
+      <c r="Q54" s="33"/>
+      <c r="R54" s="33"/>
+      <c r="S54" s="33"/>
+      <c r="T54" s="35"/>
+      <c r="U54" s="47"/>
+      <c r="V54" s="47"/>
+      <c r="W54" s="47"/>
+      <c r="X54" s="33"/>
+    </row>
+    <row r="55" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="4">
+        <v>50</v>
+      </c>
+      <c r="B55" s="71"/>
+      <c r="C55" s="71"/>
+      <c r="D55" s="33"/>
+      <c r="E55" s="33"/>
+      <c r="F55" s="33"/>
+      <c r="G55" s="33"/>
+      <c r="H55" s="33"/>
+      <c r="I55" s="59"/>
+      <c r="J55" s="33"/>
+      <c r="K55" s="33"/>
+      <c r="L55" s="34"/>
+      <c r="M55" s="33"/>
+      <c r="N55" s="19"/>
+      <c r="O55" s="19"/>
+      <c r="P55" s="33"/>
+      <c r="Q55" s="33"/>
+      <c r="R55" s="33"/>
+      <c r="S55" s="33"/>
+      <c r="T55" s="36"/>
+      <c r="U55" s="47"/>
+      <c r="V55" s="47"/>
+      <c r="W55" s="47"/>
+      <c r="X55" s="33"/>
+    </row>
+    <row r="56" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U56" s="25"/>
+      <c r="V56" s="25"/>
+      <c r="W56" s="25"/>
+    </row>
+    <row r="57" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U57" s="25"/>
+      <c r="V57" s="25"/>
+      <c r="W57" s="25"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="A1:V1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
@@ -2854,43 +6571,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="76" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
       <c r="W1" s="48"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82" t="s">
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="79" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="82"/>
+      <c r="F2" s="79"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -2935,58 +6652,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="77" t="s">
+      <c r="A4" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="77" t="s">
+      <c r="K4" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="77"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="75"/>
+      <c r="M4" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="77" t="s">
+      <c r="O4" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="76" t="s">
+      <c r="P4" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="77" t="s">
+      <c r="Q4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="77" t="s">
+      <c r="R4" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="78" t="s">
+      <c r="S4" s="87" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="77" t="s">
+      <c r="U4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="77" t="s">
+      <c r="V4" s="75" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="49"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="80"/>
       <c r="B5" s="45" t="s">
         <v>1</v>
       </c>
@@ -3011,23 +6728,23 @@
       <c r="I5" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="77"/>
+      <c r="J5" s="75"/>
       <c r="K5" s="45" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="77"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="77"/>
-      <c r="R5" s="77"/>
-      <c r="S5" s="78"/>
+      <c r="M5" s="82"/>
+      <c r="N5" s="82"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="86"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="87"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="77"/>
-      <c r="V5" s="77"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="75"/>
       <c r="W5" s="49"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3053,7 +6770,7 @@
       <c r="R6" s="38"/>
       <c r="S6" s="4"/>
       <c r="T6" s="44"/>
-      <c r="U6" s="73" t="s">
+      <c r="U6" s="83" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -3084,7 +6801,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="44"/>
-      <c r="U7" s="74"/>
+      <c r="U7" s="84"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -3113,7 +6830,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="44"/>
-      <c r="U8" s="74"/>
+      <c r="U8" s="84"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -3142,7 +6859,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="44"/>
-      <c r="U9" s="74"/>
+      <c r="U9" s="84"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -3171,7 +6888,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="44"/>
-      <c r="U10" s="74"/>
+      <c r="U10" s="84"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -3200,7 +6917,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="44"/>
-      <c r="U11" s="74"/>
+      <c r="U11" s="84"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -3229,7 +6946,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="44"/>
-      <c r="U12" s="73" t="s">
+      <c r="U12" s="83" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -3260,7 +6977,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="44"/>
-      <c r="U13" s="74"/>
+      <c r="U13" s="84"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -3289,7 +7006,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="44"/>
-      <c r="U14" s="74"/>
+      <c r="U14" s="84"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -3318,7 +7035,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="74"/>
+      <c r="U15" s="84"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -3347,7 +7064,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="75"/>
+      <c r="U16" s="85"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -4578,13 +8295,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4596,6 +8306,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang5/02.XuLyBH/XLBH2105_GPSTayNinh.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang5/02.XuLyBH/XLBH2105_GPSTayNinh.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="1"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TG102LE" sheetId="27" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="95">
   <si>
     <t>STT</t>
   </si>
@@ -289,6 +289,39 @@
   </si>
   <si>
     <t>125.212.203.114,q555u</t>
+  </si>
+  <si>
+    <t>Cấu hình lại thiết bị, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>MCH,NCFW</t>
+  </si>
+  <si>
+    <t>W.2.00.---21.200630</t>
+  </si>
+  <si>
+    <t>SE.4.00.---06.200630</t>
+  </si>
+  <si>
+    <t>Lỗi bộ nhớ</t>
+  </si>
+  <si>
+    <t>Thay bộ nhớ</t>
+  </si>
+  <si>
+    <t>SE.3.00.---02.180115</t>
+  </si>
+  <si>
+    <t>125.212.203.114,15555</t>
+  </si>
+  <si>
+    <t>Thay module GSM</t>
+  </si>
+  <si>
+    <t>SE.3.00.---01.120817</t>
+  </si>
+  <si>
+    <t>Lock: 125.212.203.114,15555</t>
   </si>
 </sst>
 </file>
@@ -712,9 +745,24 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -734,21 +782,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1057,8 +1090,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView showZeros="0" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1090,43 +1123,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="81" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="81"/>
+      <c r="P1" s="81"/>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="81"/>
+      <c r="S1" s="81"/>
+      <c r="T1" s="81"/>
+      <c r="U1" s="81"/>
+      <c r="V1" s="81"/>
       <c r="W1" s="48"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="79" t="s">
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="84" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="79"/>
+      <c r="F2" s="84"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="54"/>
@@ -1171,58 +1204,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="75" t="s">
+      <c r="A4" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75" t="s">
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="75" t="s">
+      <c r="K4" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="75"/>
-      <c r="M4" s="81" t="s">
+      <c r="L4" s="79"/>
+      <c r="M4" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="81" t="s">
+      <c r="N4" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="75" t="s">
+      <c r="O4" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="86" t="s">
+      <c r="P4" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="75" t="s">
+      <c r="Q4" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="75" t="s">
+      <c r="R4" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="87" t="s">
+      <c r="S4" s="80" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="75" t="s">
+      <c r="U4" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="75" t="s">
+      <c r="V4" s="79" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="49"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="80"/>
+      <c r="A5" s="85"/>
       <c r="B5" s="67" t="s">
         <v>1</v>
       </c>
@@ -1247,23 +1280,23 @@
       <c r="I5" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="75"/>
+      <c r="J5" s="79"/>
       <c r="K5" s="63" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="82"/>
-      <c r="N5" s="82"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="86"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="87"/>
+      <c r="M5" s="87"/>
+      <c r="N5" s="87"/>
+      <c r="O5" s="79"/>
+      <c r="P5" s="78"/>
+      <c r="Q5" s="79"/>
+      <c r="R5" s="79"/>
+      <c r="S5" s="80"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
+      <c r="U5" s="79"/>
+      <c r="V5" s="79"/>
       <c r="W5" s="49"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1319,7 +1352,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="64"/>
-      <c r="U6" s="83" t="s">
+      <c r="U6" s="75" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1376,7 +1409,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="64"/>
-      <c r="U7" s="84"/>
+      <c r="U7" s="76"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1429,7 +1462,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="64"/>
-      <c r="U8" s="84"/>
+      <c r="U8" s="76"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1458,7 +1491,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="64"/>
-      <c r="U9" s="84"/>
+      <c r="U9" s="76"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1487,7 +1520,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="64"/>
-      <c r="U10" s="84"/>
+      <c r="U10" s="76"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1516,7 +1549,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="64"/>
-      <c r="U11" s="84"/>
+      <c r="U11" s="76"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1545,7 +1578,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="64"/>
-      <c r="U12" s="83" t="s">
+      <c r="U12" s="75" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1576,7 +1609,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="64"/>
-      <c r="U13" s="84"/>
+      <c r="U13" s="76"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1605,7 +1638,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="64"/>
-      <c r="U14" s="84"/>
+      <c r="U14" s="76"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1634,7 +1667,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="84"/>
+      <c r="U15" s="76"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1663,7 +1696,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="85"/>
+      <c r="U16" s="77"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -2894,13 +2927,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -2912,6 +2938,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2922,8 +2955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView showZeros="0" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2955,43 +2988,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="81" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="81"/>
+      <c r="P1" s="81"/>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="81"/>
+      <c r="S1" s="81"/>
+      <c r="T1" s="81"/>
+      <c r="U1" s="81"/>
+      <c r="V1" s="81"/>
       <c r="W1" s="48"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="79" t="s">
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="84" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="79"/>
+      <c r="F2" s="84"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="54"/>
@@ -3036,58 +3069,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="75" t="s">
+      <c r="A4" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75" t="s">
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="75" t="s">
+      <c r="K4" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="75"/>
-      <c r="M4" s="81" t="s">
+      <c r="L4" s="79"/>
+      <c r="M4" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="81" t="s">
+      <c r="N4" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="75" t="s">
+      <c r="O4" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="86" t="s">
+      <c r="P4" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="75" t="s">
+      <c r="Q4" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="75" t="s">
+      <c r="R4" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="87" t="s">
+      <c r="S4" s="80" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="75" t="s">
+      <c r="U4" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="75" t="s">
+      <c r="V4" s="79" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="49"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="80"/>
+      <c r="A5" s="85"/>
       <c r="B5" s="67" t="s">
         <v>1</v>
       </c>
@@ -3112,23 +3145,23 @@
       <c r="I5" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="75"/>
+      <c r="J5" s="79"/>
       <c r="K5" s="73" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="82"/>
-      <c r="N5" s="82"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="86"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="87"/>
+      <c r="M5" s="87"/>
+      <c r="N5" s="87"/>
+      <c r="O5" s="79"/>
+      <c r="P5" s="78"/>
+      <c r="Q5" s="79"/>
+      <c r="R5" s="79"/>
+      <c r="S5" s="80"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
+      <c r="U5" s="79"/>
+      <c r="V5" s="79"/>
       <c r="W5" s="49"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3157,20 +3190,32 @@
       <c r="I6" s="51" t="s">
         <v>83</v>
       </c>
-      <c r="J6" s="1"/>
+      <c r="J6" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="K6" s="61" t="s">
         <v>82</v>
       </c>
-      <c r="L6" s="40"/>
-      <c r="M6" s="1"/>
+      <c r="L6" s="40" t="s">
+        <v>86</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="N6" s="42"/>
       <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="38"/>
+      <c r="P6" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="38" t="s">
+        <v>85</v>
+      </c>
       <c r="S6" s="4"/>
       <c r="T6" s="74"/>
-      <c r="U6" s="83" t="s">
+      <c r="U6" s="75" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -3201,7 +3246,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="74"/>
-      <c r="U7" s="84"/>
+      <c r="U7" s="76"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -3230,7 +3275,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="74"/>
-      <c r="U8" s="84"/>
+      <c r="U8" s="76"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -3259,7 +3304,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="74"/>
-      <c r="U9" s="84"/>
+      <c r="U9" s="76"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -3288,7 +3333,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="74"/>
-      <c r="U10" s="84"/>
+      <c r="U10" s="76"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -3317,7 +3362,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="74"/>
-      <c r="U11" s="84"/>
+      <c r="U11" s="76"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -3346,7 +3391,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="74"/>
-      <c r="U12" s="83" t="s">
+      <c r="U12" s="75" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -3377,7 +3422,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="74"/>
-      <c r="U13" s="84"/>
+      <c r="U13" s="76"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -3406,7 +3451,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="74"/>
-      <c r="U14" s="84"/>
+      <c r="U14" s="76"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -3435,7 +3480,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="84"/>
+      <c r="U15" s="76"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -3464,7 +3509,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="85"/>
+      <c r="U16" s="77"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -3583,7 +3628,7 @@
       </c>
       <c r="V20" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W20" s="14"/>
     </row>
@@ -3956,7 +4001,7 @@
       </c>
       <c r="V32" s="10">
         <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W32" s="14"/>
     </row>
@@ -4052,7 +4097,7 @@
       </c>
       <c r="V35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W35" s="14"/>
     </row>
@@ -4116,7 +4161,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -4695,13 +4740,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4713,6 +4751,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4723,8 +4768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4756,43 +4801,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="81" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="81"/>
+      <c r="P1" s="81"/>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="81"/>
+      <c r="S1" s="81"/>
+      <c r="T1" s="81"/>
+      <c r="U1" s="81"/>
+      <c r="V1" s="81"/>
       <c r="W1" s="48"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="79" t="s">
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="84" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="79"/>
+      <c r="F2" s="84"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="54"/>
@@ -4837,58 +4882,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="75" t="s">
+      <c r="A4" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75" t="s">
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="75" t="s">
+      <c r="K4" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="75"/>
-      <c r="M4" s="81" t="s">
+      <c r="L4" s="79"/>
+      <c r="M4" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="81" t="s">
+      <c r="N4" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="75" t="s">
+      <c r="O4" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="86" t="s">
+      <c r="P4" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="75" t="s">
+      <c r="Q4" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="75" t="s">
+      <c r="R4" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="87" t="s">
+      <c r="S4" s="80" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="75" t="s">
+      <c r="U4" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="75" t="s">
+      <c r="V4" s="79" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="49"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="80"/>
+      <c r="A5" s="85"/>
       <c r="B5" s="67" t="s">
         <v>1</v>
       </c>
@@ -4913,23 +4958,23 @@
       <c r="I5" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="75"/>
+      <c r="J5" s="79"/>
       <c r="K5" s="73" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="82"/>
-      <c r="N5" s="82"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="86"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="87"/>
+      <c r="M5" s="87"/>
+      <c r="N5" s="87"/>
+      <c r="O5" s="79"/>
+      <c r="P5" s="78"/>
+      <c r="Q5" s="79"/>
+      <c r="R5" s="79"/>
+      <c r="S5" s="80"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
+      <c r="U5" s="79"/>
+      <c r="V5" s="79"/>
       <c r="W5" s="49"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4944,7 +4989,7 @@
         <v>71</v>
       </c>
       <c r="E6" s="39">
-        <v>862631039243166</v>
+        <v>866192037530167</v>
       </c>
       <c r="F6" s="38" t="s">
         <v>72</v>
@@ -4953,19 +4998,35 @@
         <v>61</v>
       </c>
       <c r="H6" s="38"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="61"/>
+      <c r="I6" s="51" t="s">
+        <v>91</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K6" s="61" t="s">
+        <v>90</v>
+      </c>
       <c r="L6" s="40"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="42"/>
+      <c r="M6" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="N6" s="42">
+        <v>260000</v>
+      </c>
       <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="38"/>
+      <c r="P6" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="38" t="s">
+        <v>35</v>
+      </c>
       <c r="S6" s="4"/>
       <c r="T6" s="74"/>
-      <c r="U6" s="83" t="s">
+      <c r="U6" s="75" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -4994,19 +5055,33 @@
         <v>61</v>
       </c>
       <c r="H7" s="38"/>
-      <c r="I7" s="51"/>
+      <c r="I7" s="51" t="s">
+        <v>94</v>
+      </c>
       <c r="J7" s="1"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="1"/>
+      <c r="K7" s="40" t="s">
+        <v>93</v>
+      </c>
+      <c r="L7" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="N7" s="42"/>
       <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="38"/>
+      <c r="P7" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="38" t="s">
+        <v>24</v>
+      </c>
       <c r="S7" s="4"/>
       <c r="T7" s="74"/>
-      <c r="U7" s="84"/>
+      <c r="U7" s="76"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -5033,19 +5108,35 @@
         <v>61</v>
       </c>
       <c r="H8" s="38"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="51"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="42"/>
+      <c r="I8" s="51" t="s">
+        <v>79</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K8" s="61"/>
+      <c r="L8" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="N8" s="42">
+        <v>120000</v>
+      </c>
       <c r="O8" s="40"/>
-      <c r="P8" s="40"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="38"/>
+      <c r="P8" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R8" s="38" t="s">
+        <v>30</v>
+      </c>
       <c r="S8" s="4"/>
       <c r="T8" s="74"/>
-      <c r="U8" s="84"/>
+      <c r="U8" s="76"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -5074,7 +5165,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="74"/>
-      <c r="U9" s="84"/>
+      <c r="U9" s="76"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -5103,7 +5194,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="74"/>
-      <c r="U10" s="84"/>
+      <c r="U10" s="76"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -5132,7 +5223,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="74"/>
-      <c r="U11" s="84"/>
+      <c r="U11" s="76"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -5161,7 +5252,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="74"/>
-      <c r="U12" s="83" t="s">
+      <c r="U12" s="75" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -5192,7 +5283,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="74"/>
-      <c r="U13" s="84"/>
+      <c r="U13" s="76"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -5221,7 +5312,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="74"/>
-      <c r="U14" s="84"/>
+      <c r="U14" s="76"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -5250,7 +5341,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="84"/>
+      <c r="U15" s="76"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -5279,7 +5370,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="85"/>
+      <c r="U16" s="77"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -5398,7 +5489,7 @@
       </c>
       <c r="V20" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W20" s="14"/>
     </row>
@@ -5430,7 +5521,7 @@
       </c>
       <c r="V21" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W21" s="14"/>
     </row>
@@ -5611,7 +5702,7 @@
       </c>
       <c r="V27" s="10">
         <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W27" s="14"/>
     </row>
@@ -5739,7 +5830,7 @@
       </c>
       <c r="V31" s="10">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W31" s="14"/>
     </row>
@@ -5867,7 +5958,7 @@
       </c>
       <c r="V35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W35" s="14"/>
     </row>
@@ -5931,7 +6022,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -6510,13 +6601,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6528,6 +6612,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6571,43 +6662,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="81" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="81"/>
+      <c r="P1" s="81"/>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="81"/>
+      <c r="S1" s="81"/>
+      <c r="T1" s="81"/>
+      <c r="U1" s="81"/>
+      <c r="V1" s="81"/>
       <c r="W1" s="48"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="79" t="s">
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="84" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="79"/>
+      <c r="F2" s="84"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -6652,58 +6743,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="75" t="s">
+      <c r="A4" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75" t="s">
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="75" t="s">
+      <c r="K4" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="75"/>
-      <c r="M4" s="81" t="s">
+      <c r="L4" s="79"/>
+      <c r="M4" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="81" t="s">
+      <c r="N4" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="75" t="s">
+      <c r="O4" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="86" t="s">
+      <c r="P4" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="75" t="s">
+      <c r="Q4" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="75" t="s">
+      <c r="R4" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="87" t="s">
+      <c r="S4" s="80" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="75" t="s">
+      <c r="U4" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="75" t="s">
+      <c r="V4" s="79" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="49"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="80"/>
+      <c r="A5" s="85"/>
       <c r="B5" s="45" t="s">
         <v>1</v>
       </c>
@@ -6728,23 +6819,23 @@
       <c r="I5" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="75"/>
+      <c r="J5" s="79"/>
       <c r="K5" s="45" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="82"/>
-      <c r="N5" s="82"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="86"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="87"/>
+      <c r="M5" s="87"/>
+      <c r="N5" s="87"/>
+      <c r="O5" s="79"/>
+      <c r="P5" s="78"/>
+      <c r="Q5" s="79"/>
+      <c r="R5" s="79"/>
+      <c r="S5" s="80"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
+      <c r="U5" s="79"/>
+      <c r="V5" s="79"/>
       <c r="W5" s="49"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6770,7 +6861,7 @@
       <c r="R6" s="38"/>
       <c r="S6" s="4"/>
       <c r="T6" s="44"/>
-      <c r="U6" s="83" t="s">
+      <c r="U6" s="75" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -6801,7 +6892,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="44"/>
-      <c r="U7" s="84"/>
+      <c r="U7" s="76"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -6830,7 +6921,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="44"/>
-      <c r="U8" s="84"/>
+      <c r="U8" s="76"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -6859,7 +6950,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="44"/>
-      <c r="U9" s="84"/>
+      <c r="U9" s="76"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -6888,7 +6979,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="44"/>
-      <c r="U10" s="84"/>
+      <c r="U10" s="76"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -6917,7 +7008,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="44"/>
-      <c r="U11" s="84"/>
+      <c r="U11" s="76"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -6946,7 +7037,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="44"/>
-      <c r="U12" s="83" t="s">
+      <c r="U12" s="75" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -6977,7 +7068,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="44"/>
-      <c r="U13" s="84"/>
+      <c r="U13" s="76"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -7006,7 +7097,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="44"/>
-      <c r="U14" s="84"/>
+      <c r="U14" s="76"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -7035,7 +7126,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="84"/>
+      <c r="U15" s="76"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -7064,7 +7155,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="85"/>
+      <c r="U16" s="77"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -8295,6 +8386,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8306,13 +8404,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang5/02.XuLyBH/XLBH2105_GPSTayNinh.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang5/02.XuLyBH/XLBH2105_GPSTayNinh.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="98">
   <si>
     <t>STT</t>
   </si>
@@ -315,13 +315,22 @@
     <t>125.212.203.114,15555</t>
   </si>
   <si>
-    <t>Thay module GSM</t>
-  </si>
-  <si>
     <t>SE.3.00.---01.120817</t>
   </si>
   <si>
     <t>Lock: 125.212.203.114,15555</t>
+  </si>
+  <si>
+    <t>Imei mới: 862846048294485</t>
+  </si>
+  <si>
+    <t>Thay module GSM, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>GSM,NCFW</t>
+  </si>
+  <si>
+    <t>Hết hạn dịch vụ, sim lỗi</t>
   </si>
 </sst>
 </file>
@@ -745,6 +754,30 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -757,31 +790,7 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1090,8 +1099,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView showZeros="0" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7:M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1123,43 +1132,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="76" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="81"/>
-      <c r="O1" s="81"/>
-      <c r="P1" s="81"/>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="81"/>
-      <c r="S1" s="81"/>
-      <c r="T1" s="81"/>
-      <c r="U1" s="81"/>
-      <c r="V1" s="81"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
       <c r="W1" s="48"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="84" t="s">
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="79" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="84"/>
+      <c r="F2" s="79"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="54"/>
@@ -1204,58 +1213,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="85" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="79" t="s">
+      <c r="A4" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="79" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="79" t="s">
+      <c r="K4" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="79"/>
-      <c r="M4" s="86" t="s">
+      <c r="L4" s="75"/>
+      <c r="M4" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="86" t="s">
+      <c r="N4" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="79" t="s">
+      <c r="O4" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="78" t="s">
+      <c r="P4" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="79" t="s">
+      <c r="Q4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="79" t="s">
+      <c r="R4" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="80" t="s">
+      <c r="S4" s="87" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="79" t="s">
+      <c r="U4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="79" t="s">
+      <c r="V4" s="75" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="49"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="85"/>
+      <c r="A5" s="80"/>
       <c r="B5" s="67" t="s">
         <v>1</v>
       </c>
@@ -1280,23 +1289,23 @@
       <c r="I5" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="79"/>
+      <c r="J5" s="75"/>
       <c r="K5" s="63" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="87"/>
-      <c r="N5" s="87"/>
-      <c r="O5" s="79"/>
-      <c r="P5" s="78"/>
-      <c r="Q5" s="79"/>
-      <c r="R5" s="79"/>
-      <c r="S5" s="80"/>
+      <c r="M5" s="82"/>
+      <c r="N5" s="82"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="86"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="87"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="79"/>
-      <c r="V5" s="79"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="75"/>
       <c r="W5" s="49"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1352,7 +1361,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="64"/>
-      <c r="U6" s="75" t="s">
+      <c r="U6" s="83" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1367,7 +1376,9 @@
       <c r="B7" s="37">
         <v>44327</v>
       </c>
-      <c r="C7" s="37"/>
+      <c r="C7" s="37">
+        <v>44329</v>
+      </c>
       <c r="D7" s="38" t="s">
         <v>44</v>
       </c>
@@ -1397,7 +1408,9 @@
         <v>76</v>
       </c>
       <c r="N7" s="42"/>
-      <c r="O7" s="40"/>
+      <c r="O7" s="40" t="s">
+        <v>62</v>
+      </c>
       <c r="P7" s="40" t="s">
         <v>70</v>
       </c>
@@ -1409,7 +1422,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="64"/>
-      <c r="U7" s="76"/>
+      <c r="U7" s="84"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1422,7 +1435,9 @@
       <c r="B8" s="37">
         <v>44327</v>
       </c>
-      <c r="C8" s="37"/>
+      <c r="C8" s="37">
+        <v>44329</v>
+      </c>
       <c r="D8" s="38" t="s">
         <v>44</v>
       </c>
@@ -1450,7 +1465,9 @@
         <v>81</v>
       </c>
       <c r="N8" s="42"/>
-      <c r="O8" s="40"/>
+      <c r="O8" s="40" t="s">
+        <v>62</v>
+      </c>
       <c r="P8" s="40" t="s">
         <v>70</v>
       </c>
@@ -1462,7 +1479,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="64"/>
-      <c r="U8" s="76"/>
+      <c r="U8" s="84"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1491,7 +1508,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="64"/>
-      <c r="U9" s="76"/>
+      <c r="U9" s="84"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1520,7 +1537,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="64"/>
-      <c r="U10" s="76"/>
+      <c r="U10" s="84"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1549,7 +1566,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="64"/>
-      <c r="U11" s="76"/>
+      <c r="U11" s="84"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1578,7 +1595,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="64"/>
-      <c r="U12" s="75" t="s">
+      <c r="U12" s="83" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1609,7 +1626,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="64"/>
-      <c r="U13" s="76"/>
+      <c r="U13" s="84"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1638,7 +1655,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="64"/>
-      <c r="U14" s="76"/>
+      <c r="U14" s="84"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1667,7 +1684,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="76"/>
+      <c r="U15" s="84"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1696,7 +1713,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="77"/>
+      <c r="U16" s="85"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -2927,6 +2944,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -2938,13 +2962,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2955,8 +2972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView showZeros="0" topLeftCell="F2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2988,43 +3005,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="76" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="81"/>
-      <c r="O1" s="81"/>
-      <c r="P1" s="81"/>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="81"/>
-      <c r="S1" s="81"/>
-      <c r="T1" s="81"/>
-      <c r="U1" s="81"/>
-      <c r="V1" s="81"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
       <c r="W1" s="48"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="84" t="s">
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="79" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="84"/>
+      <c r="F2" s="79"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="54"/>
@@ -3069,58 +3086,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="85" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="79" t="s">
+      <c r="A4" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="79" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="79" t="s">
+      <c r="K4" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="79"/>
-      <c r="M4" s="86" t="s">
+      <c r="L4" s="75"/>
+      <c r="M4" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="86" t="s">
+      <c r="N4" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="79" t="s">
+      <c r="O4" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="78" t="s">
+      <c r="P4" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="79" t="s">
+      <c r="Q4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="79" t="s">
+      <c r="R4" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="80" t="s">
+      <c r="S4" s="87" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="79" t="s">
+      <c r="U4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="79" t="s">
+      <c r="V4" s="75" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="49"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="85"/>
+      <c r="A5" s="80"/>
       <c r="B5" s="67" t="s">
         <v>1</v>
       </c>
@@ -3145,23 +3162,23 @@
       <c r="I5" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="79"/>
+      <c r="J5" s="75"/>
       <c r="K5" s="73" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="87"/>
-      <c r="N5" s="87"/>
-      <c r="O5" s="79"/>
-      <c r="P5" s="78"/>
-      <c r="Q5" s="79"/>
-      <c r="R5" s="79"/>
-      <c r="S5" s="80"/>
+      <c r="M5" s="82"/>
+      <c r="N5" s="82"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="86"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="87"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="79"/>
-      <c r="V5" s="79"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="75"/>
       <c r="W5" s="49"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3171,7 +3188,9 @@
       <c r="B6" s="37">
         <v>44327</v>
       </c>
-      <c r="C6" s="37"/>
+      <c r="C6" s="37">
+        <v>44329</v>
+      </c>
       <c r="D6" s="38" t="s">
         <v>73</v>
       </c>
@@ -3185,7 +3204,7 @@
         <v>61</v>
       </c>
       <c r="H6" s="38" t="s">
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="I6" s="51" t="s">
         <v>83</v>
@@ -3203,7 +3222,9 @@
         <v>84</v>
       </c>
       <c r="N6" s="42"/>
-      <c r="O6" s="40"/>
+      <c r="O6" s="40" t="s">
+        <v>62</v>
+      </c>
       <c r="P6" s="40" t="s">
         <v>70</v>
       </c>
@@ -3215,7 +3236,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="74"/>
-      <c r="U6" s="75" t="s">
+      <c r="U6" s="83" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -3246,7 +3267,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="74"/>
-      <c r="U7" s="76"/>
+      <c r="U7" s="84"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -3275,7 +3296,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="74"/>
-      <c r="U8" s="76"/>
+      <c r="U8" s="84"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -3304,7 +3325,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="74"/>
-      <c r="U9" s="76"/>
+      <c r="U9" s="84"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -3333,7 +3354,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="74"/>
-      <c r="U10" s="76"/>
+      <c r="U10" s="84"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -3362,7 +3383,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="74"/>
-      <c r="U11" s="76"/>
+      <c r="U11" s="84"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -3391,7 +3412,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="74"/>
-      <c r="U12" s="75" t="s">
+      <c r="U12" s="83" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -3422,7 +3443,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="74"/>
-      <c r="U13" s="76"/>
+      <c r="U13" s="84"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -3451,7 +3472,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="74"/>
-      <c r="U14" s="76"/>
+      <c r="U14" s="84"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -3480,7 +3501,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="76"/>
+      <c r="U15" s="84"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -3509,7 +3530,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="77"/>
+      <c r="U16" s="85"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -4740,6 +4761,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4751,13 +4779,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4768,8 +4789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4801,43 +4822,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="76" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="81"/>
-      <c r="O1" s="81"/>
-      <c r="P1" s="81"/>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="81"/>
-      <c r="S1" s="81"/>
-      <c r="T1" s="81"/>
-      <c r="U1" s="81"/>
-      <c r="V1" s="81"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
       <c r="W1" s="48"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="84" t="s">
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="79" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="84"/>
+      <c r="F2" s="79"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="54"/>
@@ -4882,58 +4903,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="85" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="79" t="s">
+      <c r="A4" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="79" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="79" t="s">
+      <c r="K4" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="79"/>
-      <c r="M4" s="86" t="s">
+      <c r="L4" s="75"/>
+      <c r="M4" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="86" t="s">
+      <c r="N4" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="79" t="s">
+      <c r="O4" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="78" t="s">
+      <c r="P4" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="79" t="s">
+      <c r="Q4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="79" t="s">
+      <c r="R4" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="80" t="s">
+      <c r="S4" s="87" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="79" t="s">
+      <c r="U4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="79" t="s">
+      <c r="V4" s="75" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="49"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="85"/>
+      <c r="A5" s="80"/>
       <c r="B5" s="67" t="s">
         <v>1</v>
       </c>
@@ -4958,23 +4979,23 @@
       <c r="I5" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="79"/>
+      <c r="J5" s="75"/>
       <c r="K5" s="73" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="87"/>
-      <c r="N5" s="87"/>
-      <c r="O5" s="79"/>
-      <c r="P5" s="78"/>
-      <c r="Q5" s="79"/>
-      <c r="R5" s="79"/>
-      <c r="S5" s="80"/>
+      <c r="M5" s="82"/>
+      <c r="N5" s="82"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="86"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="87"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="79"/>
-      <c r="V5" s="79"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="75"/>
       <c r="W5" s="49"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4984,7 +5005,9 @@
       <c r="B6" s="37">
         <v>44327</v>
       </c>
-      <c r="C6" s="37"/>
+      <c r="C6" s="37">
+        <v>44329</v>
+      </c>
       <c r="D6" s="38" t="s">
         <v>71</v>
       </c>
@@ -4997,7 +5020,9 @@
       <c r="G6" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="H6" s="38"/>
+      <c r="H6" s="38" t="s">
+        <v>94</v>
+      </c>
       <c r="I6" s="51" t="s">
         <v>91</v>
       </c>
@@ -5007,9 +5032,11 @@
       <c r="K6" s="61" t="s">
         <v>90</v>
       </c>
-      <c r="L6" s="40"/>
+      <c r="L6" s="40" t="s">
+        <v>87</v>
+      </c>
       <c r="M6" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="N6" s="42">
         <v>260000</v>
@@ -5019,14 +5046,14 @@
         <v>70</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="R6" s="38" t="s">
-        <v>35</v>
+        <v>96</v>
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="74"/>
-      <c r="U6" s="75" t="s">
+      <c r="U6" s="83" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -5041,7 +5068,9 @@
       <c r="B7" s="37">
         <v>44327</v>
       </c>
-      <c r="C7" s="37"/>
+      <c r="C7" s="37">
+        <v>44329</v>
+      </c>
       <c r="D7" s="38" t="s">
         <v>71</v>
       </c>
@@ -5056,11 +5085,13 @@
       </c>
       <c r="H7" s="38"/>
       <c r="I7" s="51" t="s">
-        <v>94</v>
-      </c>
-      <c r="J7" s="1"/>
+        <v>93</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="K7" s="40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L7" s="40" t="s">
         <v>87</v>
@@ -5081,7 +5112,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="74"/>
-      <c r="U7" s="76"/>
+      <c r="U7" s="84"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -5094,7 +5125,9 @@
       <c r="B8" s="37">
         <v>44327</v>
       </c>
-      <c r="C8" s="37"/>
+      <c r="C8" s="37">
+        <v>44329</v>
+      </c>
       <c r="D8" s="38" t="s">
         <v>71</v>
       </c>
@@ -5136,7 +5169,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="74"/>
-      <c r="U8" s="76"/>
+      <c r="U8" s="84"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -5165,7 +5198,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="74"/>
-      <c r="U9" s="76"/>
+      <c r="U9" s="84"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -5194,7 +5227,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="74"/>
-      <c r="U10" s="76"/>
+      <c r="U10" s="84"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -5223,7 +5256,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="74"/>
-      <c r="U11" s="76"/>
+      <c r="U11" s="84"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -5252,7 +5285,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="74"/>
-      <c r="U12" s="75" t="s">
+      <c r="U12" s="83" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -5283,7 +5316,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="74"/>
-      <c r="U13" s="76"/>
+      <c r="U13" s="84"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -5312,7 +5345,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="74"/>
-      <c r="U14" s="76"/>
+      <c r="U14" s="84"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -5341,7 +5374,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="76"/>
+      <c r="U15" s="84"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -5370,7 +5403,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="77"/>
+      <c r="U16" s="85"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -5521,7 +5554,7 @@
       </c>
       <c r="V21" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W21" s="14"/>
     </row>
@@ -5553,7 +5586,7 @@
       </c>
       <c r="V22" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W22" s="14"/>
     </row>
@@ -5958,7 +5991,7 @@
       </c>
       <c r="V35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W35" s="14"/>
     </row>
@@ -6022,7 +6055,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -6601,6 +6634,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6612,13 +6652,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6662,43 +6695,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="76" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="81"/>
-      <c r="O1" s="81"/>
-      <c r="P1" s="81"/>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="81"/>
-      <c r="S1" s="81"/>
-      <c r="T1" s="81"/>
-      <c r="U1" s="81"/>
-      <c r="V1" s="81"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
       <c r="W1" s="48"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="84" t="s">
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="79" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="84"/>
+      <c r="F2" s="79"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -6743,58 +6776,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="85" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="79" t="s">
+      <c r="A4" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="79" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="79" t="s">
+      <c r="K4" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="79"/>
-      <c r="M4" s="86" t="s">
+      <c r="L4" s="75"/>
+      <c r="M4" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="86" t="s">
+      <c r="N4" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="79" t="s">
+      <c r="O4" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="78" t="s">
+      <c r="P4" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="79" t="s">
+      <c r="Q4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="79" t="s">
+      <c r="R4" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="80" t="s">
+      <c r="S4" s="87" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="79" t="s">
+      <c r="U4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="79" t="s">
+      <c r="V4" s="75" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="49"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="85"/>
+      <c r="A5" s="80"/>
       <c r="B5" s="45" t="s">
         <v>1</v>
       </c>
@@ -6819,23 +6852,23 @@
       <c r="I5" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="79"/>
+      <c r="J5" s="75"/>
       <c r="K5" s="45" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="87"/>
-      <c r="N5" s="87"/>
-      <c r="O5" s="79"/>
-      <c r="P5" s="78"/>
-      <c r="Q5" s="79"/>
-      <c r="R5" s="79"/>
-      <c r="S5" s="80"/>
+      <c r="M5" s="82"/>
+      <c r="N5" s="82"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="86"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="87"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="79"/>
-      <c r="V5" s="79"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="75"/>
       <c r="W5" s="49"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6861,7 +6894,7 @@
       <c r="R6" s="38"/>
       <c r="S6" s="4"/>
       <c r="T6" s="44"/>
-      <c r="U6" s="75" t="s">
+      <c r="U6" s="83" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -6892,7 +6925,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="44"/>
-      <c r="U7" s="76"/>
+      <c r="U7" s="84"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -6921,7 +6954,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="44"/>
-      <c r="U8" s="76"/>
+      <c r="U8" s="84"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -6950,7 +6983,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="44"/>
-      <c r="U9" s="76"/>
+      <c r="U9" s="84"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -6979,7 +7012,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="44"/>
-      <c r="U10" s="76"/>
+      <c r="U10" s="84"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -7008,7 +7041,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="44"/>
-      <c r="U11" s="76"/>
+      <c r="U11" s="84"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -7037,7 +7070,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="44"/>
-      <c r="U12" s="75" t="s">
+      <c r="U12" s="83" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -7068,7 +7101,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="44"/>
-      <c r="U13" s="76"/>
+      <c r="U13" s="84"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -7097,7 +7130,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="44"/>
-      <c r="U14" s="76"/>
+      <c r="U14" s="84"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -7126,7 +7159,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="76"/>
+      <c r="U15" s="84"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -7155,7 +7188,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="77"/>
+      <c r="U16" s="85"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -8386,13 +8419,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8404,6 +8430,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang5/02.XuLyBH/XLBH2105_GPSTayNinh.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang5/02.XuLyBH/XLBH2105_GPSTayNinh.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="2"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TG102LE" sheetId="27" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="98">
   <si>
     <t>STT</t>
   </si>
@@ -530,7 +530,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -652,13 +652,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -685,9 +679,6 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -713,9 +704,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -754,7 +742,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -776,21 +779,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1099,21 +1087,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7:M8"/>
+    <sheetView showZeros="0" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.42578125" style="20" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" style="72" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" style="72" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" style="68" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" style="68" customWidth="1"/>
     <col min="4" max="4" width="21.85546875" style="20" customWidth="1"/>
     <col min="5" max="5" width="32.42578125" style="20" customWidth="1"/>
     <col min="6" max="6" width="15.85546875" style="20" customWidth="1"/>
     <col min="7" max="7" width="17" style="20" customWidth="1"/>
     <col min="8" max="8" width="35.42578125" style="20" customWidth="1"/>
-    <col min="9" max="9" width="45.28515625" style="60" customWidth="1"/>
+    <col min="9" max="9" width="45.28515625" style="57" customWidth="1"/>
     <col min="10" max="10" width="53" style="20" customWidth="1"/>
     <col min="11" max="11" width="33.42578125" style="20" customWidth="1"/>
     <col min="12" max="12" width="30.7109375" style="26" customWidth="1"/>
@@ -1132,46 +1120,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="77" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
-      <c r="W1" s="48"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
+      <c r="W1" s="46"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="79" t="s">
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="80" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="79"/>
+      <c r="F2" s="80"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
-      <c r="I2" s="54"/>
+      <c r="I2" s="51"/>
       <c r="J2" s="21"/>
       <c r="K2" s="21"/>
       <c r="L2" s="22"/>
@@ -1189,14 +1177,14 @@
     </row>
     <row r="3" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
-      <c r="I3" s="55"/>
+      <c r="I3" s="52"/>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
       <c r="L3" s="8"/>
@@ -1213,7 +1201,7 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="81" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="75" t="s">
@@ -1233,16 +1221,16 @@
         <v>11</v>
       </c>
       <c r="L4" s="75"/>
-      <c r="M4" s="81" t="s">
+      <c r="M4" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="81" t="s">
+      <c r="N4" s="82" t="s">
         <v>10</v>
       </c>
       <c r="O4" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="86" t="s">
+      <c r="P4" s="74" t="s">
         <v>14</v>
       </c>
       <c r="Q4" s="75" t="s">
@@ -1251,7 +1239,7 @@
       <c r="R4" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="87" t="s">
+      <c r="S4" s="76" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
@@ -1261,52 +1249,52 @@
       <c r="V4" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="W4" s="49"/>
+      <c r="W4" s="47"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="80"/>
-      <c r="B5" s="67" t="s">
+      <c r="A5" s="81"/>
+      <c r="B5" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="67" t="s">
+      <c r="C5" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="63" t="s">
+      <c r="D5" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="63" t="s">
+      <c r="E5" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="63" t="s">
+      <c r="F5" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="63" t="s">
+      <c r="G5" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="63" t="s">
+      <c r="H5" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="I5" s="56" t="s">
+      <c r="I5" s="53" t="s">
         <v>15</v>
       </c>
       <c r="J5" s="75"/>
-      <c r="K5" s="63" t="s">
+      <c r="K5" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="63" t="s">
+      <c r="L5" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="82"/>
-      <c r="N5" s="82"/>
+      <c r="M5" s="83"/>
+      <c r="N5" s="83"/>
       <c r="O5" s="75"/>
-      <c r="P5" s="86"/>
+      <c r="P5" s="74"/>
       <c r="Q5" s="75"/>
       <c r="R5" s="75"/>
-      <c r="S5" s="87"/>
+      <c r="S5" s="76"/>
       <c r="T5" s="27"/>
       <c r="U5" s="75"/>
       <c r="V5" s="75"/>
-      <c r="W5" s="49"/>
+      <c r="W5" s="47"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -1331,13 +1319,13 @@
       <c r="H6" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="I6" s="51" t="s">
+      <c r="I6" s="49" t="s">
         <v>67</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="K6" s="61" t="s">
+      <c r="K6" s="58" t="s">
         <v>66</v>
       </c>
       <c r="L6" s="40" t="s">
@@ -1346,7 +1334,7 @@
       <c r="M6" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="N6" s="42"/>
+      <c r="N6" s="41"/>
       <c r="O6" s="40" t="s">
         <v>62</v>
       </c>
@@ -1360,14 +1348,14 @@
         <v>24</v>
       </c>
       <c r="S6" s="4"/>
-      <c r="T6" s="64"/>
-      <c r="U6" s="83" t="s">
+      <c r="T6" s="60"/>
+      <c r="U6" s="71" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="W6" s="64"/>
+      <c r="W6" s="60"/>
     </row>
     <row r="7" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
@@ -1392,7 +1380,7 @@
       <c r="H7" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="I7" s="51" t="s">
+      <c r="I7" s="49" t="s">
         <v>67</v>
       </c>
       <c r="J7" s="1" t="s">
@@ -1407,7 +1395,7 @@
       <c r="M7" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="N7" s="42"/>
+      <c r="N7" s="41"/>
       <c r="O7" s="40" t="s">
         <v>62</v>
       </c>
@@ -1421,12 +1409,12 @@
         <v>78</v>
       </c>
       <c r="S7" s="4"/>
-      <c r="T7" s="64"/>
-      <c r="U7" s="84"/>
+      <c r="T7" s="60"/>
+      <c r="U7" s="72"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="W7" s="64"/>
+      <c r="W7" s="60"/>
     </row>
     <row r="8" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
@@ -1449,13 +1437,13 @@
         <v>74</v>
       </c>
       <c r="H8" s="38"/>
-      <c r="I8" s="51" t="s">
+      <c r="I8" s="49" t="s">
         <v>79</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="K8" s="51" t="s">
+      <c r="K8" s="49" t="s">
         <v>66</v>
       </c>
       <c r="L8" s="40" t="s">
@@ -1464,7 +1452,7 @@
       <c r="M8" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="N8" s="42"/>
+      <c r="N8" s="41"/>
       <c r="O8" s="40" t="s">
         <v>62</v>
       </c>
@@ -1478,12 +1466,12 @@
         <v>78</v>
       </c>
       <c r="S8" s="4"/>
-      <c r="T8" s="64"/>
-      <c r="U8" s="84"/>
+      <c r="T8" s="60"/>
+      <c r="U8" s="72"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="W8" s="64"/>
+      <c r="W8" s="60"/>
     </row>
     <row r="9" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
@@ -1493,26 +1481,26 @@
       <c r="C9" s="37"/>
       <c r="D9" s="38"/>
       <c r="E9" s="39"/>
-      <c r="F9" s="53"/>
+      <c r="F9" s="50"/>
       <c r="G9" s="38"/>
       <c r="H9" s="2"/>
-      <c r="I9" s="51"/>
+      <c r="I9" s="49"/>
       <c r="J9" s="1"/>
       <c r="K9" s="40"/>
       <c r="L9" s="40"/>
       <c r="M9" s="1"/>
-      <c r="N9" s="42"/>
+      <c r="N9" s="41"/>
       <c r="O9" s="40"/>
       <c r="P9" s="40"/>
       <c r="Q9" s="3"/>
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
-      <c r="T9" s="64"/>
-      <c r="U9" s="84"/>
+      <c r="T9" s="60"/>
+      <c r="U9" s="72"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="W9" s="64"/>
+      <c r="W9" s="60"/>
     </row>
     <row r="10" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
@@ -1522,39 +1510,39 @@
       <c r="C10" s="37"/>
       <c r="D10" s="38"/>
       <c r="E10" s="39"/>
-      <c r="F10" s="53"/>
+      <c r="F10" s="50"/>
       <c r="G10" s="38"/>
       <c r="H10" s="2"/>
-      <c r="I10" s="51"/>
+      <c r="I10" s="49"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="40"/>
       <c r="M10" s="1"/>
-      <c r="N10" s="42"/>
+      <c r="N10" s="41"/>
       <c r="O10" s="40"/>
       <c r="P10" s="40"/>
       <c r="Q10" s="3"/>
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
-      <c r="T10" s="64"/>
-      <c r="U10" s="84"/>
+      <c r="T10" s="60"/>
+      <c r="U10" s="72"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="W10" s="64"/>
+      <c r="W10" s="60"/>
     </row>
     <row r="11" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>6</v>
       </c>
-      <c r="B11" s="68"/>
-      <c r="C11" s="68"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="64"/>
       <c r="D11" s="38"/>
       <c r="E11" s="39"/>
       <c r="F11" s="38"/>
       <c r="G11" s="38"/>
       <c r="H11" s="2"/>
-      <c r="I11" s="51"/>
+      <c r="I11" s="49"/>
       <c r="J11" s="40"/>
       <c r="K11" s="1"/>
       <c r="L11" s="40"/>
@@ -1565,25 +1553,25 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
-      <c r="T11" s="64"/>
-      <c r="U11" s="84"/>
+      <c r="T11" s="60"/>
+      <c r="U11" s="72"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="W11" s="64"/>
+      <c r="W11" s="60"/>
     </row>
     <row r="12" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>7</v>
       </c>
-      <c r="B12" s="68"/>
-      <c r="C12" s="68"/>
+      <c r="B12" s="64"/>
+      <c r="C12" s="64"/>
       <c r="D12" s="38"/>
       <c r="E12" s="39"/>
       <c r="F12" s="38"/>
       <c r="G12" s="38"/>
       <c r="H12" s="1"/>
-      <c r="I12" s="57"/>
+      <c r="I12" s="54"/>
       <c r="J12" s="40"/>
       <c r="K12" s="1"/>
       <c r="L12" s="40"/>
@@ -1594,27 +1582,27 @@
       <c r="Q12" s="4"/>
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
-      <c r="T12" s="64"/>
-      <c r="U12" s="83" t="s">
+      <c r="T12" s="60"/>
+      <c r="U12" s="71" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="W12" s="64"/>
+      <c r="W12" s="60"/>
     </row>
     <row r="13" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>8</v>
       </c>
-      <c r="B13" s="68"/>
-      <c r="C13" s="68"/>
+      <c r="B13" s="64"/>
+      <c r="C13" s="64"/>
       <c r="D13" s="38"/>
       <c r="E13" s="39"/>
       <c r="F13" s="38"/>
       <c r="G13" s="38"/>
       <c r="H13" s="13"/>
-      <c r="I13" s="51"/>
+      <c r="I13" s="49"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="40"/>
@@ -1625,25 +1613,25 @@
       <c r="Q13" s="3"/>
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
-      <c r="T13" s="64"/>
-      <c r="U13" s="84"/>
+      <c r="T13" s="60"/>
+      <c r="U13" s="72"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="W13" s="64"/>
+      <c r="W13" s="60"/>
     </row>
     <row r="14" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>9</v>
       </c>
-      <c r="B14" s="68"/>
-      <c r="C14" s="68"/>
+      <c r="B14" s="64"/>
+      <c r="C14" s="64"/>
       <c r="D14" s="38"/>
       <c r="E14" s="39"/>
       <c r="F14" s="38"/>
       <c r="G14" s="38"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="51"/>
+      <c r="I14" s="49"/>
       <c r="J14" s="40"/>
       <c r="K14" s="1"/>
       <c r="L14" s="40"/>
@@ -1654,25 +1642,25 @@
       <c r="Q14" s="4"/>
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
-      <c r="T14" s="64"/>
-      <c r="U14" s="84"/>
+      <c r="T14" s="60"/>
+      <c r="U14" s="72"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="W14" s="64"/>
+      <c r="W14" s="60"/>
     </row>
     <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>10</v>
       </c>
-      <c r="B15" s="68"/>
-      <c r="C15" s="68"/>
+      <c r="B15" s="64"/>
+      <c r="C15" s="64"/>
       <c r="D15" s="38"/>
       <c r="E15" s="39"/>
       <c r="F15" s="38"/>
       <c r="G15" s="38"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="57"/>
+      <c r="I15" s="54"/>
       <c r="J15" s="40"/>
       <c r="K15" s="1"/>
       <c r="L15" s="40"/>
@@ -1684,24 +1672,24 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="84"/>
+      <c r="U15" s="72"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="W15" s="64"/>
+      <c r="W15" s="60"/>
     </row>
     <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>11</v>
       </c>
-      <c r="B16" s="68"/>
-      <c r="C16" s="68"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="64"/>
       <c r="D16" s="38"/>
       <c r="E16" s="39"/>
-      <c r="F16" s="65"/>
+      <c r="F16" s="61"/>
       <c r="G16" s="38"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="57"/>
+      <c r="I16" s="54"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="40"/>
@@ -1713,24 +1701,24 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="85"/>
+      <c r="U16" s="73"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="W16" s="64"/>
+      <c r="W16" s="60"/>
     </row>
     <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>12</v>
       </c>
-      <c r="B17" s="68"/>
-      <c r="C17" s="68"/>
+      <c r="B17" s="64"/>
+      <c r="C17" s="64"/>
       <c r="D17" s="38"/>
       <c r="E17" s="39"/>
       <c r="F17" s="38"/>
       <c r="G17" s="38"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="51"/>
+      <c r="I17" s="49"/>
       <c r="J17" s="40"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
@@ -1742,22 +1730,22 @@
       <c r="R17" s="38"/>
       <c r="S17" s="4"/>
       <c r="T17" s="14"/>
-      <c r="U17" s="64"/>
+      <c r="U17" s="60"/>
       <c r="V17" s="15"/>
-      <c r="W17" s="64"/>
+      <c r="W17" s="60"/>
     </row>
     <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>13</v>
       </c>
-      <c r="B18" s="69"/>
-      <c r="C18" s="69"/>
+      <c r="B18" s="65"/>
+      <c r="C18" s="65"/>
       <c r="D18" s="38"/>
       <c r="E18" s="39"/>
       <c r="F18" s="38"/>
       <c r="G18" s="38"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="57"/>
+      <c r="I18" s="54"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
@@ -1777,14 +1765,14 @@
       <c r="A19" s="4">
         <v>14</v>
       </c>
-      <c r="B19" s="69"/>
-      <c r="C19" s="69"/>
+      <c r="B19" s="65"/>
+      <c r="C19" s="65"/>
       <c r="D19" s="38"/>
       <c r="E19" s="39"/>
       <c r="F19" s="38"/>
       <c r="G19" s="38"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="57"/>
+      <c r="I19" s="54"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -1796,26 +1784,26 @@
       <c r="R19" s="10"/>
       <c r="S19" s="4"/>
       <c r="T19" s="14"/>
-      <c r="U19" s="63" t="s">
+      <c r="U19" s="59" t="s">
         <v>39</v>
       </c>
       <c r="V19" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="W19" s="50"/>
+      <c r="W19" s="48"/>
     </row>
     <row r="20" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>15</v>
       </c>
-      <c r="B20" s="69"/>
-      <c r="C20" s="69"/>
+      <c r="B20" s="65"/>
+      <c r="C20" s="65"/>
       <c r="D20" s="38"/>
       <c r="E20" s="39"/>
       <c r="F20" s="38"/>
       <c r="G20" s="38"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="57"/>
+      <c r="I20" s="54"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
@@ -1840,14 +1828,14 @@
       <c r="A21" s="4">
         <v>16</v>
       </c>
-      <c r="B21" s="69"/>
-      <c r="C21" s="69"/>
+      <c r="B21" s="65"/>
+      <c r="C21" s="65"/>
       <c r="D21" s="38"/>
       <c r="E21" s="39"/>
       <c r="F21" s="38"/>
       <c r="G21" s="38"/>
       <c r="H21" s="1"/>
-      <c r="I21" s="57"/>
+      <c r="I21" s="54"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
@@ -1872,14 +1860,14 @@
       <c r="A22" s="4">
         <v>17</v>
       </c>
-      <c r="B22" s="69"/>
-      <c r="C22" s="69"/>
+      <c r="B22" s="65"/>
+      <c r="C22" s="65"/>
       <c r="D22" s="38"/>
       <c r="E22" s="39"/>
       <c r="F22" s="38"/>
       <c r="G22" s="38"/>
       <c r="H22" s="10"/>
-      <c r="I22" s="57"/>
+      <c r="I22" s="54"/>
       <c r="J22" s="10"/>
       <c r="K22" s="10"/>
       <c r="L22" s="1"/>
@@ -1904,14 +1892,14 @@
       <c r="A23" s="4">
         <v>18</v>
       </c>
-      <c r="B23" s="69"/>
-      <c r="C23" s="69"/>
+      <c r="B23" s="65"/>
+      <c r="C23" s="65"/>
       <c r="D23" s="38"/>
       <c r="E23" s="39"/>
       <c r="F23" s="38"/>
       <c r="G23" s="38"/>
       <c r="H23" s="10"/>
-      <c r="I23" s="57"/>
+      <c r="I23" s="54"/>
       <c r="J23" s="1"/>
       <c r="K23" s="10"/>
       <c r="L23" s="10"/>
@@ -1931,14 +1919,14 @@
       <c r="A24" s="4">
         <v>19</v>
       </c>
-      <c r="B24" s="69"/>
-      <c r="C24" s="69"/>
+      <c r="B24" s="65"/>
+      <c r="C24" s="65"/>
       <c r="D24" s="38"/>
       <c r="E24" s="39"/>
       <c r="F24" s="38"/>
       <c r="G24" s="38"/>
       <c r="H24" s="10"/>
-      <c r="I24" s="57"/>
+      <c r="I24" s="54"/>
       <c r="J24" s="1"/>
       <c r="K24" s="10"/>
       <c r="L24" s="10"/>
@@ -1958,14 +1946,14 @@
       <c r="A25" s="4">
         <v>20</v>
       </c>
-      <c r="B25" s="69"/>
-      <c r="C25" s="69"/>
+      <c r="B25" s="65"/>
+      <c r="C25" s="65"/>
       <c r="D25" s="38"/>
       <c r="E25" s="39"/>
       <c r="F25" s="38"/>
       <c r="G25" s="38"/>
       <c r="H25" s="10"/>
-      <c r="I25" s="57"/>
+      <c r="I25" s="54"/>
       <c r="J25" s="1"/>
       <c r="K25" s="10"/>
       <c r="L25" s="10"/>
@@ -1977,26 +1965,26 @@
       <c r="R25" s="10"/>
       <c r="S25" s="4"/>
       <c r="T25" s="14"/>
-      <c r="U25" s="63" t="s">
+      <c r="U25" s="59" t="s">
         <v>46</v>
       </c>
       <c r="V25" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="W25" s="50"/>
+      <c r="W25" s="48"/>
     </row>
     <row r="26" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>21</v>
       </c>
-      <c r="B26" s="69"/>
-      <c r="C26" s="69"/>
+      <c r="B26" s="65"/>
+      <c r="C26" s="65"/>
       <c r="D26" s="38"/>
       <c r="E26" s="39"/>
       <c r="F26" s="38"/>
       <c r="G26" s="38"/>
       <c r="H26" s="10"/>
-      <c r="I26" s="57"/>
+      <c r="I26" s="54"/>
       <c r="J26" s="1"/>
       <c r="K26" s="10"/>
       <c r="L26" s="10"/>
@@ -2021,14 +2009,14 @@
       <c r="A27" s="4">
         <v>22</v>
       </c>
-      <c r="B27" s="69"/>
-      <c r="C27" s="69"/>
+      <c r="B27" s="65"/>
+      <c r="C27" s="65"/>
       <c r="D27" s="38"/>
       <c r="E27" s="39"/>
       <c r="F27" s="38"/>
       <c r="G27" s="38"/>
       <c r="H27" s="10"/>
-      <c r="I27" s="57"/>
+      <c r="I27" s="54"/>
       <c r="J27" s="1"/>
       <c r="K27" s="10"/>
       <c r="L27" s="10"/>
@@ -2053,14 +2041,14 @@
       <c r="A28" s="4">
         <v>23</v>
       </c>
-      <c r="B28" s="69"/>
-      <c r="C28" s="69"/>
+      <c r="B28" s="65"/>
+      <c r="C28" s="65"/>
       <c r="D28" s="38"/>
       <c r="E28" s="39"/>
       <c r="F28" s="38"/>
       <c r="G28" s="38"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="57"/>
+      <c r="I28" s="54"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="10"/>
@@ -2085,14 +2073,14 @@
       <c r="A29" s="4">
         <v>24</v>
       </c>
-      <c r="B29" s="69"/>
-      <c r="C29" s="69"/>
+      <c r="B29" s="65"/>
+      <c r="C29" s="65"/>
       <c r="D29" s="38"/>
       <c r="E29" s="39"/>
       <c r="F29" s="38"/>
       <c r="G29" s="38"/>
       <c r="H29" s="1"/>
-      <c r="I29" s="57"/>
+      <c r="I29" s="54"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="10"/>
@@ -2117,14 +2105,14 @@
       <c r="A30" s="4">
         <v>25</v>
       </c>
-      <c r="B30" s="69"/>
-      <c r="C30" s="69"/>
+      <c r="B30" s="65"/>
+      <c r="C30" s="65"/>
       <c r="D30" s="10"/>
       <c r="E30" s="11"/>
       <c r="F30" s="10"/>
       <c r="G30" s="10"/>
       <c r="H30" s="1"/>
-      <c r="I30" s="57"/>
+      <c r="I30" s="54"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -2149,14 +2137,14 @@
       <c r="A31" s="4">
         <v>26</v>
       </c>
-      <c r="B31" s="69"/>
-      <c r="C31" s="69"/>
+      <c r="B31" s="65"/>
+      <c r="C31" s="65"/>
       <c r="D31" s="10"/>
       <c r="E31" s="11"/>
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
       <c r="H31" s="1"/>
-      <c r="I31" s="57"/>
+      <c r="I31" s="54"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
@@ -2181,14 +2169,14 @@
       <c r="A32" s="4">
         <v>27</v>
       </c>
-      <c r="B32" s="69"/>
-      <c r="C32" s="69"/>
+      <c r="B32" s="65"/>
+      <c r="C32" s="65"/>
       <c r="D32" s="10"/>
       <c r="E32" s="11"/>
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
       <c r="H32" s="1"/>
-      <c r="I32" s="57"/>
+      <c r="I32" s="54"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
@@ -2213,14 +2201,14 @@
       <c r="A33" s="4">
         <v>28</v>
       </c>
-      <c r="B33" s="69"/>
-      <c r="C33" s="69"/>
+      <c r="B33" s="65"/>
+      <c r="C33" s="65"/>
       <c r="D33" s="10"/>
       <c r="E33" s="11"/>
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
       <c r="H33" s="1"/>
-      <c r="I33" s="57"/>
+      <c r="I33" s="54"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
@@ -2245,14 +2233,14 @@
       <c r="A34" s="4">
         <v>29</v>
       </c>
-      <c r="B34" s="69"/>
-      <c r="C34" s="69"/>
+      <c r="B34" s="65"/>
+      <c r="C34" s="65"/>
       <c r="D34" s="10"/>
       <c r="E34" s="11"/>
       <c r="F34" s="10"/>
       <c r="G34" s="10"/>
       <c r="H34" s="1"/>
-      <c r="I34" s="57"/>
+      <c r="I34" s="54"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
@@ -2277,14 +2265,14 @@
       <c r="A35" s="4">
         <v>30</v>
       </c>
-      <c r="B35" s="69"/>
-      <c r="C35" s="69"/>
+      <c r="B35" s="65"/>
+      <c r="C35" s="65"/>
       <c r="D35" s="10"/>
       <c r="E35" s="11"/>
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
       <c r="H35" s="1"/>
-      <c r="I35" s="57"/>
+      <c r="I35" s="54"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
@@ -2309,14 +2297,14 @@
       <c r="A36" s="4">
         <v>31</v>
       </c>
-      <c r="B36" s="69"/>
-      <c r="C36" s="69"/>
+      <c r="B36" s="65"/>
+      <c r="C36" s="65"/>
       <c r="D36" s="10"/>
       <c r="E36" s="11"/>
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
       <c r="H36" s="1"/>
-      <c r="I36" s="57"/>
+      <c r="I36" s="54"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
@@ -2341,14 +2329,14 @@
       <c r="A37" s="4">
         <v>32</v>
       </c>
-      <c r="B37" s="69"/>
-      <c r="C37" s="69"/>
+      <c r="B37" s="65"/>
+      <c r="C37" s="65"/>
       <c r="D37" s="10"/>
       <c r="E37" s="11"/>
       <c r="F37" s="10"/>
       <c r="G37" s="10"/>
       <c r="H37" s="1"/>
-      <c r="I37" s="57"/>
+      <c r="I37" s="54"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
@@ -2373,14 +2361,14 @@
       <c r="A38" s="4">
         <v>33</v>
       </c>
-      <c r="B38" s="69"/>
-      <c r="C38" s="69"/>
+      <c r="B38" s="65"/>
+      <c r="C38" s="65"/>
       <c r="D38" s="10"/>
       <c r="E38" s="11"/>
       <c r="F38" s="10"/>
       <c r="G38" s="10"/>
       <c r="H38" s="1"/>
-      <c r="I38" s="57"/>
+      <c r="I38" s="54"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
@@ -2400,14 +2388,14 @@
       <c r="A39" s="4">
         <v>34</v>
       </c>
-      <c r="B39" s="69"/>
-      <c r="C39" s="69"/>
+      <c r="B39" s="65"/>
+      <c r="C39" s="65"/>
       <c r="D39" s="10"/>
       <c r="E39" s="11"/>
       <c r="F39" s="10"/>
       <c r="G39" s="10"/>
       <c r="H39" s="1"/>
-      <c r="I39" s="57"/>
+      <c r="I39" s="54"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
@@ -2427,14 +2415,14 @@
       <c r="A40" s="4">
         <v>35</v>
       </c>
-      <c r="B40" s="69"/>
-      <c r="C40" s="69"/>
+      <c r="B40" s="65"/>
+      <c r="C40" s="65"/>
       <c r="D40" s="10"/>
       <c r="E40" s="11"/>
       <c r="F40" s="10"/>
       <c r="G40" s="10"/>
       <c r="H40" s="1"/>
-      <c r="I40" s="57"/>
+      <c r="I40" s="54"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
@@ -2459,14 +2447,14 @@
       <c r="A41" s="4">
         <v>36</v>
       </c>
-      <c r="B41" s="69"/>
-      <c r="C41" s="69"/>
+      <c r="B41" s="65"/>
+      <c r="C41" s="65"/>
       <c r="D41" s="10"/>
       <c r="E41" s="11"/>
       <c r="F41" s="10"/>
       <c r="G41" s="10"/>
       <c r="H41" s="1"/>
-      <c r="I41" s="57"/>
+      <c r="I41" s="54"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
@@ -2491,14 +2479,14 @@
       <c r="A42" s="4">
         <v>37</v>
       </c>
-      <c r="B42" s="69"/>
-      <c r="C42" s="69"/>
+      <c r="B42" s="65"/>
+      <c r="C42" s="65"/>
       <c r="D42" s="10"/>
       <c r="E42" s="11"/>
       <c r="F42" s="10"/>
       <c r="G42" s="10"/>
       <c r="H42" s="1"/>
-      <c r="I42" s="57"/>
+      <c r="I42" s="54"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
@@ -2518,14 +2506,14 @@
       <c r="A43" s="4">
         <v>38</v>
       </c>
-      <c r="B43" s="69"/>
-      <c r="C43" s="69"/>
+      <c r="B43" s="65"/>
+      <c r="C43" s="65"/>
       <c r="D43" s="10"/>
       <c r="E43" s="11"/>
       <c r="F43" s="10"/>
       <c r="G43" s="10"/>
       <c r="H43" s="1"/>
-      <c r="I43" s="57"/>
+      <c r="I43" s="54"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
@@ -2545,14 +2533,14 @@
       <c r="A44" s="4">
         <v>39</v>
       </c>
-      <c r="B44" s="69"/>
-      <c r="C44" s="69"/>
+      <c r="B44" s="65"/>
+      <c r="C44" s="65"/>
       <c r="D44" s="10"/>
       <c r="E44" s="11"/>
       <c r="F44" s="10"/>
       <c r="G44" s="10"/>
       <c r="H44" s="1"/>
-      <c r="I44" s="57"/>
+      <c r="I44" s="54"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
@@ -2581,14 +2569,14 @@
       <c r="A45" s="4">
         <v>40</v>
       </c>
-      <c r="B45" s="69"/>
-      <c r="C45" s="69"/>
+      <c r="B45" s="65"/>
+      <c r="C45" s="65"/>
       <c r="D45" s="10"/>
       <c r="E45" s="11"/>
       <c r="F45" s="10"/>
       <c r="G45" s="10"/>
       <c r="H45" s="1"/>
-      <c r="I45" s="57"/>
+      <c r="I45" s="54"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
@@ -2620,14 +2608,14 @@
       <c r="A46" s="4">
         <v>41</v>
       </c>
-      <c r="B46" s="69"/>
-      <c r="C46" s="69"/>
+      <c r="B46" s="65"/>
+      <c r="C46" s="65"/>
       <c r="D46" s="10"/>
       <c r="E46" s="11"/>
       <c r="F46" s="10"/>
       <c r="G46" s="10"/>
       <c r="H46" s="1"/>
-      <c r="I46" s="57"/>
+      <c r="I46" s="54"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
@@ -2659,14 +2647,14 @@
       <c r="A47" s="4">
         <v>42</v>
       </c>
-      <c r="B47" s="69"/>
-      <c r="C47" s="69"/>
+      <c r="B47" s="65"/>
+      <c r="C47" s="65"/>
       <c r="D47" s="10"/>
       <c r="E47" s="11"/>
       <c r="F47" s="10"/>
       <c r="G47" s="10"/>
       <c r="H47" s="1"/>
-      <c r="I47" s="57"/>
+      <c r="I47" s="54"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
@@ -2698,14 +2686,14 @@
       <c r="A48" s="4">
         <v>43</v>
       </c>
-      <c r="B48" s="69"/>
-      <c r="C48" s="69"/>
+      <c r="B48" s="65"/>
+      <c r="C48" s="65"/>
       <c r="D48" s="10"/>
       <c r="E48" s="11"/>
       <c r="F48" s="10"/>
       <c r="G48" s="10"/>
       <c r="H48" s="1"/>
-      <c r="I48" s="57"/>
+      <c r="I48" s="54"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
@@ -2740,14 +2728,14 @@
       <c r="A49" s="4">
         <v>44</v>
       </c>
-      <c r="B49" s="69"/>
-      <c r="C49" s="69"/>
+      <c r="B49" s="65"/>
+      <c r="C49" s="65"/>
       <c r="D49" s="10"/>
       <c r="E49" s="11"/>
       <c r="F49" s="10"/>
       <c r="G49" s="10"/>
       <c r="H49" s="1"/>
-      <c r="I49" s="57"/>
+      <c r="I49" s="54"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
@@ -2759,23 +2747,23 @@
       <c r="R49" s="10"/>
       <c r="S49" s="4"/>
       <c r="T49" s="35"/>
-      <c r="U49" s="47"/>
-      <c r="V49" s="47"/>
-      <c r="W49" s="47"/>
+      <c r="U49" s="45"/>
+      <c r="V49" s="45"/>
+      <c r="W49" s="45"/>
       <c r="X49" s="33"/>
     </row>
     <row r="50" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="29">
         <v>45</v>
       </c>
-      <c r="B50" s="70"/>
-      <c r="C50" s="70"/>
-      <c r="D50" s="46"/>
+      <c r="B50" s="66"/>
+      <c r="C50" s="66"/>
+      <c r="D50" s="44"/>
       <c r="E50" s="31"/>
-      <c r="F50" s="46"/>
-      <c r="G50" s="46"/>
+      <c r="F50" s="44"/>
+      <c r="G50" s="44"/>
       <c r="H50" s="32"/>
-      <c r="I50" s="58"/>
+      <c r="I50" s="55"/>
       <c r="J50" s="32"/>
       <c r="K50" s="32"/>
       <c r="L50" s="32"/>
@@ -2784,26 +2772,26 @@
       <c r="O50" s="32"/>
       <c r="P50" s="32"/>
       <c r="Q50" s="29"/>
-      <c r="R50" s="46"/>
+      <c r="R50" s="44"/>
       <c r="S50" s="29"/>
       <c r="T50" s="35"/>
-      <c r="U50" s="47"/>
-      <c r="V50" s="47"/>
-      <c r="W50" s="47"/>
+      <c r="U50" s="45"/>
+      <c r="V50" s="45"/>
+      <c r="W50" s="45"/>
       <c r="X50" s="33"/>
     </row>
     <row r="51" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>46</v>
       </c>
-      <c r="B51" s="69"/>
-      <c r="C51" s="69"/>
+      <c r="B51" s="65"/>
+      <c r="C51" s="65"/>
       <c r="D51" s="10"/>
       <c r="E51" s="11"/>
       <c r="F51" s="10"/>
       <c r="G51" s="10"/>
       <c r="H51" s="1"/>
-      <c r="I51" s="57"/>
+      <c r="I51" s="54"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
@@ -2815,23 +2803,23 @@
       <c r="R51" s="10"/>
       <c r="S51" s="10"/>
       <c r="T51" s="35"/>
-      <c r="U51" s="47"/>
-      <c r="V51" s="47"/>
-      <c r="W51" s="47"/>
+      <c r="U51" s="45"/>
+      <c r="V51" s="45"/>
+      <c r="W51" s="45"/>
       <c r="X51" s="33"/>
     </row>
     <row r="52" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>47</v>
       </c>
-      <c r="B52" s="71"/>
-      <c r="C52" s="71"/>
+      <c r="B52" s="67"/>
+      <c r="C52" s="67"/>
       <c r="D52" s="33"/>
       <c r="E52" s="33"/>
       <c r="F52" s="33"/>
       <c r="G52" s="33"/>
       <c r="H52" s="33"/>
-      <c r="I52" s="59"/>
+      <c r="I52" s="56"/>
       <c r="J52" s="33"/>
       <c r="K52" s="33"/>
       <c r="L52" s="34"/>
@@ -2843,23 +2831,23 @@
       <c r="R52" s="33"/>
       <c r="S52" s="33"/>
       <c r="T52" s="35"/>
-      <c r="U52" s="47"/>
-      <c r="V52" s="47"/>
-      <c r="W52" s="47"/>
+      <c r="U52" s="45"/>
+      <c r="V52" s="45"/>
+      <c r="W52" s="45"/>
       <c r="X52" s="33"/>
     </row>
     <row r="53" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>48</v>
       </c>
-      <c r="B53" s="71"/>
-      <c r="C53" s="71"/>
+      <c r="B53" s="67"/>
+      <c r="C53" s="67"/>
       <c r="D53" s="33"/>
       <c r="E53" s="33"/>
       <c r="F53" s="33"/>
       <c r="G53" s="33"/>
       <c r="H53" s="33"/>
-      <c r="I53" s="59"/>
+      <c r="I53" s="56"/>
       <c r="J53" s="33"/>
       <c r="K53" s="33"/>
       <c r="L53" s="34"/>
@@ -2871,23 +2859,23 @@
       <c r="R53" s="33"/>
       <c r="S53" s="33"/>
       <c r="T53" s="35"/>
-      <c r="U53" s="47"/>
-      <c r="V53" s="47"/>
-      <c r="W53" s="47"/>
+      <c r="U53" s="45"/>
+      <c r="V53" s="45"/>
+      <c r="W53" s="45"/>
       <c r="X53" s="33"/>
     </row>
     <row r="54" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <v>49</v>
       </c>
-      <c r="B54" s="71"/>
-      <c r="C54" s="71"/>
+      <c r="B54" s="67"/>
+      <c r="C54" s="67"/>
       <c r="D54" s="33"/>
       <c r="E54" s="33"/>
       <c r="F54" s="33"/>
       <c r="G54" s="33"/>
       <c r="H54" s="33"/>
-      <c r="I54" s="59"/>
+      <c r="I54" s="56"/>
       <c r="J54" s="33"/>
       <c r="K54" s="33"/>
       <c r="L54" s="34"/>
@@ -2899,23 +2887,23 @@
       <c r="R54" s="33"/>
       <c r="S54" s="33"/>
       <c r="T54" s="35"/>
-      <c r="U54" s="47"/>
-      <c r="V54" s="47"/>
-      <c r="W54" s="47"/>
+      <c r="U54" s="45"/>
+      <c r="V54" s="45"/>
+      <c r="W54" s="45"/>
       <c r="X54" s="33"/>
     </row>
     <row r="55" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>50</v>
       </c>
-      <c r="B55" s="71"/>
-      <c r="C55" s="71"/>
+      <c r="B55" s="67"/>
+      <c r="C55" s="67"/>
       <c r="D55" s="33"/>
       <c r="E55" s="33"/>
       <c r="F55" s="33"/>
       <c r="G55" s="33"/>
       <c r="H55" s="33"/>
-      <c r="I55" s="59"/>
+      <c r="I55" s="56"/>
       <c r="J55" s="33"/>
       <c r="K55" s="33"/>
       <c r="L55" s="34"/>
@@ -2927,9 +2915,9 @@
       <c r="R55" s="33"/>
       <c r="S55" s="33"/>
       <c r="T55" s="36"/>
-      <c r="U55" s="47"/>
-      <c r="V55" s="47"/>
-      <c r="W55" s="47"/>
+      <c r="U55" s="45"/>
+      <c r="V55" s="45"/>
+      <c r="W55" s="45"/>
       <c r="X55" s="33"/>
     </row>
     <row r="56" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2944,13 +2932,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -2962,6 +2943,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2972,21 +2960,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="F2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView showZeros="0" topLeftCell="K2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.42578125" style="20" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" style="72" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" style="72" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" style="68" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" style="68" customWidth="1"/>
     <col min="4" max="4" width="21.85546875" style="20" customWidth="1"/>
     <col min="5" max="5" width="32.42578125" style="20" customWidth="1"/>
     <col min="6" max="6" width="15.85546875" style="20" customWidth="1"/>
     <col min="7" max="7" width="17" style="20" customWidth="1"/>
     <col min="8" max="8" width="35.42578125" style="20" customWidth="1"/>
-    <col min="9" max="9" width="45.28515625" style="60" customWidth="1"/>
+    <col min="9" max="9" width="45.28515625" style="57" customWidth="1"/>
     <col min="10" max="10" width="53" style="20" customWidth="1"/>
     <col min="11" max="11" width="33.42578125" style="20" customWidth="1"/>
     <col min="12" max="12" width="30.7109375" style="26" customWidth="1"/>
@@ -3005,46 +2993,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="77" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
-      <c r="W1" s="48"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
+      <c r="W1" s="46"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="79" t="s">
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="80" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="79"/>
+      <c r="F2" s="80"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
-      <c r="I2" s="54"/>
+      <c r="I2" s="51"/>
       <c r="J2" s="21"/>
       <c r="K2" s="21"/>
       <c r="L2" s="22"/>
@@ -3062,14 +3050,14 @@
     </row>
     <row r="3" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
-      <c r="I3" s="55"/>
+      <c r="I3" s="52"/>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
       <c r="L3" s="8"/>
@@ -3086,7 +3074,7 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="81" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="75" t="s">
@@ -3106,16 +3094,16 @@
         <v>11</v>
       </c>
       <c r="L4" s="75"/>
-      <c r="M4" s="81" t="s">
+      <c r="M4" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="81" t="s">
+      <c r="N4" s="82" t="s">
         <v>10</v>
       </c>
       <c r="O4" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="86" t="s">
+      <c r="P4" s="74" t="s">
         <v>14</v>
       </c>
       <c r="Q4" s="75" t="s">
@@ -3124,7 +3112,7 @@
       <c r="R4" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="87" t="s">
+      <c r="S4" s="76" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
@@ -3134,52 +3122,52 @@
       <c r="V4" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="W4" s="49"/>
+      <c r="W4" s="47"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="80"/>
-      <c r="B5" s="67" t="s">
+      <c r="A5" s="81"/>
+      <c r="B5" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="67" t="s">
+      <c r="C5" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="73" t="s">
+      <c r="D5" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="73" t="s">
+      <c r="E5" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="73" t="s">
+      <c r="F5" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="73" t="s">
+      <c r="G5" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="73" t="s">
+      <c r="H5" s="69" t="s">
         <v>55</v>
       </c>
-      <c r="I5" s="56" t="s">
+      <c r="I5" s="53" t="s">
         <v>15</v>
       </c>
       <c r="J5" s="75"/>
-      <c r="K5" s="73" t="s">
+      <c r="K5" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="73" t="s">
+      <c r="L5" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="82"/>
-      <c r="N5" s="82"/>
+      <c r="M5" s="83"/>
+      <c r="N5" s="83"/>
       <c r="O5" s="75"/>
-      <c r="P5" s="86"/>
+      <c r="P5" s="74"/>
       <c r="Q5" s="75"/>
       <c r="R5" s="75"/>
-      <c r="S5" s="87"/>
+      <c r="S5" s="76"/>
       <c r="T5" s="27"/>
       <c r="U5" s="75"/>
       <c r="V5" s="75"/>
-      <c r="W5" s="49"/>
+      <c r="W5" s="47"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -3206,13 +3194,13 @@
       <c r="H6" s="38" t="s">
         <v>97</v>
       </c>
-      <c r="I6" s="51" t="s">
+      <c r="I6" s="49" t="s">
         <v>83</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K6" s="61" t="s">
+      <c r="K6" s="58" t="s">
         <v>82</v>
       </c>
       <c r="L6" s="40" t="s">
@@ -3221,7 +3209,7 @@
       <c r="M6" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="N6" s="42"/>
+      <c r="N6" s="41"/>
       <c r="O6" s="40" t="s">
         <v>62</v>
       </c>
@@ -3235,14 +3223,14 @@
         <v>85</v>
       </c>
       <c r="S6" s="4"/>
-      <c r="T6" s="74"/>
-      <c r="U6" s="83" t="s">
+      <c r="T6" s="70"/>
+      <c r="U6" s="71" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="W6" s="74"/>
+      <c r="W6" s="70"/>
     </row>
     <row r="7" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
@@ -3252,26 +3240,26 @@
       <c r="C7" s="37"/>
       <c r="D7" s="38"/>
       <c r="E7" s="39"/>
-      <c r="F7" s="53"/>
+      <c r="F7" s="50"/>
       <c r="G7" s="38"/>
       <c r="H7" s="38"/>
-      <c r="I7" s="51"/>
+      <c r="I7" s="49"/>
       <c r="J7" s="1"/>
       <c r="K7" s="40"/>
       <c r="L7" s="40"/>
       <c r="M7" s="1"/>
-      <c r="N7" s="42"/>
+      <c r="N7" s="41"/>
       <c r="O7" s="40"/>
       <c r="P7" s="40"/>
       <c r="Q7" s="3"/>
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
-      <c r="T7" s="74"/>
-      <c r="U7" s="84"/>
+      <c r="T7" s="70"/>
+      <c r="U7" s="72"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="W7" s="74"/>
+      <c r="W7" s="70"/>
     </row>
     <row r="8" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
@@ -3284,23 +3272,23 @@
       <c r="F8" s="38"/>
       <c r="G8" s="38"/>
       <c r="H8" s="38"/>
-      <c r="I8" s="51"/>
+      <c r="I8" s="49"/>
       <c r="J8" s="1"/>
-      <c r="K8" s="51"/>
+      <c r="K8" s="49"/>
       <c r="L8" s="40"/>
       <c r="M8" s="1"/>
-      <c r="N8" s="42"/>
+      <c r="N8" s="41"/>
       <c r="O8" s="40"/>
       <c r="P8" s="40"/>
       <c r="Q8" s="3"/>
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
-      <c r="T8" s="74"/>
-      <c r="U8" s="84"/>
+      <c r="T8" s="70"/>
+      <c r="U8" s="72"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="W8" s="74"/>
+      <c r="W8" s="70"/>
     </row>
     <row r="9" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
@@ -3310,26 +3298,26 @@
       <c r="C9" s="37"/>
       <c r="D9" s="38"/>
       <c r="E9" s="39"/>
-      <c r="F9" s="53"/>
+      <c r="F9" s="50"/>
       <c r="G9" s="38"/>
       <c r="H9" s="2"/>
-      <c r="I9" s="51"/>
+      <c r="I9" s="49"/>
       <c r="J9" s="1"/>
       <c r="K9" s="40"/>
       <c r="L9" s="40"/>
       <c r="M9" s="1"/>
-      <c r="N9" s="42"/>
+      <c r="N9" s="41"/>
       <c r="O9" s="40"/>
       <c r="P9" s="40"/>
       <c r="Q9" s="3"/>
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
-      <c r="T9" s="74"/>
-      <c r="U9" s="84"/>
+      <c r="T9" s="70"/>
+      <c r="U9" s="72"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="W9" s="74"/>
+      <c r="W9" s="70"/>
     </row>
     <row r="10" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
@@ -3339,39 +3327,39 @@
       <c r="C10" s="37"/>
       <c r="D10" s="38"/>
       <c r="E10" s="39"/>
-      <c r="F10" s="53"/>
+      <c r="F10" s="50"/>
       <c r="G10" s="38"/>
       <c r="H10" s="2"/>
-      <c r="I10" s="51"/>
+      <c r="I10" s="49"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="40"/>
       <c r="M10" s="1"/>
-      <c r="N10" s="42"/>
+      <c r="N10" s="41"/>
       <c r="O10" s="40"/>
       <c r="P10" s="40"/>
       <c r="Q10" s="3"/>
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
-      <c r="T10" s="74"/>
-      <c r="U10" s="84"/>
+      <c r="T10" s="70"/>
+      <c r="U10" s="72"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="W10" s="74"/>
+      <c r="W10" s="70"/>
     </row>
     <row r="11" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>6</v>
       </c>
-      <c r="B11" s="68"/>
-      <c r="C11" s="68"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="64"/>
       <c r="D11" s="38"/>
       <c r="E11" s="39"/>
       <c r="F11" s="38"/>
       <c r="G11" s="38"/>
       <c r="H11" s="2"/>
-      <c r="I11" s="51"/>
+      <c r="I11" s="49"/>
       <c r="J11" s="40"/>
       <c r="K11" s="1"/>
       <c r="L11" s="40"/>
@@ -3382,25 +3370,25 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
-      <c r="T11" s="74"/>
-      <c r="U11" s="84"/>
+      <c r="T11" s="70"/>
+      <c r="U11" s="72"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="W11" s="74"/>
+      <c r="W11" s="70"/>
     </row>
     <row r="12" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>7</v>
       </c>
-      <c r="B12" s="68"/>
-      <c r="C12" s="68"/>
+      <c r="B12" s="64"/>
+      <c r="C12" s="64"/>
       <c r="D12" s="38"/>
       <c r="E12" s="39"/>
       <c r="F12" s="38"/>
       <c r="G12" s="38"/>
       <c r="H12" s="1"/>
-      <c r="I12" s="57"/>
+      <c r="I12" s="54"/>
       <c r="J12" s="40"/>
       <c r="K12" s="1"/>
       <c r="L12" s="40"/>
@@ -3411,27 +3399,27 @@
       <c r="Q12" s="4"/>
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
-      <c r="T12" s="74"/>
-      <c r="U12" s="83" t="s">
+      <c r="T12" s="70"/>
+      <c r="U12" s="71" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="W12" s="74"/>
+      <c r="W12" s="70"/>
     </row>
     <row r="13" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>8</v>
       </c>
-      <c r="B13" s="68"/>
-      <c r="C13" s="68"/>
+      <c r="B13" s="64"/>
+      <c r="C13" s="64"/>
       <c r="D13" s="38"/>
       <c r="E13" s="39"/>
       <c r="F13" s="38"/>
       <c r="G13" s="38"/>
       <c r="H13" s="13"/>
-      <c r="I13" s="51"/>
+      <c r="I13" s="49"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="40"/>
@@ -3442,25 +3430,25 @@
       <c r="Q13" s="3"/>
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
-      <c r="T13" s="74"/>
-      <c r="U13" s="84"/>
+      <c r="T13" s="70"/>
+      <c r="U13" s="72"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="W13" s="74"/>
+      <c r="W13" s="70"/>
     </row>
     <row r="14" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>9</v>
       </c>
-      <c r="B14" s="68"/>
-      <c r="C14" s="68"/>
+      <c r="B14" s="64"/>
+      <c r="C14" s="64"/>
       <c r="D14" s="38"/>
       <c r="E14" s="39"/>
       <c r="F14" s="38"/>
       <c r="G14" s="38"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="51"/>
+      <c r="I14" s="49"/>
       <c r="J14" s="40"/>
       <c r="K14" s="1"/>
       <c r="L14" s="40"/>
@@ -3471,25 +3459,25 @@
       <c r="Q14" s="4"/>
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
-      <c r="T14" s="74"/>
-      <c r="U14" s="84"/>
+      <c r="T14" s="70"/>
+      <c r="U14" s="72"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="W14" s="74"/>
+      <c r="W14" s="70"/>
     </row>
     <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>10</v>
       </c>
-      <c r="B15" s="68"/>
-      <c r="C15" s="68"/>
+      <c r="B15" s="64"/>
+      <c r="C15" s="64"/>
       <c r="D15" s="38"/>
       <c r="E15" s="39"/>
       <c r="F15" s="38"/>
       <c r="G15" s="38"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="57"/>
+      <c r="I15" s="54"/>
       <c r="J15" s="40"/>
       <c r="K15" s="1"/>
       <c r="L15" s="40"/>
@@ -3501,24 +3489,24 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="84"/>
+      <c r="U15" s="72"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="W15" s="74"/>
+      <c r="W15" s="70"/>
     </row>
     <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>11</v>
       </c>
-      <c r="B16" s="68"/>
-      <c r="C16" s="68"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="64"/>
       <c r="D16" s="38"/>
       <c r="E16" s="39"/>
-      <c r="F16" s="65"/>
+      <c r="F16" s="61"/>
       <c r="G16" s="38"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="57"/>
+      <c r="I16" s="54"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="40"/>
@@ -3530,24 +3518,24 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="85"/>
+      <c r="U16" s="73"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="W16" s="74"/>
+      <c r="W16" s="70"/>
     </row>
     <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>12</v>
       </c>
-      <c r="B17" s="68"/>
-      <c r="C17" s="68"/>
+      <c r="B17" s="64"/>
+      <c r="C17" s="64"/>
       <c r="D17" s="38"/>
       <c r="E17" s="39"/>
       <c r="F17" s="38"/>
       <c r="G17" s="38"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="51"/>
+      <c r="I17" s="49"/>
       <c r="J17" s="40"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
@@ -3559,22 +3547,22 @@
       <c r="R17" s="38"/>
       <c r="S17" s="4"/>
       <c r="T17" s="14"/>
-      <c r="U17" s="74"/>
+      <c r="U17" s="70"/>
       <c r="V17" s="15"/>
-      <c r="W17" s="74"/>
+      <c r="W17" s="70"/>
     </row>
     <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>13</v>
       </c>
-      <c r="B18" s="69"/>
-      <c r="C18" s="69"/>
+      <c r="B18" s="65"/>
+      <c r="C18" s="65"/>
       <c r="D18" s="38"/>
       <c r="E18" s="39"/>
       <c r="F18" s="38"/>
       <c r="G18" s="38"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="57"/>
+      <c r="I18" s="54"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
@@ -3594,14 +3582,14 @@
       <c r="A19" s="4">
         <v>14</v>
       </c>
-      <c r="B19" s="69"/>
-      <c r="C19" s="69"/>
+      <c r="B19" s="65"/>
+      <c r="C19" s="65"/>
       <c r="D19" s="38"/>
       <c r="E19" s="39"/>
       <c r="F19" s="38"/>
       <c r="G19" s="38"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="57"/>
+      <c r="I19" s="54"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -3613,26 +3601,26 @@
       <c r="R19" s="10"/>
       <c r="S19" s="4"/>
       <c r="T19" s="14"/>
-      <c r="U19" s="73" t="s">
+      <c r="U19" s="69" t="s">
         <v>39</v>
       </c>
       <c r="V19" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="W19" s="50"/>
+      <c r="W19" s="48"/>
     </row>
     <row r="20" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>15</v>
       </c>
-      <c r="B20" s="69"/>
-      <c r="C20" s="69"/>
+      <c r="B20" s="65"/>
+      <c r="C20" s="65"/>
       <c r="D20" s="38"/>
       <c r="E20" s="39"/>
       <c r="F20" s="38"/>
       <c r="G20" s="38"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="57"/>
+      <c r="I20" s="54"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
@@ -3657,14 +3645,14 @@
       <c r="A21" s="4">
         <v>16</v>
       </c>
-      <c r="B21" s="69"/>
-      <c r="C21" s="69"/>
+      <c r="B21" s="65"/>
+      <c r="C21" s="65"/>
       <c r="D21" s="38"/>
       <c r="E21" s="39"/>
       <c r="F21" s="38"/>
       <c r="G21" s="38"/>
       <c r="H21" s="1"/>
-      <c r="I21" s="57"/>
+      <c r="I21" s="54"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
@@ -3689,14 +3677,14 @@
       <c r="A22" s="4">
         <v>17</v>
       </c>
-      <c r="B22" s="69"/>
-      <c r="C22" s="69"/>
+      <c r="B22" s="65"/>
+      <c r="C22" s="65"/>
       <c r="D22" s="38"/>
       <c r="E22" s="39"/>
       <c r="F22" s="38"/>
       <c r="G22" s="38"/>
       <c r="H22" s="10"/>
-      <c r="I22" s="57"/>
+      <c r="I22" s="54"/>
       <c r="J22" s="10"/>
       <c r="K22" s="10"/>
       <c r="L22" s="1"/>
@@ -3721,14 +3709,14 @@
       <c r="A23" s="4">
         <v>18</v>
       </c>
-      <c r="B23" s="69"/>
-      <c r="C23" s="69"/>
+      <c r="B23" s="65"/>
+      <c r="C23" s="65"/>
       <c r="D23" s="38"/>
       <c r="E23" s="39"/>
       <c r="F23" s="38"/>
       <c r="G23" s="38"/>
       <c r="H23" s="10"/>
-      <c r="I23" s="57"/>
+      <c r="I23" s="54"/>
       <c r="J23" s="1"/>
       <c r="K23" s="10"/>
       <c r="L23" s="10"/>
@@ -3748,14 +3736,14 @@
       <c r="A24" s="4">
         <v>19</v>
       </c>
-      <c r="B24" s="69"/>
-      <c r="C24" s="69"/>
+      <c r="B24" s="65"/>
+      <c r="C24" s="65"/>
       <c r="D24" s="38"/>
       <c r="E24" s="39"/>
       <c r="F24" s="38"/>
       <c r="G24" s="38"/>
       <c r="H24" s="10"/>
-      <c r="I24" s="57"/>
+      <c r="I24" s="54"/>
       <c r="J24" s="1"/>
       <c r="K24" s="10"/>
       <c r="L24" s="10"/>
@@ -3775,14 +3763,14 @@
       <c r="A25" s="4">
         <v>20</v>
       </c>
-      <c r="B25" s="69"/>
-      <c r="C25" s="69"/>
+      <c r="B25" s="65"/>
+      <c r="C25" s="65"/>
       <c r="D25" s="38"/>
       <c r="E25" s="39"/>
       <c r="F25" s="38"/>
       <c r="G25" s="38"/>
       <c r="H25" s="10"/>
-      <c r="I25" s="57"/>
+      <c r="I25" s="54"/>
       <c r="J25" s="1"/>
       <c r="K25" s="10"/>
       <c r="L25" s="10"/>
@@ -3794,26 +3782,26 @@
       <c r="R25" s="10"/>
       <c r="S25" s="4"/>
       <c r="T25" s="14"/>
-      <c r="U25" s="73" t="s">
+      <c r="U25" s="69" t="s">
         <v>46</v>
       </c>
       <c r="V25" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="W25" s="50"/>
+      <c r="W25" s="48"/>
     </row>
     <row r="26" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>21</v>
       </c>
-      <c r="B26" s="69"/>
-      <c r="C26" s="69"/>
+      <c r="B26" s="65"/>
+      <c r="C26" s="65"/>
       <c r="D26" s="38"/>
       <c r="E26" s="39"/>
       <c r="F26" s="38"/>
       <c r="G26" s="38"/>
       <c r="H26" s="10"/>
-      <c r="I26" s="57"/>
+      <c r="I26" s="54"/>
       <c r="J26" s="1"/>
       <c r="K26" s="10"/>
       <c r="L26" s="10"/>
@@ -3838,14 +3826,14 @@
       <c r="A27" s="4">
         <v>22</v>
       </c>
-      <c r="B27" s="69"/>
-      <c r="C27" s="69"/>
+      <c r="B27" s="65"/>
+      <c r="C27" s="65"/>
       <c r="D27" s="38"/>
       <c r="E27" s="39"/>
       <c r="F27" s="38"/>
       <c r="G27" s="38"/>
       <c r="H27" s="10"/>
-      <c r="I27" s="57"/>
+      <c r="I27" s="54"/>
       <c r="J27" s="1"/>
       <c r="K27" s="10"/>
       <c r="L27" s="10"/>
@@ -3870,14 +3858,14 @@
       <c r="A28" s="4">
         <v>23</v>
       </c>
-      <c r="B28" s="69"/>
-      <c r="C28" s="69"/>
+      <c r="B28" s="65"/>
+      <c r="C28" s="65"/>
       <c r="D28" s="38"/>
       <c r="E28" s="39"/>
       <c r="F28" s="38"/>
       <c r="G28" s="38"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="57"/>
+      <c r="I28" s="54"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="10"/>
@@ -3902,14 +3890,14 @@
       <c r="A29" s="4">
         <v>24</v>
       </c>
-      <c r="B29" s="69"/>
-      <c r="C29" s="69"/>
+      <c r="B29" s="65"/>
+      <c r="C29" s="65"/>
       <c r="D29" s="38"/>
       <c r="E29" s="39"/>
       <c r="F29" s="38"/>
       <c r="G29" s="38"/>
       <c r="H29" s="1"/>
-      <c r="I29" s="57"/>
+      <c r="I29" s="54"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="10"/>
@@ -3934,14 +3922,14 @@
       <c r="A30" s="4">
         <v>25</v>
       </c>
-      <c r="B30" s="69"/>
-      <c r="C30" s="69"/>
+      <c r="B30" s="65"/>
+      <c r="C30" s="65"/>
       <c r="D30" s="10"/>
       <c r="E30" s="11"/>
       <c r="F30" s="10"/>
       <c r="G30" s="10"/>
       <c r="H30" s="1"/>
-      <c r="I30" s="57"/>
+      <c r="I30" s="54"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -3966,14 +3954,14 @@
       <c r="A31" s="4">
         <v>26</v>
       </c>
-      <c r="B31" s="69"/>
-      <c r="C31" s="69"/>
+      <c r="B31" s="65"/>
+      <c r="C31" s="65"/>
       <c r="D31" s="10"/>
       <c r="E31" s="11"/>
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
       <c r="H31" s="1"/>
-      <c r="I31" s="57"/>
+      <c r="I31" s="54"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
@@ -3998,14 +3986,14 @@
       <c r="A32" s="4">
         <v>27</v>
       </c>
-      <c r="B32" s="69"/>
-      <c r="C32" s="69"/>
+      <c r="B32" s="65"/>
+      <c r="C32" s="65"/>
       <c r="D32" s="10"/>
       <c r="E32" s="11"/>
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
       <c r="H32" s="1"/>
-      <c r="I32" s="57"/>
+      <c r="I32" s="54"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
@@ -4030,14 +4018,14 @@
       <c r="A33" s="4">
         <v>28</v>
       </c>
-      <c r="B33" s="69"/>
-      <c r="C33" s="69"/>
+      <c r="B33" s="65"/>
+      <c r="C33" s="65"/>
       <c r="D33" s="10"/>
       <c r="E33" s="11"/>
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
       <c r="H33" s="1"/>
-      <c r="I33" s="57"/>
+      <c r="I33" s="54"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
@@ -4062,14 +4050,14 @@
       <c r="A34" s="4">
         <v>29</v>
       </c>
-      <c r="B34" s="69"/>
-      <c r="C34" s="69"/>
+      <c r="B34" s="65"/>
+      <c r="C34" s="65"/>
       <c r="D34" s="10"/>
       <c r="E34" s="11"/>
       <c r="F34" s="10"/>
       <c r="G34" s="10"/>
       <c r="H34" s="1"/>
-      <c r="I34" s="57"/>
+      <c r="I34" s="54"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
@@ -4094,14 +4082,14 @@
       <c r="A35" s="4">
         <v>30</v>
       </c>
-      <c r="B35" s="69"/>
-      <c r="C35" s="69"/>
+      <c r="B35" s="65"/>
+      <c r="C35" s="65"/>
       <c r="D35" s="10"/>
       <c r="E35" s="11"/>
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
       <c r="H35" s="1"/>
-      <c r="I35" s="57"/>
+      <c r="I35" s="54"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
@@ -4126,14 +4114,14 @@
       <c r="A36" s="4">
         <v>31</v>
       </c>
-      <c r="B36" s="69"/>
-      <c r="C36" s="69"/>
+      <c r="B36" s="65"/>
+      <c r="C36" s="65"/>
       <c r="D36" s="10"/>
       <c r="E36" s="11"/>
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
       <c r="H36" s="1"/>
-      <c r="I36" s="57"/>
+      <c r="I36" s="54"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
@@ -4158,14 +4146,14 @@
       <c r="A37" s="4">
         <v>32</v>
       </c>
-      <c r="B37" s="69"/>
-      <c r="C37" s="69"/>
+      <c r="B37" s="65"/>
+      <c r="C37" s="65"/>
       <c r="D37" s="10"/>
       <c r="E37" s="11"/>
       <c r="F37" s="10"/>
       <c r="G37" s="10"/>
       <c r="H37" s="1"/>
-      <c r="I37" s="57"/>
+      <c r="I37" s="54"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
@@ -4190,14 +4178,14 @@
       <c r="A38" s="4">
         <v>33</v>
       </c>
-      <c r="B38" s="69"/>
-      <c r="C38" s="69"/>
+      <c r="B38" s="65"/>
+      <c r="C38" s="65"/>
       <c r="D38" s="10"/>
       <c r="E38" s="11"/>
       <c r="F38" s="10"/>
       <c r="G38" s="10"/>
       <c r="H38" s="1"/>
-      <c r="I38" s="57"/>
+      <c r="I38" s="54"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
@@ -4217,14 +4205,14 @@
       <c r="A39" s="4">
         <v>34</v>
       </c>
-      <c r="B39" s="69"/>
-      <c r="C39" s="69"/>
+      <c r="B39" s="65"/>
+      <c r="C39" s="65"/>
       <c r="D39" s="10"/>
       <c r="E39" s="11"/>
       <c r="F39" s="10"/>
       <c r="G39" s="10"/>
       <c r="H39" s="1"/>
-      <c r="I39" s="57"/>
+      <c r="I39" s="54"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
@@ -4244,14 +4232,14 @@
       <c r="A40" s="4">
         <v>35</v>
       </c>
-      <c r="B40" s="69"/>
-      <c r="C40" s="69"/>
+      <c r="B40" s="65"/>
+      <c r="C40" s="65"/>
       <c r="D40" s="10"/>
       <c r="E40" s="11"/>
       <c r="F40" s="10"/>
       <c r="G40" s="10"/>
       <c r="H40" s="1"/>
-      <c r="I40" s="57"/>
+      <c r="I40" s="54"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
@@ -4276,14 +4264,14 @@
       <c r="A41" s="4">
         <v>36</v>
       </c>
-      <c r="B41" s="69"/>
-      <c r="C41" s="69"/>
+      <c r="B41" s="65"/>
+      <c r="C41" s="65"/>
       <c r="D41" s="10"/>
       <c r="E41" s="11"/>
       <c r="F41" s="10"/>
       <c r="G41" s="10"/>
       <c r="H41" s="1"/>
-      <c r="I41" s="57"/>
+      <c r="I41" s="54"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
@@ -4308,14 +4296,14 @@
       <c r="A42" s="4">
         <v>37</v>
       </c>
-      <c r="B42" s="69"/>
-      <c r="C42" s="69"/>
+      <c r="B42" s="65"/>
+      <c r="C42" s="65"/>
       <c r="D42" s="10"/>
       <c r="E42" s="11"/>
       <c r="F42" s="10"/>
       <c r="G42" s="10"/>
       <c r="H42" s="1"/>
-      <c r="I42" s="57"/>
+      <c r="I42" s="54"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
@@ -4335,14 +4323,14 @@
       <c r="A43" s="4">
         <v>38</v>
       </c>
-      <c r="B43" s="69"/>
-      <c r="C43" s="69"/>
+      <c r="B43" s="65"/>
+      <c r="C43" s="65"/>
       <c r="D43" s="10"/>
       <c r="E43" s="11"/>
       <c r="F43" s="10"/>
       <c r="G43" s="10"/>
       <c r="H43" s="1"/>
-      <c r="I43" s="57"/>
+      <c r="I43" s="54"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
@@ -4362,14 +4350,14 @@
       <c r="A44" s="4">
         <v>39</v>
       </c>
-      <c r="B44" s="69"/>
-      <c r="C44" s="69"/>
+      <c r="B44" s="65"/>
+      <c r="C44" s="65"/>
       <c r="D44" s="10"/>
       <c r="E44" s="11"/>
       <c r="F44" s="10"/>
       <c r="G44" s="10"/>
       <c r="H44" s="1"/>
-      <c r="I44" s="57"/>
+      <c r="I44" s="54"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
@@ -4398,14 +4386,14 @@
       <c r="A45" s="4">
         <v>40</v>
       </c>
-      <c r="B45" s="69"/>
-      <c r="C45" s="69"/>
+      <c r="B45" s="65"/>
+      <c r="C45" s="65"/>
       <c r="D45" s="10"/>
       <c r="E45" s="11"/>
       <c r="F45" s="10"/>
       <c r="G45" s="10"/>
       <c r="H45" s="1"/>
-      <c r="I45" s="57"/>
+      <c r="I45" s="54"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
@@ -4437,14 +4425,14 @@
       <c r="A46" s="4">
         <v>41</v>
       </c>
-      <c r="B46" s="69"/>
-      <c r="C46" s="69"/>
+      <c r="B46" s="65"/>
+      <c r="C46" s="65"/>
       <c r="D46" s="10"/>
       <c r="E46" s="11"/>
       <c r="F46" s="10"/>
       <c r="G46" s="10"/>
       <c r="H46" s="1"/>
-      <c r="I46" s="57"/>
+      <c r="I46" s="54"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
@@ -4476,14 +4464,14 @@
       <c r="A47" s="4">
         <v>42</v>
       </c>
-      <c r="B47" s="69"/>
-      <c r="C47" s="69"/>
+      <c r="B47" s="65"/>
+      <c r="C47" s="65"/>
       <c r="D47" s="10"/>
       <c r="E47" s="11"/>
       <c r="F47" s="10"/>
       <c r="G47" s="10"/>
       <c r="H47" s="1"/>
-      <c r="I47" s="57"/>
+      <c r="I47" s="54"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
@@ -4515,14 +4503,14 @@
       <c r="A48" s="4">
         <v>43</v>
       </c>
-      <c r="B48" s="69"/>
-      <c r="C48" s="69"/>
+      <c r="B48" s="65"/>
+      <c r="C48" s="65"/>
       <c r="D48" s="10"/>
       <c r="E48" s="11"/>
       <c r="F48" s="10"/>
       <c r="G48" s="10"/>
       <c r="H48" s="1"/>
-      <c r="I48" s="57"/>
+      <c r="I48" s="54"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
@@ -4557,14 +4545,14 @@
       <c r="A49" s="4">
         <v>44</v>
       </c>
-      <c r="B49" s="69"/>
-      <c r="C49" s="69"/>
+      <c r="B49" s="65"/>
+      <c r="C49" s="65"/>
       <c r="D49" s="10"/>
       <c r="E49" s="11"/>
       <c r="F49" s="10"/>
       <c r="G49" s="10"/>
       <c r="H49" s="1"/>
-      <c r="I49" s="57"/>
+      <c r="I49" s="54"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
@@ -4576,23 +4564,23 @@
       <c r="R49" s="10"/>
       <c r="S49" s="4"/>
       <c r="T49" s="35"/>
-      <c r="U49" s="47"/>
-      <c r="V49" s="47"/>
-      <c r="W49" s="47"/>
+      <c r="U49" s="45"/>
+      <c r="V49" s="45"/>
+      <c r="W49" s="45"/>
       <c r="X49" s="33"/>
     </row>
     <row r="50" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="29">
         <v>45</v>
       </c>
-      <c r="B50" s="70"/>
-      <c r="C50" s="70"/>
-      <c r="D50" s="46"/>
+      <c r="B50" s="66"/>
+      <c r="C50" s="66"/>
+      <c r="D50" s="44"/>
       <c r="E50" s="31"/>
-      <c r="F50" s="46"/>
-      <c r="G50" s="46"/>
+      <c r="F50" s="44"/>
+      <c r="G50" s="44"/>
       <c r="H50" s="32"/>
-      <c r="I50" s="58"/>
+      <c r="I50" s="55"/>
       <c r="J50" s="32"/>
       <c r="K50" s="32"/>
       <c r="L50" s="32"/>
@@ -4601,26 +4589,26 @@
       <c r="O50" s="32"/>
       <c r="P50" s="32"/>
       <c r="Q50" s="29"/>
-      <c r="R50" s="46"/>
+      <c r="R50" s="44"/>
       <c r="S50" s="29"/>
       <c r="T50" s="35"/>
-      <c r="U50" s="47"/>
-      <c r="V50" s="47"/>
-      <c r="W50" s="47"/>
+      <c r="U50" s="45"/>
+      <c r="V50" s="45"/>
+      <c r="W50" s="45"/>
       <c r="X50" s="33"/>
     </row>
     <row r="51" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>46</v>
       </c>
-      <c r="B51" s="69"/>
-      <c r="C51" s="69"/>
+      <c r="B51" s="65"/>
+      <c r="C51" s="65"/>
       <c r="D51" s="10"/>
       <c r="E51" s="11"/>
       <c r="F51" s="10"/>
       <c r="G51" s="10"/>
       <c r="H51" s="1"/>
-      <c r="I51" s="57"/>
+      <c r="I51" s="54"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
@@ -4632,23 +4620,23 @@
       <c r="R51" s="10"/>
       <c r="S51" s="10"/>
       <c r="T51" s="35"/>
-      <c r="U51" s="47"/>
-      <c r="V51" s="47"/>
-      <c r="W51" s="47"/>
+      <c r="U51" s="45"/>
+      <c r="V51" s="45"/>
+      <c r="W51" s="45"/>
       <c r="X51" s="33"/>
     </row>
     <row r="52" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>47</v>
       </c>
-      <c r="B52" s="71"/>
-      <c r="C52" s="71"/>
+      <c r="B52" s="67"/>
+      <c r="C52" s="67"/>
       <c r="D52" s="33"/>
       <c r="E52" s="33"/>
       <c r="F52" s="33"/>
       <c r="G52" s="33"/>
       <c r="H52" s="33"/>
-      <c r="I52" s="59"/>
+      <c r="I52" s="56"/>
       <c r="J52" s="33"/>
       <c r="K52" s="33"/>
       <c r="L52" s="34"/>
@@ -4660,23 +4648,23 @@
       <c r="R52" s="33"/>
       <c r="S52" s="33"/>
       <c r="T52" s="35"/>
-      <c r="U52" s="47"/>
-      <c r="V52" s="47"/>
-      <c r="W52" s="47"/>
+      <c r="U52" s="45"/>
+      <c r="V52" s="45"/>
+      <c r="W52" s="45"/>
       <c r="X52" s="33"/>
     </row>
     <row r="53" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>48</v>
       </c>
-      <c r="B53" s="71"/>
-      <c r="C53" s="71"/>
+      <c r="B53" s="67"/>
+      <c r="C53" s="67"/>
       <c r="D53" s="33"/>
       <c r="E53" s="33"/>
       <c r="F53" s="33"/>
       <c r="G53" s="33"/>
       <c r="H53" s="33"/>
-      <c r="I53" s="59"/>
+      <c r="I53" s="56"/>
       <c r="J53" s="33"/>
       <c r="K53" s="33"/>
       <c r="L53" s="34"/>
@@ -4688,23 +4676,23 @@
       <c r="R53" s="33"/>
       <c r="S53" s="33"/>
       <c r="T53" s="35"/>
-      <c r="U53" s="47"/>
-      <c r="V53" s="47"/>
-      <c r="W53" s="47"/>
+      <c r="U53" s="45"/>
+      <c r="V53" s="45"/>
+      <c r="W53" s="45"/>
       <c r="X53" s="33"/>
     </row>
     <row r="54" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <v>49</v>
       </c>
-      <c r="B54" s="71"/>
-      <c r="C54" s="71"/>
+      <c r="B54" s="67"/>
+      <c r="C54" s="67"/>
       <c r="D54" s="33"/>
       <c r="E54" s="33"/>
       <c r="F54" s="33"/>
       <c r="G54" s="33"/>
       <c r="H54" s="33"/>
-      <c r="I54" s="59"/>
+      <c r="I54" s="56"/>
       <c r="J54" s="33"/>
       <c r="K54" s="33"/>
       <c r="L54" s="34"/>
@@ -4716,23 +4704,23 @@
       <c r="R54" s="33"/>
       <c r="S54" s="33"/>
       <c r="T54" s="35"/>
-      <c r="U54" s="47"/>
-      <c r="V54" s="47"/>
-      <c r="W54" s="47"/>
+      <c r="U54" s="45"/>
+      <c r="V54" s="45"/>
+      <c r="W54" s="45"/>
       <c r="X54" s="33"/>
     </row>
     <row r="55" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>50</v>
       </c>
-      <c r="B55" s="71"/>
-      <c r="C55" s="71"/>
+      <c r="B55" s="67"/>
+      <c r="C55" s="67"/>
       <c r="D55" s="33"/>
       <c r="E55" s="33"/>
       <c r="F55" s="33"/>
       <c r="G55" s="33"/>
       <c r="H55" s="33"/>
-      <c r="I55" s="59"/>
+      <c r="I55" s="56"/>
       <c r="J55" s="33"/>
       <c r="K55" s="33"/>
       <c r="L55" s="34"/>
@@ -4744,9 +4732,9 @@
       <c r="R55" s="33"/>
       <c r="S55" s="33"/>
       <c r="T55" s="36"/>
-      <c r="U55" s="47"/>
-      <c r="V55" s="47"/>
-      <c r="W55" s="47"/>
+      <c r="U55" s="45"/>
+      <c r="V55" s="45"/>
+      <c r="W55" s="45"/>
       <c r="X55" s="33"/>
     </row>
     <row r="56" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4761,13 +4749,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4779,6 +4760,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4789,21 +4777,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView showZeros="0" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.42578125" style="20" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" style="72" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" style="72" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" style="68" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" style="68" customWidth="1"/>
     <col min="4" max="4" width="21.85546875" style="20" customWidth="1"/>
     <col min="5" max="5" width="32.42578125" style="20" customWidth="1"/>
     <col min="6" max="6" width="15.85546875" style="20" customWidth="1"/>
     <col min="7" max="7" width="17" style="20" customWidth="1"/>
     <col min="8" max="8" width="35.42578125" style="20" customWidth="1"/>
-    <col min="9" max="9" width="45.28515625" style="60" customWidth="1"/>
+    <col min="9" max="9" width="45.28515625" style="57" customWidth="1"/>
     <col min="10" max="10" width="53" style="20" customWidth="1"/>
     <col min="11" max="11" width="33.42578125" style="20" customWidth="1"/>
     <col min="12" max="12" width="30.7109375" style="26" customWidth="1"/>
@@ -4822,46 +4810,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="77" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
-      <c r="W1" s="48"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
+      <c r="W1" s="46"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="79" t="s">
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="80" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="79"/>
+      <c r="F2" s="80"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
-      <c r="I2" s="54"/>
+      <c r="I2" s="51"/>
       <c r="J2" s="21"/>
       <c r="K2" s="21"/>
       <c r="L2" s="22"/>
@@ -4879,14 +4867,14 @@
     </row>
     <row r="3" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
-      <c r="I3" s="55"/>
+      <c r="I3" s="52"/>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
       <c r="L3" s="8"/>
@@ -4903,7 +4891,7 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="81" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="75" t="s">
@@ -4923,16 +4911,16 @@
         <v>11</v>
       </c>
       <c r="L4" s="75"/>
-      <c r="M4" s="81" t="s">
+      <c r="M4" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="81" t="s">
+      <c r="N4" s="82" t="s">
         <v>10</v>
       </c>
       <c r="O4" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="86" t="s">
+      <c r="P4" s="74" t="s">
         <v>14</v>
       </c>
       <c r="Q4" s="75" t="s">
@@ -4941,7 +4929,7 @@
       <c r="R4" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="87" t="s">
+      <c r="S4" s="76" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
@@ -4951,52 +4939,52 @@
       <c r="V4" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="W4" s="49"/>
+      <c r="W4" s="47"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="80"/>
-      <c r="B5" s="67" t="s">
+      <c r="A5" s="81"/>
+      <c r="B5" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="67" t="s">
+      <c r="C5" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="73" t="s">
+      <c r="D5" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="73" t="s">
+      <c r="E5" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="73" t="s">
+      <c r="F5" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="73" t="s">
+      <c r="G5" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="73" t="s">
+      <c r="H5" s="69" t="s">
         <v>55</v>
       </c>
-      <c r="I5" s="56" t="s">
+      <c r="I5" s="53" t="s">
         <v>15</v>
       </c>
       <c r="J5" s="75"/>
-      <c r="K5" s="73" t="s">
+      <c r="K5" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="73" t="s">
+      <c r="L5" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="82"/>
-      <c r="N5" s="82"/>
+      <c r="M5" s="83"/>
+      <c r="N5" s="83"/>
       <c r="O5" s="75"/>
-      <c r="P5" s="86"/>
+      <c r="P5" s="74"/>
       <c r="Q5" s="75"/>
       <c r="R5" s="75"/>
-      <c r="S5" s="87"/>
+      <c r="S5" s="76"/>
       <c r="T5" s="27"/>
       <c r="U5" s="75"/>
       <c r="V5" s="75"/>
-      <c r="W5" s="49"/>
+      <c r="W5" s="47"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -5023,13 +5011,13 @@
       <c r="H6" s="38" t="s">
         <v>94</v>
       </c>
-      <c r="I6" s="51" t="s">
+      <c r="I6" s="49" t="s">
         <v>91</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="61" t="s">
+      <c r="K6" s="58" t="s">
         <v>90</v>
       </c>
       <c r="L6" s="40" t="s">
@@ -5038,7 +5026,7 @@
       <c r="M6" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="N6" s="42">
+      <c r="N6" s="41">
         <v>260000</v>
       </c>
       <c r="O6" s="40"/>
@@ -5052,14 +5040,14 @@
         <v>96</v>
       </c>
       <c r="S6" s="4"/>
-      <c r="T6" s="74"/>
-      <c r="U6" s="83" t="s">
+      <c r="T6" s="70"/>
+      <c r="U6" s="71" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="W6" s="74"/>
+      <c r="W6" s="70"/>
     </row>
     <row r="7" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
@@ -5084,7 +5072,7 @@
         <v>61</v>
       </c>
       <c r="H7" s="38"/>
-      <c r="I7" s="51" t="s">
+      <c r="I7" s="49" t="s">
         <v>93</v>
       </c>
       <c r="J7" s="1" t="s">
@@ -5099,7 +5087,7 @@
       <c r="M7" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="N7" s="42"/>
+      <c r="N7" s="41"/>
       <c r="O7" s="40"/>
       <c r="P7" s="40" t="s">
         <v>70</v>
@@ -5111,12 +5099,12 @@
         <v>24</v>
       </c>
       <c r="S7" s="4"/>
-      <c r="T7" s="74"/>
-      <c r="U7" s="84"/>
+      <c r="T7" s="70"/>
+      <c r="U7" s="72"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="W7" s="74"/>
+      <c r="W7" s="70"/>
     </row>
     <row r="8" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
@@ -5141,20 +5129,20 @@
         <v>61</v>
       </c>
       <c r="H8" s="38"/>
-      <c r="I8" s="51" t="s">
+      <c r="I8" s="49" t="s">
         <v>79</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="K8" s="61"/>
+      <c r="K8" s="58"/>
       <c r="L8" s="40" t="s">
         <v>87</v>
       </c>
       <c r="M8" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="N8" s="42">
+      <c r="N8" s="41">
         <v>120000</v>
       </c>
       <c r="O8" s="40"/>
@@ -5168,12 +5156,12 @@
         <v>30</v>
       </c>
       <c r="S8" s="4"/>
-      <c r="T8" s="74"/>
-      <c r="U8" s="84"/>
+      <c r="T8" s="70"/>
+      <c r="U8" s="72"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="W8" s="74"/>
+      <c r="W8" s="70"/>
     </row>
     <row r="9" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
@@ -5183,26 +5171,26 @@
       <c r="C9" s="37"/>
       <c r="D9" s="38"/>
       <c r="E9" s="39"/>
-      <c r="F9" s="53"/>
+      <c r="F9" s="50"/>
       <c r="G9" s="38"/>
       <c r="H9" s="2"/>
-      <c r="I9" s="51"/>
+      <c r="I9" s="49"/>
       <c r="J9" s="1"/>
       <c r="K9" s="40"/>
       <c r="L9" s="40"/>
       <c r="M9" s="1"/>
-      <c r="N9" s="42"/>
+      <c r="N9" s="41"/>
       <c r="O9" s="40"/>
       <c r="P9" s="40"/>
       <c r="Q9" s="3"/>
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
-      <c r="T9" s="74"/>
-      <c r="U9" s="84"/>
+      <c r="T9" s="70"/>
+      <c r="U9" s="72"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="W9" s="74"/>
+      <c r="W9" s="70"/>
     </row>
     <row r="10" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
@@ -5212,39 +5200,39 @@
       <c r="C10" s="37"/>
       <c r="D10" s="38"/>
       <c r="E10" s="39"/>
-      <c r="F10" s="53"/>
+      <c r="F10" s="50"/>
       <c r="G10" s="38"/>
       <c r="H10" s="2"/>
-      <c r="I10" s="51"/>
+      <c r="I10" s="49"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="40"/>
       <c r="M10" s="1"/>
-      <c r="N10" s="42"/>
+      <c r="N10" s="41"/>
       <c r="O10" s="40"/>
       <c r="P10" s="40"/>
       <c r="Q10" s="3"/>
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
-      <c r="T10" s="74"/>
-      <c r="U10" s="84"/>
+      <c r="T10" s="70"/>
+      <c r="U10" s="72"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="W10" s="74"/>
+      <c r="W10" s="70"/>
     </row>
     <row r="11" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>6</v>
       </c>
-      <c r="B11" s="68"/>
-      <c r="C11" s="68"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="64"/>
       <c r="D11" s="38"/>
       <c r="E11" s="39"/>
       <c r="F11" s="38"/>
       <c r="G11" s="38"/>
       <c r="H11" s="2"/>
-      <c r="I11" s="51"/>
+      <c r="I11" s="49"/>
       <c r="J11" s="40"/>
       <c r="K11" s="1"/>
       <c r="L11" s="40"/>
@@ -5255,25 +5243,25 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
-      <c r="T11" s="74"/>
-      <c r="U11" s="84"/>
+      <c r="T11" s="70"/>
+      <c r="U11" s="72"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="W11" s="74"/>
+      <c r="W11" s="70"/>
     </row>
     <row r="12" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>7</v>
       </c>
-      <c r="B12" s="68"/>
-      <c r="C12" s="68"/>
+      <c r="B12" s="64"/>
+      <c r="C12" s="64"/>
       <c r="D12" s="38"/>
       <c r="E12" s="39"/>
       <c r="F12" s="38"/>
       <c r="G12" s="38"/>
       <c r="H12" s="1"/>
-      <c r="I12" s="57"/>
+      <c r="I12" s="54"/>
       <c r="J12" s="40"/>
       <c r="K12" s="1"/>
       <c r="L12" s="40"/>
@@ -5284,27 +5272,27 @@
       <c r="Q12" s="4"/>
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
-      <c r="T12" s="74"/>
-      <c r="U12" s="83" t="s">
+      <c r="T12" s="70"/>
+      <c r="U12" s="71" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="W12" s="74"/>
+      <c r="W12" s="70"/>
     </row>
     <row r="13" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>8</v>
       </c>
-      <c r="B13" s="68"/>
-      <c r="C13" s="68"/>
+      <c r="B13" s="64"/>
+      <c r="C13" s="64"/>
       <c r="D13" s="38"/>
       <c r="E13" s="39"/>
       <c r="F13" s="38"/>
       <c r="G13" s="38"/>
       <c r="H13" s="13"/>
-      <c r="I13" s="51"/>
+      <c r="I13" s="49"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="40"/>
@@ -5315,25 +5303,25 @@
       <c r="Q13" s="3"/>
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
-      <c r="T13" s="74"/>
-      <c r="U13" s="84"/>
+      <c r="T13" s="70"/>
+      <c r="U13" s="72"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="W13" s="74"/>
+      <c r="W13" s="70"/>
     </row>
     <row r="14" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>9</v>
       </c>
-      <c r="B14" s="68"/>
-      <c r="C14" s="68"/>
+      <c r="B14" s="64"/>
+      <c r="C14" s="64"/>
       <c r="D14" s="38"/>
       <c r="E14" s="39"/>
       <c r="F14" s="38"/>
       <c r="G14" s="38"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="51"/>
+      <c r="I14" s="49"/>
       <c r="J14" s="40"/>
       <c r="K14" s="1"/>
       <c r="L14" s="40"/>
@@ -5344,25 +5332,25 @@
       <c r="Q14" s="4"/>
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
-      <c r="T14" s="74"/>
-      <c r="U14" s="84"/>
+      <c r="T14" s="70"/>
+      <c r="U14" s="72"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="W14" s="74"/>
+      <c r="W14" s="70"/>
     </row>
     <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>10</v>
       </c>
-      <c r="B15" s="68"/>
-      <c r="C15" s="68"/>
+      <c r="B15" s="64"/>
+      <c r="C15" s="64"/>
       <c r="D15" s="38"/>
       <c r="E15" s="39"/>
       <c r="F15" s="38"/>
       <c r="G15" s="38"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="57"/>
+      <c r="I15" s="54"/>
       <c r="J15" s="40"/>
       <c r="K15" s="1"/>
       <c r="L15" s="40"/>
@@ -5374,24 +5362,24 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="84"/>
+      <c r="U15" s="72"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="W15" s="74"/>
+      <c r="W15" s="70"/>
     </row>
     <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>11</v>
       </c>
-      <c r="B16" s="68"/>
-      <c r="C16" s="68"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="64"/>
       <c r="D16" s="38"/>
       <c r="E16" s="39"/>
-      <c r="F16" s="65"/>
+      <c r="F16" s="61"/>
       <c r="G16" s="38"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="57"/>
+      <c r="I16" s="54"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="40"/>
@@ -5403,24 +5391,24 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="85"/>
+      <c r="U16" s="73"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="W16" s="74"/>
+      <c r="W16" s="70"/>
     </row>
     <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>12</v>
       </c>
-      <c r="B17" s="68"/>
-      <c r="C17" s="68"/>
+      <c r="B17" s="64"/>
+      <c r="C17" s="64"/>
       <c r="D17" s="38"/>
       <c r="E17" s="39"/>
       <c r="F17" s="38"/>
       <c r="G17" s="38"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="51"/>
+      <c r="I17" s="49"/>
       <c r="J17" s="40"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
@@ -5432,22 +5420,22 @@
       <c r="R17" s="38"/>
       <c r="S17" s="4"/>
       <c r="T17" s="14"/>
-      <c r="U17" s="74"/>
+      <c r="U17" s="70"/>
       <c r="V17" s="15"/>
-      <c r="W17" s="74"/>
+      <c r="W17" s="70"/>
     </row>
     <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>13</v>
       </c>
-      <c r="B18" s="69"/>
-      <c r="C18" s="69"/>
+      <c r="B18" s="65"/>
+      <c r="C18" s="65"/>
       <c r="D18" s="38"/>
       <c r="E18" s="39"/>
       <c r="F18" s="38"/>
       <c r="G18" s="38"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="57"/>
+      <c r="I18" s="54"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
@@ -5467,14 +5455,14 @@
       <c r="A19" s="4">
         <v>14</v>
       </c>
-      <c r="B19" s="69"/>
-      <c r="C19" s="69"/>
+      <c r="B19" s="65"/>
+      <c r="C19" s="65"/>
       <c r="D19" s="38"/>
       <c r="E19" s="39"/>
       <c r="F19" s="38"/>
       <c r="G19" s="38"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="57"/>
+      <c r="I19" s="54"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -5486,26 +5474,26 @@
       <c r="R19" s="10"/>
       <c r="S19" s="4"/>
       <c r="T19" s="14"/>
-      <c r="U19" s="73" t="s">
+      <c r="U19" s="69" t="s">
         <v>39</v>
       </c>
       <c r="V19" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="W19" s="50"/>
+      <c r="W19" s="48"/>
     </row>
     <row r="20" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>15</v>
       </c>
-      <c r="B20" s="69"/>
-      <c r="C20" s="69"/>
+      <c r="B20" s="65"/>
+      <c r="C20" s="65"/>
       <c r="D20" s="38"/>
       <c r="E20" s="39"/>
       <c r="F20" s="38"/>
       <c r="G20" s="38"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="57"/>
+      <c r="I20" s="54"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
@@ -5530,14 +5518,14 @@
       <c r="A21" s="4">
         <v>16</v>
       </c>
-      <c r="B21" s="69"/>
-      <c r="C21" s="69"/>
+      <c r="B21" s="65"/>
+      <c r="C21" s="65"/>
       <c r="D21" s="38"/>
       <c r="E21" s="39"/>
       <c r="F21" s="38"/>
       <c r="G21" s="38"/>
       <c r="H21" s="1"/>
-      <c r="I21" s="57"/>
+      <c r="I21" s="54"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
@@ -5562,14 +5550,14 @@
       <c r="A22" s="4">
         <v>17</v>
       </c>
-      <c r="B22" s="69"/>
-      <c r="C22" s="69"/>
+      <c r="B22" s="65"/>
+      <c r="C22" s="65"/>
       <c r="D22" s="38"/>
       <c r="E22" s="39"/>
       <c r="F22" s="38"/>
       <c r="G22" s="38"/>
       <c r="H22" s="10"/>
-      <c r="I22" s="57"/>
+      <c r="I22" s="54"/>
       <c r="J22" s="10"/>
       <c r="K22" s="10"/>
       <c r="L22" s="1"/>
@@ -5594,14 +5582,14 @@
       <c r="A23" s="4">
         <v>18</v>
       </c>
-      <c r="B23" s="69"/>
-      <c r="C23" s="69"/>
+      <c r="B23" s="65"/>
+      <c r="C23" s="65"/>
       <c r="D23" s="38"/>
       <c r="E23" s="39"/>
       <c r="F23" s="38"/>
       <c r="G23" s="38"/>
       <c r="H23" s="10"/>
-      <c r="I23" s="57"/>
+      <c r="I23" s="54"/>
       <c r="J23" s="1"/>
       <c r="K23" s="10"/>
       <c r="L23" s="10"/>
@@ -5621,14 +5609,14 @@
       <c r="A24" s="4">
         <v>19</v>
       </c>
-      <c r="B24" s="69"/>
-      <c r="C24" s="69"/>
+      <c r="B24" s="65"/>
+      <c r="C24" s="65"/>
       <c r="D24" s="38"/>
       <c r="E24" s="39"/>
       <c r="F24" s="38"/>
       <c r="G24" s="38"/>
       <c r="H24" s="10"/>
-      <c r="I24" s="57"/>
+      <c r="I24" s="54"/>
       <c r="J24" s="1"/>
       <c r="K24" s="10"/>
       <c r="L24" s="10"/>
@@ -5648,14 +5636,14 @@
       <c r="A25" s="4">
         <v>20</v>
       </c>
-      <c r="B25" s="69"/>
-      <c r="C25" s="69"/>
+      <c r="B25" s="65"/>
+      <c r="C25" s="65"/>
       <c r="D25" s="38"/>
       <c r="E25" s="39"/>
       <c r="F25" s="38"/>
       <c r="G25" s="38"/>
       <c r="H25" s="10"/>
-      <c r="I25" s="57"/>
+      <c r="I25" s="54"/>
       <c r="J25" s="1"/>
       <c r="K25" s="10"/>
       <c r="L25" s="10"/>
@@ -5667,26 +5655,26 @@
       <c r="R25" s="10"/>
       <c r="S25" s="4"/>
       <c r="T25" s="14"/>
-      <c r="U25" s="73" t="s">
+      <c r="U25" s="69" t="s">
         <v>46</v>
       </c>
       <c r="V25" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="W25" s="50"/>
+      <c r="W25" s="48"/>
     </row>
     <row r="26" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>21</v>
       </c>
-      <c r="B26" s="69"/>
-      <c r="C26" s="69"/>
+      <c r="B26" s="65"/>
+      <c r="C26" s="65"/>
       <c r="D26" s="38"/>
       <c r="E26" s="39"/>
       <c r="F26" s="38"/>
       <c r="G26" s="38"/>
       <c r="H26" s="10"/>
-      <c r="I26" s="57"/>
+      <c r="I26" s="54"/>
       <c r="J26" s="1"/>
       <c r="K26" s="10"/>
       <c r="L26" s="10"/>
@@ -5711,14 +5699,14 @@
       <c r="A27" s="4">
         <v>22</v>
       </c>
-      <c r="B27" s="69"/>
-      <c r="C27" s="69"/>
+      <c r="B27" s="65"/>
+      <c r="C27" s="65"/>
       <c r="D27" s="38"/>
       <c r="E27" s="39"/>
       <c r="F27" s="38"/>
       <c r="G27" s="38"/>
       <c r="H27" s="10"/>
-      <c r="I27" s="57"/>
+      <c r="I27" s="54"/>
       <c r="J27" s="1"/>
       <c r="K27" s="10"/>
       <c r="L27" s="10"/>
@@ -5743,14 +5731,14 @@
       <c r="A28" s="4">
         <v>23</v>
       </c>
-      <c r="B28" s="69"/>
-      <c r="C28" s="69"/>
+      <c r="B28" s="65"/>
+      <c r="C28" s="65"/>
       <c r="D28" s="38"/>
       <c r="E28" s="39"/>
       <c r="F28" s="38"/>
       <c r="G28" s="38"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="57"/>
+      <c r="I28" s="54"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="10"/>
@@ -5775,14 +5763,14 @@
       <c r="A29" s="4">
         <v>24</v>
       </c>
-      <c r="B29" s="69"/>
-      <c r="C29" s="69"/>
+      <c r="B29" s="65"/>
+      <c r="C29" s="65"/>
       <c r="D29" s="38"/>
       <c r="E29" s="39"/>
       <c r="F29" s="38"/>
       <c r="G29" s="38"/>
       <c r="H29" s="1"/>
-      <c r="I29" s="57"/>
+      <c r="I29" s="54"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="10"/>
@@ -5807,14 +5795,14 @@
       <c r="A30" s="4">
         <v>25</v>
       </c>
-      <c r="B30" s="69"/>
-      <c r="C30" s="69"/>
+      <c r="B30" s="65"/>
+      <c r="C30" s="65"/>
       <c r="D30" s="10"/>
       <c r="E30" s="11"/>
       <c r="F30" s="10"/>
       <c r="G30" s="10"/>
       <c r="H30" s="1"/>
-      <c r="I30" s="57"/>
+      <c r="I30" s="54"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -5839,14 +5827,14 @@
       <c r="A31" s="4">
         <v>26</v>
       </c>
-      <c r="B31" s="69"/>
-      <c r="C31" s="69"/>
+      <c r="B31" s="65"/>
+      <c r="C31" s="65"/>
       <c r="D31" s="10"/>
       <c r="E31" s="11"/>
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
       <c r="H31" s="1"/>
-      <c r="I31" s="57"/>
+      <c r="I31" s="54"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
@@ -5871,14 +5859,14 @@
       <c r="A32" s="4">
         <v>27</v>
       </c>
-      <c r="B32" s="69"/>
-      <c r="C32" s="69"/>
+      <c r="B32" s="65"/>
+      <c r="C32" s="65"/>
       <c r="D32" s="10"/>
       <c r="E32" s="11"/>
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
       <c r="H32" s="1"/>
-      <c r="I32" s="57"/>
+      <c r="I32" s="54"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
@@ -5903,14 +5891,14 @@
       <c r="A33" s="4">
         <v>28</v>
       </c>
-      <c r="B33" s="69"/>
-      <c r="C33" s="69"/>
+      <c r="B33" s="65"/>
+      <c r="C33" s="65"/>
       <c r="D33" s="10"/>
       <c r="E33" s="11"/>
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
       <c r="H33" s="1"/>
-      <c r="I33" s="57"/>
+      <c r="I33" s="54"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
@@ -5935,14 +5923,14 @@
       <c r="A34" s="4">
         <v>29</v>
       </c>
-      <c r="B34" s="69"/>
-      <c r="C34" s="69"/>
+      <c r="B34" s="65"/>
+      <c r="C34" s="65"/>
       <c r="D34" s="10"/>
       <c r="E34" s="11"/>
       <c r="F34" s="10"/>
       <c r="G34" s="10"/>
       <c r="H34" s="1"/>
-      <c r="I34" s="57"/>
+      <c r="I34" s="54"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
@@ -5967,14 +5955,14 @@
       <c r="A35" s="4">
         <v>30</v>
       </c>
-      <c r="B35" s="69"/>
-      <c r="C35" s="69"/>
+      <c r="B35" s="65"/>
+      <c r="C35" s="65"/>
       <c r="D35" s="10"/>
       <c r="E35" s="11"/>
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
       <c r="H35" s="1"/>
-      <c r="I35" s="57"/>
+      <c r="I35" s="54"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
@@ -5999,14 +5987,14 @@
       <c r="A36" s="4">
         <v>31</v>
       </c>
-      <c r="B36" s="69"/>
-      <c r="C36" s="69"/>
+      <c r="B36" s="65"/>
+      <c r="C36" s="65"/>
       <c r="D36" s="10"/>
       <c r="E36" s="11"/>
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
       <c r="H36" s="1"/>
-      <c r="I36" s="57"/>
+      <c r="I36" s="54"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
@@ -6031,14 +6019,14 @@
       <c r="A37" s="4">
         <v>32</v>
       </c>
-      <c r="B37" s="69"/>
-      <c r="C37" s="69"/>
+      <c r="B37" s="65"/>
+      <c r="C37" s="65"/>
       <c r="D37" s="10"/>
       <c r="E37" s="11"/>
       <c r="F37" s="10"/>
       <c r="G37" s="10"/>
       <c r="H37" s="1"/>
-      <c r="I37" s="57"/>
+      <c r="I37" s="54"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
@@ -6063,14 +6051,14 @@
       <c r="A38" s="4">
         <v>33</v>
       </c>
-      <c r="B38" s="69"/>
-      <c r="C38" s="69"/>
+      <c r="B38" s="65"/>
+      <c r="C38" s="65"/>
       <c r="D38" s="10"/>
       <c r="E38" s="11"/>
       <c r="F38" s="10"/>
       <c r="G38" s="10"/>
       <c r="H38" s="1"/>
-      <c r="I38" s="57"/>
+      <c r="I38" s="54"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
@@ -6090,14 +6078,14 @@
       <c r="A39" s="4">
         <v>34</v>
       </c>
-      <c r="B39" s="69"/>
-      <c r="C39" s="69"/>
+      <c r="B39" s="65"/>
+      <c r="C39" s="65"/>
       <c r="D39" s="10"/>
       <c r="E39" s="11"/>
       <c r="F39" s="10"/>
       <c r="G39" s="10"/>
       <c r="H39" s="1"/>
-      <c r="I39" s="57"/>
+      <c r="I39" s="54"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
@@ -6117,14 +6105,14 @@
       <c r="A40" s="4">
         <v>35</v>
       </c>
-      <c r="B40" s="69"/>
-      <c r="C40" s="69"/>
+      <c r="B40" s="65"/>
+      <c r="C40" s="65"/>
       <c r="D40" s="10"/>
       <c r="E40" s="11"/>
       <c r="F40" s="10"/>
       <c r="G40" s="10"/>
       <c r="H40" s="1"/>
-      <c r="I40" s="57"/>
+      <c r="I40" s="54"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
@@ -6149,14 +6137,14 @@
       <c r="A41" s="4">
         <v>36</v>
       </c>
-      <c r="B41" s="69"/>
-      <c r="C41" s="69"/>
+      <c r="B41" s="65"/>
+      <c r="C41" s="65"/>
       <c r="D41" s="10"/>
       <c r="E41" s="11"/>
       <c r="F41" s="10"/>
       <c r="G41" s="10"/>
       <c r="H41" s="1"/>
-      <c r="I41" s="57"/>
+      <c r="I41" s="54"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
@@ -6181,14 +6169,14 @@
       <c r="A42" s="4">
         <v>37</v>
       </c>
-      <c r="B42" s="69"/>
-      <c r="C42" s="69"/>
+      <c r="B42" s="65"/>
+      <c r="C42" s="65"/>
       <c r="D42" s="10"/>
       <c r="E42" s="11"/>
       <c r="F42" s="10"/>
       <c r="G42" s="10"/>
       <c r="H42" s="1"/>
-      <c r="I42" s="57"/>
+      <c r="I42" s="54"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
@@ -6208,14 +6196,14 @@
       <c r="A43" s="4">
         <v>38</v>
       </c>
-      <c r="B43" s="69"/>
-      <c r="C43" s="69"/>
+      <c r="B43" s="65"/>
+      <c r="C43" s="65"/>
       <c r="D43" s="10"/>
       <c r="E43" s="11"/>
       <c r="F43" s="10"/>
       <c r="G43" s="10"/>
       <c r="H43" s="1"/>
-      <c r="I43" s="57"/>
+      <c r="I43" s="54"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
@@ -6235,14 +6223,14 @@
       <c r="A44" s="4">
         <v>39</v>
       </c>
-      <c r="B44" s="69"/>
-      <c r="C44" s="69"/>
+      <c r="B44" s="65"/>
+      <c r="C44" s="65"/>
       <c r="D44" s="10"/>
       <c r="E44" s="11"/>
       <c r="F44" s="10"/>
       <c r="G44" s="10"/>
       <c r="H44" s="1"/>
-      <c r="I44" s="57"/>
+      <c r="I44" s="54"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
@@ -6271,14 +6259,14 @@
       <c r="A45" s="4">
         <v>40</v>
       </c>
-      <c r="B45" s="69"/>
-      <c r="C45" s="69"/>
+      <c r="B45" s="65"/>
+      <c r="C45" s="65"/>
       <c r="D45" s="10"/>
       <c r="E45" s="11"/>
       <c r="F45" s="10"/>
       <c r="G45" s="10"/>
       <c r="H45" s="1"/>
-      <c r="I45" s="57"/>
+      <c r="I45" s="54"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
@@ -6310,14 +6298,14 @@
       <c r="A46" s="4">
         <v>41</v>
       </c>
-      <c r="B46" s="69"/>
-      <c r="C46" s="69"/>
+      <c r="B46" s="65"/>
+      <c r="C46" s="65"/>
       <c r="D46" s="10"/>
       <c r="E46" s="11"/>
       <c r="F46" s="10"/>
       <c r="G46" s="10"/>
       <c r="H46" s="1"/>
-      <c r="I46" s="57"/>
+      <c r="I46" s="54"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
@@ -6349,14 +6337,14 @@
       <c r="A47" s="4">
         <v>42</v>
       </c>
-      <c r="B47" s="69"/>
-      <c r="C47" s="69"/>
+      <c r="B47" s="65"/>
+      <c r="C47" s="65"/>
       <c r="D47" s="10"/>
       <c r="E47" s="11"/>
       <c r="F47" s="10"/>
       <c r="G47" s="10"/>
       <c r="H47" s="1"/>
-      <c r="I47" s="57"/>
+      <c r="I47" s="54"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
@@ -6388,14 +6376,14 @@
       <c r="A48" s="4">
         <v>43</v>
       </c>
-      <c r="B48" s="69"/>
-      <c r="C48" s="69"/>
+      <c r="B48" s="65"/>
+      <c r="C48" s="65"/>
       <c r="D48" s="10"/>
       <c r="E48" s="11"/>
       <c r="F48" s="10"/>
       <c r="G48" s="10"/>
       <c r="H48" s="1"/>
-      <c r="I48" s="57"/>
+      <c r="I48" s="54"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
@@ -6430,14 +6418,14 @@
       <c r="A49" s="4">
         <v>44</v>
       </c>
-      <c r="B49" s="69"/>
-      <c r="C49" s="69"/>
+      <c r="B49" s="65"/>
+      <c r="C49" s="65"/>
       <c r="D49" s="10"/>
       <c r="E49" s="11"/>
       <c r="F49" s="10"/>
       <c r="G49" s="10"/>
       <c r="H49" s="1"/>
-      <c r="I49" s="57"/>
+      <c r="I49" s="54"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
@@ -6449,23 +6437,23 @@
       <c r="R49" s="10"/>
       <c r="S49" s="4"/>
       <c r="T49" s="35"/>
-      <c r="U49" s="47"/>
-      <c r="V49" s="47"/>
-      <c r="W49" s="47"/>
+      <c r="U49" s="45"/>
+      <c r="V49" s="45"/>
+      <c r="W49" s="45"/>
       <c r="X49" s="33"/>
     </row>
     <row r="50" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="29">
         <v>45</v>
       </c>
-      <c r="B50" s="70"/>
-      <c r="C50" s="70"/>
-      <c r="D50" s="46"/>
+      <c r="B50" s="66"/>
+      <c r="C50" s="66"/>
+      <c r="D50" s="44"/>
       <c r="E50" s="31"/>
-      <c r="F50" s="46"/>
-      <c r="G50" s="46"/>
+      <c r="F50" s="44"/>
+      <c r="G50" s="44"/>
       <c r="H50" s="32"/>
-      <c r="I50" s="58"/>
+      <c r="I50" s="55"/>
       <c r="J50" s="32"/>
       <c r="K50" s="32"/>
       <c r="L50" s="32"/>
@@ -6474,26 +6462,26 @@
       <c r="O50" s="32"/>
       <c r="P50" s="32"/>
       <c r="Q50" s="29"/>
-      <c r="R50" s="46"/>
+      <c r="R50" s="44"/>
       <c r="S50" s="29"/>
       <c r="T50" s="35"/>
-      <c r="U50" s="47"/>
-      <c r="V50" s="47"/>
-      <c r="W50" s="47"/>
+      <c r="U50" s="45"/>
+      <c r="V50" s="45"/>
+      <c r="W50" s="45"/>
       <c r="X50" s="33"/>
     </row>
     <row r="51" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>46</v>
       </c>
-      <c r="B51" s="69"/>
-      <c r="C51" s="69"/>
+      <c r="B51" s="65"/>
+      <c r="C51" s="65"/>
       <c r="D51" s="10"/>
       <c r="E51" s="11"/>
       <c r="F51" s="10"/>
       <c r="G51" s="10"/>
       <c r="H51" s="1"/>
-      <c r="I51" s="57"/>
+      <c r="I51" s="54"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
@@ -6505,23 +6493,23 @@
       <c r="R51" s="10"/>
       <c r="S51" s="10"/>
       <c r="T51" s="35"/>
-      <c r="U51" s="47"/>
-      <c r="V51" s="47"/>
-      <c r="W51" s="47"/>
+      <c r="U51" s="45"/>
+      <c r="V51" s="45"/>
+      <c r="W51" s="45"/>
       <c r="X51" s="33"/>
     </row>
     <row r="52" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>47</v>
       </c>
-      <c r="B52" s="71"/>
-      <c r="C52" s="71"/>
+      <c r="B52" s="67"/>
+      <c r="C52" s="67"/>
       <c r="D52" s="33"/>
       <c r="E52" s="33"/>
       <c r="F52" s="33"/>
       <c r="G52" s="33"/>
       <c r="H52" s="33"/>
-      <c r="I52" s="59"/>
+      <c r="I52" s="56"/>
       <c r="J52" s="33"/>
       <c r="K52" s="33"/>
       <c r="L52" s="34"/>
@@ -6533,23 +6521,23 @@
       <c r="R52" s="33"/>
       <c r="S52" s="33"/>
       <c r="T52" s="35"/>
-      <c r="U52" s="47"/>
-      <c r="V52" s="47"/>
-      <c r="W52" s="47"/>
+      <c r="U52" s="45"/>
+      <c r="V52" s="45"/>
+      <c r="W52" s="45"/>
       <c r="X52" s="33"/>
     </row>
     <row r="53" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>48</v>
       </c>
-      <c r="B53" s="71"/>
-      <c r="C53" s="71"/>
+      <c r="B53" s="67"/>
+      <c r="C53" s="67"/>
       <c r="D53" s="33"/>
       <c r="E53" s="33"/>
       <c r="F53" s="33"/>
       <c r="G53" s="33"/>
       <c r="H53" s="33"/>
-      <c r="I53" s="59"/>
+      <c r="I53" s="56"/>
       <c r="J53" s="33"/>
       <c r="K53" s="33"/>
       <c r="L53" s="34"/>
@@ -6561,23 +6549,23 @@
       <c r="R53" s="33"/>
       <c r="S53" s="33"/>
       <c r="T53" s="35"/>
-      <c r="U53" s="47"/>
-      <c r="V53" s="47"/>
-      <c r="W53" s="47"/>
+      <c r="U53" s="45"/>
+      <c r="V53" s="45"/>
+      <c r="W53" s="45"/>
       <c r="X53" s="33"/>
     </row>
     <row r="54" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <v>49</v>
       </c>
-      <c r="B54" s="71"/>
-      <c r="C54" s="71"/>
+      <c r="B54" s="67"/>
+      <c r="C54" s="67"/>
       <c r="D54" s="33"/>
       <c r="E54" s="33"/>
       <c r="F54" s="33"/>
       <c r="G54" s="33"/>
       <c r="H54" s="33"/>
-      <c r="I54" s="59"/>
+      <c r="I54" s="56"/>
       <c r="J54" s="33"/>
       <c r="K54" s="33"/>
       <c r="L54" s="34"/>
@@ -6589,23 +6577,23 @@
       <c r="R54" s="33"/>
       <c r="S54" s="33"/>
       <c r="T54" s="35"/>
-      <c r="U54" s="47"/>
-      <c r="V54" s="47"/>
-      <c r="W54" s="47"/>
+      <c r="U54" s="45"/>
+      <c r="V54" s="45"/>
+      <c r="W54" s="45"/>
       <c r="X54" s="33"/>
     </row>
     <row r="55" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>50</v>
       </c>
-      <c r="B55" s="71"/>
-      <c r="C55" s="71"/>
+      <c r="B55" s="67"/>
+      <c r="C55" s="67"/>
       <c r="D55" s="33"/>
       <c r="E55" s="33"/>
       <c r="F55" s="33"/>
       <c r="G55" s="33"/>
       <c r="H55" s="33"/>
-      <c r="I55" s="59"/>
+      <c r="I55" s="56"/>
       <c r="J55" s="33"/>
       <c r="K55" s="33"/>
       <c r="L55" s="34"/>
@@ -6617,9 +6605,9 @@
       <c r="R55" s="33"/>
       <c r="S55" s="33"/>
       <c r="T55" s="36"/>
-      <c r="U55" s="47"/>
-      <c r="V55" s="47"/>
-      <c r="W55" s="47"/>
+      <c r="U55" s="45"/>
+      <c r="V55" s="45"/>
+      <c r="W55" s="45"/>
       <c r="X55" s="33"/>
     </row>
     <row r="56" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6634,13 +6622,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6652,6 +6633,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6662,8 +6650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:V1"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S20" sqref="S20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6695,43 +6683,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="77" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
-      <c r="W1" s="48"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
+      <c r="W1" s="46"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="79" t="s">
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="80" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="79"/>
+      <c r="F2" s="80"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -6776,7 +6764,7 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="81" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="75" t="s">
@@ -6796,16 +6784,16 @@
         <v>11</v>
       </c>
       <c r="L4" s="75"/>
-      <c r="M4" s="81" t="s">
+      <c r="M4" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="81" t="s">
+      <c r="N4" s="82" t="s">
         <v>10</v>
       </c>
       <c r="O4" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="86" t="s">
+      <c r="P4" s="74" t="s">
         <v>14</v>
       </c>
       <c r="Q4" s="75" t="s">
@@ -6814,7 +6802,7 @@
       <c r="R4" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="87" t="s">
+      <c r="S4" s="76" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
@@ -6824,259 +6812,467 @@
       <c r="V4" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="W4" s="49"/>
+      <c r="W4" s="47"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="80"/>
-      <c r="B5" s="45" t="s">
+      <c r="A5" s="81"/>
+      <c r="B5" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="45" t="s">
+      <c r="D5" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="45" t="s">
+      <c r="E5" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="45" t="s">
+      <c r="F5" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="45" t="s">
+      <c r="G5" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="45" t="s">
+      <c r="H5" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="I5" s="45" t="s">
+      <c r="I5" s="43" t="s">
         <v>15</v>
       </c>
       <c r="J5" s="75"/>
-      <c r="K5" s="45" t="s">
+      <c r="K5" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="45" t="s">
+      <c r="L5" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="82"/>
-      <c r="N5" s="82"/>
+      <c r="M5" s="83"/>
+      <c r="N5" s="83"/>
       <c r="O5" s="75"/>
-      <c r="P5" s="86"/>
+      <c r="P5" s="74"/>
       <c r="Q5" s="75"/>
       <c r="R5" s="75"/>
-      <c r="S5" s="87"/>
+      <c r="S5" s="76"/>
       <c r="T5" s="27"/>
       <c r="U5" s="75"/>
       <c r="V5" s="75"/>
-      <c r="W5" s="49"/>
+      <c r="W5" s="47"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="39"/>
+      <c r="B6" s="37">
+        <v>44320</v>
+      </c>
+      <c r="C6" s="37">
+        <v>44321</v>
+      </c>
+      <c r="D6" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="39">
+        <v>868183034518865</v>
+      </c>
       <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="62"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
-      <c r="N6" s="42"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="38"/>
+      <c r="G6" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="H6" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="I6" s="49" t="s">
+        <v>67</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K6" s="58" t="s">
+        <v>66</v>
+      </c>
+      <c r="L6" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="N6" s="41"/>
+      <c r="O6" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="P6" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="38" t="s">
+        <v>24</v>
+      </c>
       <c r="S6" s="4"/>
-      <c r="T6" s="44"/>
-      <c r="U6" s="83" t="s">
+      <c r="T6" s="42"/>
+      <c r="U6" s="71" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="W6" s="44"/>
+      <c r="W6" s="42"/>
     </row>
     <row r="7" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>2</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="39"/>
+      <c r="B7" s="37">
+        <v>44327</v>
+      </c>
+      <c r="C7" s="37">
+        <v>44329</v>
+      </c>
+      <c r="D7" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="39">
+        <v>868183035928295</v>
+      </c>
       <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="61"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="42"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="38"/>
+      <c r="G7" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="H7" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="I7" s="49" t="s">
+        <v>67</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K7" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="L7" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="N7" s="41"/>
+      <c r="O7" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="P7" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="R7" s="38" t="s">
+        <v>78</v>
+      </c>
       <c r="S7" s="4"/>
-      <c r="T7" s="44"/>
-      <c r="U7" s="84"/>
+      <c r="T7" s="42"/>
+      <c r="U7" s="72"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="W7" s="44"/>
+      <c r="W7" s="42"/>
     </row>
     <row r="8" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>3</v>
       </c>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="39"/>
+      <c r="B8" s="37">
+        <v>44327</v>
+      </c>
+      <c r="C8" s="37">
+        <v>44329</v>
+      </c>
+      <c r="D8" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="39">
+        <v>860157040199140</v>
+      </c>
       <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
+      <c r="G8" s="38" t="s">
+        <v>74</v>
+      </c>
       <c r="H8" s="38"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="41"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
-      <c r="N8" s="52"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="38"/>
+      <c r="I8" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K8" s="49" t="s">
+        <v>66</v>
+      </c>
+      <c r="L8" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="N8" s="41"/>
+      <c r="O8" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="P8" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="R8" s="38" t="s">
+        <v>78</v>
+      </c>
       <c r="S8" s="4"/>
-      <c r="T8" s="44"/>
-      <c r="U8" s="84"/>
+      <c r="T8" s="42"/>
+      <c r="U8" s="72"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="W8" s="44"/>
+      <c r="W8" s="42"/>
     </row>
     <row r="9" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>4</v>
       </c>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="38"/>
+      <c r="B9" s="37">
+        <v>44327</v>
+      </c>
+      <c r="C9" s="37">
+        <v>44329</v>
+      </c>
+      <c r="D9" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="E9" s="39">
+        <v>866192037805452</v>
+      </c>
+      <c r="F9" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="G9" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="H9" s="38" t="s">
+        <v>97</v>
+      </c>
+      <c r="I9" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9" s="58" t="s">
+        <v>82</v>
+      </c>
+      <c r="L9" s="40" t="s">
+        <v>86</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="N9" s="41"/>
+      <c r="O9" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="P9" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R9" s="38" t="s">
+        <v>85</v>
+      </c>
       <c r="S9" s="4"/>
-      <c r="T9" s="44"/>
-      <c r="U9" s="84"/>
+      <c r="T9" s="42"/>
+      <c r="U9" s="72"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="W9" s="44"/>
+      <c r="W9" s="42"/>
     </row>
     <row r="10" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>5</v>
       </c>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="40"/>
-      <c r="M10" s="40"/>
-      <c r="N10" s="1"/>
+      <c r="B10" s="37">
+        <v>44327</v>
+      </c>
+      <c r="C10" s="37">
+        <v>44329</v>
+      </c>
+      <c r="D10" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="E10" s="39">
+        <v>866192037530167</v>
+      </c>
+      <c r="F10" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="G10" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="H10" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="I10" s="49" t="s">
+        <v>91</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K10" s="58" t="s">
+        <v>90</v>
+      </c>
+      <c r="L10" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="N10" s="41">
+        <v>260000</v>
+      </c>
       <c r="O10" s="40"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="38"/>
+      <c r="P10" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="R10" s="38" t="s">
+        <v>96</v>
+      </c>
       <c r="S10" s="4"/>
-      <c r="T10" s="44"/>
-      <c r="U10" s="84"/>
+      <c r="T10" s="42"/>
+      <c r="U10" s="72"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="W10" s="44"/>
+      <c r="W10" s="42"/>
     </row>
     <row r="11" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>6</v>
       </c>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
+      <c r="B11" s="37">
+        <v>44327</v>
+      </c>
+      <c r="C11" s="37">
+        <v>44329</v>
+      </c>
+      <c r="D11" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="E11" s="39">
+        <v>862631034714435</v>
+      </c>
+      <c r="F11" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="G11" s="38" t="s">
+        <v>61</v>
+      </c>
       <c r="H11" s="38"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="43"/>
-      <c r="L11" s="40"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="42"/>
+      <c r="I11" s="49" t="s">
+        <v>93</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K11" s="40" t="s">
+        <v>92</v>
+      </c>
+      <c r="L11" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="N11" s="41"/>
       <c r="O11" s="40"/>
-      <c r="P11" s="40"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="38"/>
+      <c r="P11" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R11" s="38" t="s">
+        <v>24</v>
+      </c>
       <c r="S11" s="4"/>
-      <c r="T11" s="44"/>
-      <c r="U11" s="84"/>
+      <c r="T11" s="42"/>
+      <c r="U11" s="72"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="W11" s="44"/>
+      <c r="W11" s="42"/>
     </row>
     <row r="12" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>7</v>
       </c>
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="40"/>
-      <c r="M12" s="40"/>
-      <c r="N12" s="1"/>
+      <c r="B12" s="37">
+        <v>44327</v>
+      </c>
+      <c r="C12" s="37">
+        <v>44329</v>
+      </c>
+      <c r="D12" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" s="39">
+        <v>866192037775440</v>
+      </c>
+      <c r="F12" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="G12" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="H12" s="38"/>
+      <c r="I12" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K12" s="58"/>
+      <c r="L12" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="N12" s="41">
+        <v>120000</v>
+      </c>
       <c r="O12" s="40"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="38"/>
+      <c r="P12" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R12" s="38" t="s">
+        <v>30</v>
+      </c>
       <c r="S12" s="4"/>
-      <c r="T12" s="44"/>
-      <c r="U12" s="83" t="s">
+      <c r="T12" s="42"/>
+      <c r="U12" s="71" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="W12" s="44"/>
+      <c r="W12" s="42"/>
     </row>
     <row r="13" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
@@ -7100,12 +7296,12 @@
       <c r="Q13" s="3"/>
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
-      <c r="T13" s="44"/>
-      <c r="U13" s="84"/>
+      <c r="T13" s="42"/>
+      <c r="U13" s="72"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="W13" s="44"/>
+      <c r="W13" s="42"/>
     </row>
     <row r="14" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
@@ -7129,12 +7325,12 @@
       <c r="Q14" s="4"/>
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
-      <c r="T14" s="44"/>
-      <c r="U14" s="84"/>
+      <c r="T14" s="42"/>
+      <c r="U14" s="72"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="W14" s="44"/>
+      <c r="W14" s="42"/>
     </row>
     <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
@@ -7159,11 +7355,11 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="84"/>
+      <c r="U15" s="72"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="W15" s="44"/>
+      <c r="W15" s="42"/>
     </row>
     <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
@@ -7188,11 +7384,11 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="85"/>
+      <c r="U16" s="73"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="W16" s="44"/>
+      <c r="W16" s="42"/>
     </row>
     <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
@@ -7217,9 +7413,9 @@
       <c r="R17" s="38"/>
       <c r="S17" s="4"/>
       <c r="T17" s="14"/>
-      <c r="U17" s="44"/>
+      <c r="U17" s="42"/>
       <c r="V17" s="15"/>
-      <c r="W17" s="44"/>
+      <c r="W17" s="42"/>
     </row>
     <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
@@ -7271,13 +7467,13 @@
       <c r="R19" s="10"/>
       <c r="S19" s="4"/>
       <c r="T19" s="14"/>
-      <c r="U19" s="45" t="s">
+      <c r="U19" s="43" t="s">
         <v>39</v>
       </c>
       <c r="V19" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="W19" s="50"/>
+      <c r="W19" s="48"/>
     </row>
     <row r="20" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
@@ -7307,7 +7503,7 @@
       </c>
       <c r="V20" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W20" s="14"/>
     </row>
@@ -7339,7 +7535,7 @@
       </c>
       <c r="V21" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" s="14"/>
     </row>
@@ -7371,7 +7567,7 @@
       </c>
       <c r="V22" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W22" s="14"/>
     </row>
@@ -7452,13 +7648,13 @@
       <c r="R25" s="10"/>
       <c r="S25" s="4"/>
       <c r="T25" s="14"/>
-      <c r="U25" s="45" t="s">
+      <c r="U25" s="43" t="s">
         <v>46</v>
       </c>
       <c r="V25" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="W25" s="50"/>
+      <c r="W25" s="48"/>
     </row>
     <row r="26" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
@@ -7520,7 +7716,7 @@
       </c>
       <c r="V27" s="10">
         <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W27" s="14"/>
     </row>
@@ -7584,7 +7780,7 @@
       </c>
       <c r="V29" s="10">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W29" s="14"/>
     </row>
@@ -7648,7 +7844,7 @@
       </c>
       <c r="V31" s="10">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W31" s="14"/>
     </row>
@@ -7680,7 +7876,7 @@
       </c>
       <c r="V32" s="10">
         <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W32" s="14"/>
     </row>
@@ -7776,7 +7972,7 @@
       </c>
       <c r="V35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="W35" s="14"/>
     </row>
@@ -7840,7 +8036,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -8193,7 +8389,7 @@
       <c r="S48" s="4"/>
       <c r="T48" s="35">
         <f>COUNTIF(J9:J20,"*GSM*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U48" s="10" t="s">
         <v>57</v>
@@ -8234,9 +8430,9 @@
       <c r="R49" s="10"/>
       <c r="S49" s="4"/>
       <c r="T49" s="35"/>
-      <c r="U49" s="47"/>
-      <c r="V49" s="47"/>
-      <c r="W49" s="47"/>
+      <c r="U49" s="45"/>
+      <c r="V49" s="45"/>
+      <c r="W49" s="45"/>
       <c r="X49" s="33"/>
     </row>
     <row r="50" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8245,10 +8441,10 @@
       </c>
       <c r="B50" s="30"/>
       <c r="C50" s="30"/>
-      <c r="D50" s="46"/>
+      <c r="D50" s="44"/>
       <c r="E50" s="31"/>
-      <c r="F50" s="46"/>
-      <c r="G50" s="46"/>
+      <c r="F50" s="44"/>
+      <c r="G50" s="44"/>
       <c r="H50" s="32"/>
       <c r="I50" s="32"/>
       <c r="J50" s="32"/>
@@ -8259,12 +8455,12 @@
       <c r="O50" s="32"/>
       <c r="P50" s="32"/>
       <c r="Q50" s="29"/>
-      <c r="R50" s="46"/>
+      <c r="R50" s="44"/>
       <c r="S50" s="29"/>
       <c r="T50" s="35"/>
-      <c r="U50" s="47"/>
-      <c r="V50" s="47"/>
-      <c r="W50" s="47"/>
+      <c r="U50" s="45"/>
+      <c r="V50" s="45"/>
+      <c r="W50" s="45"/>
       <c r="X50" s="33"/>
     </row>
     <row r="51" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8290,9 +8486,9 @@
       <c r="R51" s="10"/>
       <c r="S51" s="10"/>
       <c r="T51" s="35"/>
-      <c r="U51" s="47"/>
-      <c r="V51" s="47"/>
-      <c r="W51" s="47"/>
+      <c r="U51" s="45"/>
+      <c r="V51" s="45"/>
+      <c r="W51" s="45"/>
       <c r="X51" s="33"/>
     </row>
     <row r="52" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8318,9 +8514,9 @@
       <c r="R52" s="33"/>
       <c r="S52" s="33"/>
       <c r="T52" s="35"/>
-      <c r="U52" s="47"/>
-      <c r="V52" s="47"/>
-      <c r="W52" s="47"/>
+      <c r="U52" s="45"/>
+      <c r="V52" s="45"/>
+      <c r="W52" s="45"/>
       <c r="X52" s="33"/>
     </row>
     <row r="53" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8346,9 +8542,9 @@
       <c r="R53" s="33"/>
       <c r="S53" s="33"/>
       <c r="T53" s="35"/>
-      <c r="U53" s="47"/>
-      <c r="V53" s="47"/>
-      <c r="W53" s="47"/>
+      <c r="U53" s="45"/>
+      <c r="V53" s="45"/>
+      <c r="W53" s="45"/>
       <c r="X53" s="33"/>
     </row>
     <row r="54" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8374,9 +8570,9 @@
       <c r="R54" s="33"/>
       <c r="S54" s="33"/>
       <c r="T54" s="35"/>
-      <c r="U54" s="47"/>
-      <c r="V54" s="47"/>
-      <c r="W54" s="47"/>
+      <c r="U54" s="45"/>
+      <c r="V54" s="45"/>
+      <c r="W54" s="45"/>
       <c r="X54" s="33"/>
     </row>
     <row r="55" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8402,9 +8598,9 @@
       <c r="R55" s="33"/>
       <c r="S55" s="33"/>
       <c r="T55" s="36"/>
-      <c r="U55" s="47"/>
-      <c r="V55" s="47"/>
-      <c r="W55" s="47"/>
+      <c r="U55" s="45"/>
+      <c r="V55" s="45"/>
+      <c r="W55" s="45"/>
       <c r="X55" s="33"/>
     </row>
     <row r="56" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8419,6 +8615,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8430,13 +8633,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
